--- a/AppComercial-Videos.xlsx
+++ b/AppComercial-Videos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AFBD87-A042-4448-8BC5-945E6ED3320D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BFDFF0-6302-4457-BB3F-AEBAC31CDC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -391,7 +391,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,6 +407,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -538,6 +544,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -858,7 +882,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -956,162 +980,172 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
+      <c r="A5" s="25">
         <v>4</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="24">
-        <v>20</v>
-      </c>
-      <c r="D5" s="24">
+      <c r="C5" s="27">
+        <v>20</v>
+      </c>
+      <c r="D5" s="27">
         <v>21</v>
       </c>
-      <c r="E5" s="17" t="str">
+      <c r="E5" s="28" t="str">
         <f>INT((INT(SUM($D$1:D5)/60)+SUM($C$1:C5))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D5)/60)+SUM($C$1:C5))/60-INT((INT(SUM($D$1:D5)/60)+SUM($C$1:C5))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D5)/60-INT(SUM($D$1:D5)/60))*60) &amp; " seg"</f>
         <v>1 hs 20 min 47 seg</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="29">
         <v>44398</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+      <c r="A6" s="30">
         <v>5</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="24">
-        <v>20</v>
-      </c>
-      <c r="D6" s="24">
+      <c r="C6" s="27">
+        <v>20</v>
+      </c>
+      <c r="D6" s="27">
         <v>8</v>
       </c>
-      <c r="E6" s="17" t="str">
+      <c r="E6" s="28" t="str">
         <f>INT((INT(SUM($D$1:D6)/60)+SUM($C$1:C6))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D6)/60)+SUM($C$1:C6))/60-INT((INT(SUM($D$1:D6)/60)+SUM($C$1:C6))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D6)/60-INT(SUM($D$1:D6)/60))*60) &amp; " seg"</f>
         <v>1 hs 40 min 55 seg</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="29">
         <v>44398</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+      <c r="A7" s="25">
         <v>6</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="24">
-        <v>20</v>
-      </c>
-      <c r="D7" s="24">
+      <c r="C7" s="27">
+        <v>20</v>
+      </c>
+      <c r="D7" s="27">
         <v>17</v>
       </c>
-      <c r="E7" s="17" t="str">
+      <c r="E7" s="28" t="str">
         <f>INT((INT(SUM($D$1:D7)/60)+SUM($C$1:C7))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D7)/60)+SUM($C$1:C7))/60-INT((INT(SUM($D$1:D7)/60)+SUM($C$1:C7))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D7)/60-INT(SUM($D$1:D7)/60))*60) &amp; " seg"</f>
         <v>2 hs 0 min 12 seg</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="29">
         <v>44398</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="18">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="9">
-        <v>20</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="C8" s="24">
+        <v>20</v>
+      </c>
+      <c r="D8" s="24">
         <v>12</v>
       </c>
-      <c r="E8" s="8" t="str">
+      <c r="E8" s="17" t="str">
         <f>INT((INT(SUM($D$1:D8)/60)+SUM($C$1:C8))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D8)/60)+SUM($C$1:C8))/60-INT((INT(SUM($D$1:D8)/60)+SUM($C$1:C8))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D8)/60-INT(SUM($D$1:D8)/60))*60) &amp; " seg"</f>
         <v>2 hs 21 min 24 seg</v>
       </c>
-      <c r="F8" s="19"/>
+      <c r="F8" s="22">
+        <v>44399</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="A9" s="16">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="24">
         <v>11</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="24">
         <v>34</v>
       </c>
-      <c r="E9" s="8" t="str">
+      <c r="E9" s="17" t="str">
         <f>INT((INT(SUM($D$1:D9)/60)+SUM($C$1:C9))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D9)/60)+SUM($C$1:C9))/60-INT((INT(SUM($D$1:D9)/60)+SUM($C$1:C9))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D9)/60-INT(SUM($D$1:D9)/60))*60) &amp; " seg"</f>
         <v>2 hs 32 min 58 seg</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="22">
+        <v>44399</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="18">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="9">
-        <v>20</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="C10" s="24">
+        <v>20</v>
+      </c>
+      <c r="D10" s="24">
         <v>7</v>
       </c>
-      <c r="E10" s="8" t="str">
+      <c r="E10" s="17" t="str">
         <f>INT((INT(SUM($D$1:D10)/60)+SUM($C$1:C10))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D10)/60)+SUM($C$1:C10))/60-INT((INT(SUM($D$1:D10)/60)+SUM($C$1:C10))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D10)/60-INT(SUM($D$1:D10)/60))*60) &amp; " seg"</f>
         <v>2 hs 53 min 4 seg</v>
       </c>
-      <c r="F10" s="19"/>
+      <c r="F10" s="22">
+        <v>44399</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="16">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="9">
-        <v>20</v>
-      </c>
-      <c r="D11" s="9">
+      <c r="C11" s="24">
+        <v>20</v>
+      </c>
+      <c r="D11" s="24">
         <v>7</v>
       </c>
-      <c r="E11" s="8" t="str">
+      <c r="E11" s="17" t="str">
         <f>INT((INT(SUM($D$1:D11)/60)+SUM($C$1:C11))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D11)/60)+SUM($C$1:C11))/60-INT((INT(SUM($D$1:D11)/60)+SUM($C$1:C11))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D11)/60-INT(SUM($D$1:D11)/60))*60) &amp; " seg"</f>
         <v>3 hs 13 min 12 seg</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="22">
+        <v>44399</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="18">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="24">
         <v>21</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="24">
         <v>33</v>
       </c>
-      <c r="E12" s="8" t="str">
+      <c r="E12" s="17" t="str">
         <f>INT((INT(SUM($D$1:D12)/60)+SUM($C$1:C12))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D12)/60)+SUM($C$1:C12))/60-INT((INT(SUM($D$1:D12)/60)+SUM($C$1:C12))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D12)/60-INT(SUM($D$1:D12)/60))*60) &amp; " seg"</f>
         <v>3 hs 34 min 45 seg</v>
       </c>
-      <c r="F12" s="19"/>
+      <c r="F12" s="22">
+        <v>44399</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="10">

--- a/AppComercial-Videos.xlsx
+++ b/AppComercial-Videos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BFDFF0-6302-4457-BB3F-AEBAC31CDC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886DF30C-9A48-4672-9E00-4192A1480B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -882,7 +882,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -1148,118 +1148,130 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+      <c r="A13" s="25">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="27">
         <v>15</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="27">
         <v>3</v>
       </c>
-      <c r="E13" s="8" t="str">
+      <c r="E13" s="28" t="str">
         <f>INT((INT(SUM($D$1:D13)/60)+SUM($C$1:C13))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D13)/60)+SUM($C$1:C13))/60-INT((INT(SUM($D$1:D13)/60)+SUM($C$1:C13))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D13)/60-INT(SUM($D$1:D13)/60))*60) &amp; " seg"</f>
         <v>3 hs 49 min 48 seg</v>
       </c>
-      <c r="F13" s="19"/>
+      <c r="F13" s="29">
+        <v>44400</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="18">
+      <c r="A14" s="30">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="27">
         <v>15</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="27">
         <v>5</v>
       </c>
-      <c r="E14" s="8" t="str">
+      <c r="E14" s="28" t="str">
         <f>INT((INT(SUM($D$1:D14)/60)+SUM($C$1:C14))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D14)/60)+SUM($C$1:C14))/60-INT((INT(SUM($D$1:D14)/60)+SUM($C$1:C14))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D14)/60-INT(SUM($D$1:D14)/60))*60) &amp; " seg"</f>
         <v>4 hs 3 min 53 seg</v>
       </c>
-      <c r="F14" s="14"/>
+      <c r="F14" s="29">
+        <v>44400</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
+      <c r="A15" s="25">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="27">
         <v>18</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="27">
         <v>53</v>
       </c>
-      <c r="E15" s="8" t="str">
+      <c r="E15" s="28" t="str">
         <f>INT((INT(SUM($D$1:D15)/60)+SUM($C$1:C15))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D15)/60)+SUM($C$1:C15))/60-INT((INT(SUM($D$1:D15)/60)+SUM($C$1:C15))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D15)/60-INT(SUM($D$1:D15)/60))*60) &amp; " seg"</f>
         <v>4 hs 23 min 46 seg</v>
       </c>
-      <c r="F15" s="14"/>
+      <c r="F15" s="29">
+        <v>44400</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="18">
+      <c r="A16" s="30">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="9">
+      <c r="B16" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="27">
         <v>15</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="27">
         <v>2</v>
       </c>
-      <c r="E16" s="8" t="str">
+      <c r="E16" s="28" t="str">
         <f>INT((INT(SUM($D$1:D16)/60)+SUM($C$1:C16))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D16)/60)+SUM($C$1:C16))/60-INT((INT(SUM($D$1:D16)/60)+SUM($C$1:C16))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D16)/60-INT(SUM($D$1:D16)/60))*60) &amp; " seg"</f>
         <v>4 hs 38 min 48 seg</v>
       </c>
-      <c r="F16" s="14"/>
+      <c r="F16" s="29">
+        <v>44400</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+      <c r="A17" s="25">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="27">
         <v>15</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="27">
         <v>8</v>
       </c>
-      <c r="E17" s="8" t="str">
+      <c r="E17" s="28" t="str">
         <f>INT((INT(SUM($D$1:D17)/60)+SUM($C$1:C17))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D17)/60)+SUM($C$1:C17))/60-INT((INT(SUM($D$1:D17)/60)+SUM($C$1:C17))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D17)/60-INT(SUM($D$1:D17)/60))*60) &amp; " seg"</f>
         <v>4 hs 53 min 56 seg</v>
       </c>
-      <c r="F17" s="14"/>
+      <c r="F17" s="29">
+        <v>44400</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="18">
+      <c r="A18" s="30">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="27">
         <v>16</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="27">
         <v>8</v>
       </c>
-      <c r="E18" s="8" t="str">
+      <c r="E18" s="28" t="str">
         <f>INT((INT(SUM($D$1:D18)/60)+SUM($C$1:C18))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D18)/60)+SUM($C$1:C18))/60-INT((INT(SUM($D$1:D18)/60)+SUM($C$1:C18))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D18)/60-INT(SUM($D$1:D18)/60))*60) &amp; " seg"</f>
         <v>5 hs 10 min 3 seg</v>
       </c>
-      <c r="F18" s="14"/>
+      <c r="F18" s="29">
+        <v>44400</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="10">

--- a/AppComercial-Videos.xlsx
+++ b/AppComercial-Videos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886DF30C-9A48-4672-9E00-4192A1480B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A2CF5B-6936-4ED8-ABBE-45A822CBCE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -113,9 +113,6 @@
     <t>Búsqueda de Proveedores Parte III</t>
   </si>
   <si>
-    <t>Validación de Documento Unico y CRUD Producots Parte I</t>
-  </si>
-  <si>
     <t>CRUD Producots Parte II</t>
   </si>
   <si>
@@ -357,6 +354,9 @@
   </si>
   <si>
     <t>Instalador Windows Parte II</t>
+  </si>
+  <si>
+    <t>Validación de Documento Unico y CRUD Productos Parte I</t>
   </si>
 </sst>
 </file>
@@ -882,7 +882,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -1335,7 +1335,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="C22" s="9">
         <v>20</v>
@@ -1354,7 +1354,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="9">
         <v>20</v>
@@ -1373,7 +1373,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="9">
         <v>20</v>
@@ -1392,7 +1392,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="9">
         <v>16</v>
@@ -1411,7 +1411,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="9">
         <v>20</v>
@@ -1430,7 +1430,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="9">
         <v>20</v>
@@ -1449,7 +1449,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="9">
         <v>20</v>
@@ -1468,7 +1468,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="9">
         <v>16</v>
@@ -1487,7 +1487,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="9">
         <v>20</v>
@@ -1506,7 +1506,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="9">
         <v>20</v>
@@ -1525,7 +1525,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="9">
         <v>20</v>
@@ -1544,7 +1544,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" s="9">
         <v>20</v>
@@ -1563,7 +1563,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="9">
         <v>27</v>
@@ -1582,7 +1582,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" s="9">
         <v>20</v>
@@ -1601,7 +1601,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" s="9">
         <v>20</v>
@@ -1620,7 +1620,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" s="9">
         <v>20</v>
@@ -1639,7 +1639,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38" s="9">
         <v>16</v>
@@ -1658,7 +1658,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" s="9">
         <v>20</v>
@@ -1677,7 +1677,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" s="9">
         <v>20</v>
@@ -1696,7 +1696,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" s="9">
         <v>20</v>
@@ -1715,7 +1715,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C42" s="9">
         <v>15</v>
@@ -1734,7 +1734,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="9">
         <v>16</v>
@@ -1753,7 +1753,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" s="9">
         <v>13</v>
@@ -1772,7 +1772,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C45" s="9">
         <v>20</v>
@@ -1791,7 +1791,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C46" s="9">
         <v>20</v>
@@ -1810,7 +1810,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C47" s="9">
         <v>20</v>
@@ -1829,7 +1829,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C48" s="9">
         <v>20</v>
@@ -1848,7 +1848,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49" s="9">
         <v>24</v>
@@ -1867,7 +1867,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50" s="9">
         <v>20</v>
@@ -1886,7 +1886,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C51" s="11">
         <v>20</v>
@@ -1905,7 +1905,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C52" s="11">
         <v>20</v>
@@ -1924,7 +1924,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C53" s="11">
         <v>20</v>
@@ -1943,7 +1943,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C54" s="11">
         <v>20</v>
@@ -1962,7 +1962,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C55" s="11">
         <v>15</v>
@@ -1981,7 +1981,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C56" s="11">
         <v>20</v>
@@ -2000,7 +2000,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C57" s="11">
         <v>20</v>
@@ -2019,7 +2019,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C58" s="11">
         <v>20</v>
@@ -2038,7 +2038,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C59" s="11">
         <v>20</v>
@@ -2057,7 +2057,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C60" s="11">
         <v>20</v>
@@ -2076,7 +2076,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C61" s="11">
         <v>18</v>
@@ -2095,7 +2095,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C62" s="11">
         <v>14</v>
@@ -2114,7 +2114,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C63" s="11">
         <v>14</v>
@@ -2133,7 +2133,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" s="11">
         <v>20</v>
@@ -2152,7 +2152,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C65" s="11">
         <v>20</v>
@@ -2171,7 +2171,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C66" s="11">
         <v>20</v>
@@ -2190,7 +2190,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C67" s="11">
         <v>10</v>
@@ -2209,7 +2209,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C68" s="11">
         <v>20</v>
@@ -2228,7 +2228,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69" s="11">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" s="11">
         <v>15</v>
@@ -2266,7 +2266,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71" s="11">
         <v>18</v>
@@ -2285,7 +2285,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" s="11">
         <v>15</v>
@@ -2304,7 +2304,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C73" s="11">
         <v>15</v>
@@ -2323,7 +2323,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C74" s="11">
         <v>15</v>
@@ -2342,7 +2342,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C75" s="11">
         <v>20</v>
@@ -2361,7 +2361,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C76" s="11">
         <v>19</v>
@@ -2380,7 +2380,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C77" s="11">
         <v>20</v>
@@ -2399,7 +2399,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C78" s="11">
         <v>20</v>
@@ -2418,7 +2418,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C79" s="11">
         <v>20</v>
@@ -2437,7 +2437,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C80" s="11">
         <v>20</v>
@@ -2456,7 +2456,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C81" s="9">
         <v>20</v>
@@ -2475,7 +2475,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C82" s="9">
         <v>17</v>
@@ -2494,7 +2494,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C83" s="9">
         <v>16</v>
@@ -2513,7 +2513,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C84" s="9">
         <v>19</v>
@@ -2532,7 +2532,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" s="9">
         <v>31</v>
@@ -2551,7 +2551,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C86" s="9">
         <v>20</v>
@@ -2570,7 +2570,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C87" s="9">
         <v>20</v>
@@ -2589,7 +2589,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="9">
         <v>12</v>
@@ -2608,7 +2608,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C89" s="9">
         <v>20</v>
@@ -2627,7 +2627,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C90" s="9">
         <v>20</v>
@@ -2646,7 +2646,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C91" s="9">
         <v>20</v>
@@ -2665,7 +2665,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C92" s="9">
         <v>21</v>
@@ -2684,7 +2684,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C93" s="9">
         <v>20</v>
@@ -2703,7 +2703,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C94" s="9">
         <v>20</v>
@@ -2722,7 +2722,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C95" s="9">
         <v>19</v>
@@ -2741,7 +2741,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C96" s="9">
         <v>20</v>
@@ -2760,7 +2760,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C97" s="9">
         <v>20</v>
@@ -2779,7 +2779,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C98" s="9">
         <v>20</v>
@@ -2798,7 +2798,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C99" s="9">
         <v>18</v>
@@ -2817,7 +2817,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C100" s="9">
         <v>18</v>
@@ -2836,7 +2836,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C101" s="9">
         <v>18</v>
@@ -2855,7 +2855,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C102" s="9">
         <v>15</v>
@@ -2874,7 +2874,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C103" s="9">
         <v>18</v>

--- a/AppComercial-Videos.xlsx
+++ b/AppComercial-Videos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A2CF5B-6936-4ED8-ABBE-45A822CBCE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52F7FD7-8C99-417C-9F0A-AD933C66B8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -882,7 +882,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="A19:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -1274,61 +1274,67 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+      <c r="A19" s="16">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="24">
         <v>17</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="24">
         <v>4</v>
       </c>
-      <c r="E19" s="8" t="str">
+      <c r="E19" s="17" t="str">
         <f>INT((INT(SUM($D$1:D19)/60)+SUM($C$1:C19))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D19)/60)+SUM($C$1:C19))/60-INT((INT(SUM($D$1:D19)/60)+SUM($C$1:C19))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D19)/60-INT(SUM($D$1:D19)/60))*60) &amp; " seg"</f>
         <v>5 hs 27 min 8 seg</v>
       </c>
-      <c r="F19" s="14"/>
+      <c r="F19" s="22">
+        <v>44401</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="18">
+      <c r="A20" s="12">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="24">
         <v>17</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="24">
         <v>4</v>
       </c>
-      <c r="E20" s="8" t="str">
+      <c r="E20" s="17" t="str">
         <f>INT((INT(SUM($D$1:D20)/60)+SUM($C$1:C20))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D20)/60)+SUM($C$1:C20))/60-INT((INT(SUM($D$1:D20)/60)+SUM($C$1:C20))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D20)/60-INT(SUM($D$1:D20)/60))*60) &amp; " seg"</f>
         <v>5 hs 44 min 12 seg</v>
       </c>
-      <c r="F20" s="14"/>
+      <c r="F20" s="22">
+        <v>44401</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
+      <c r="A21" s="16">
+        <v>20</v>
+      </c>
+      <c r="B21" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="24">
         <v>19</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="24">
         <v>11</v>
       </c>
-      <c r="E21" s="8" t="str">
+      <c r="E21" s="17" t="str">
         <f>INT((INT(SUM($D$1:D21)/60)+SUM($C$1:C21))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D21)/60)+SUM($C$1:C21))/60-INT((INT(SUM($D$1:D21)/60)+SUM($C$1:C21))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D21)/60-INT(SUM($D$1:D21)/60))*60) &amp; " seg"</f>
         <v>6 hs 2 min 23 seg</v>
       </c>
-      <c r="F21" s="14"/>
+      <c r="F21" s="22">
+        <v>44401</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="18">

--- a/AppComercial-Videos.xlsx
+++ b/AppComercial-Videos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52F7FD7-8C99-417C-9F0A-AD933C66B8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482B969E-07B9-44A7-B83D-F58E4020B6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>

--- a/AppComercial-Videos.xlsx
+++ b/AppComercial-Videos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482B969E-07B9-44A7-B83D-F58E4020B6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FD6873-EF52-4B99-B477-4C58D1466609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -472,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -501,41 +501,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -544,9 +517,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -561,7 +531,19 @@
     <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -882,7 +864,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="A19:F21"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -917,541 +899,553 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="21">
-        <v>20</v>
-      </c>
-      <c r="D2" s="21">
+      <c r="C2" s="15">
+        <v>20</v>
+      </c>
+      <c r="D2" s="15">
         <v>48</v>
       </c>
-      <c r="E2" s="13" t="str">
+      <c r="E2" s="10" t="str">
         <f>INT((INT(SUM($D$1:D2)/60)+SUM($C$1:C2))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D2)/60)+SUM($C$1:C2))/60-INT((INT(SUM($D$1:D2)/60)+SUM($C$1:C2))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D2)/60-INT(SUM($D$1:D2)/60))*60) &amp; " seg"</f>
         <v>0 hs 20 min 48 seg</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="13">
         <v>44397</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
+      <c r="A3" s="21">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="21">
-        <v>20</v>
-      </c>
-      <c r="D3" s="21">
+      <c r="C3" s="15">
+        <v>20</v>
+      </c>
+      <c r="D3" s="15">
         <v>54</v>
       </c>
-      <c r="E3" s="17" t="str">
+      <c r="E3" s="12" t="str">
         <f>INT((INT(SUM($D$1:D3)/60)+SUM($C$1:C3))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D3)/60)+SUM($C$1:C3))/60-INT((INT(SUM($D$1:D3)/60)+SUM($C$1:C3))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D3)/60-INT(SUM($D$1:D3)/60))*60) &amp; " seg"</f>
         <v>0 hs 41 min 42 seg</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="13">
         <v>44397</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="15">
         <v>18</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="15">
         <v>44</v>
       </c>
-      <c r="E4" s="17" t="str">
+      <c r="E4" s="12" t="str">
         <f>INT((INT(SUM($D$1:D4)/60)+SUM($C$1:C4))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D4)/60)+SUM($C$1:C4))/60-INT((INT(SUM($D$1:D4)/60)+SUM($C$1:C4))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D4)/60-INT(SUM($D$1:D4)/60))*60) &amp; " seg"</f>
         <v>1 hs 0 min 26 seg</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="13">
         <v>44397</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="25">
+      <c r="A5" s="22">
         <v>4</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="27">
-        <v>20</v>
-      </c>
-      <c r="D5" s="27">
+      <c r="C5" s="17">
+        <v>20</v>
+      </c>
+      <c r="D5" s="17">
         <v>21</v>
       </c>
-      <c r="E5" s="28" t="str">
+      <c r="E5" s="18" t="str">
         <f>INT((INT(SUM($D$1:D5)/60)+SUM($C$1:C5))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D5)/60)+SUM($C$1:C5))/60-INT((INT(SUM($D$1:D5)/60)+SUM($C$1:C5))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D5)/60-INT(SUM($D$1:D5)/60))*60) &amp; " seg"</f>
         <v>1 hs 20 min 47 seg</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="19">
         <v>44398</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="30">
+      <c r="A6" s="23">
         <v>5</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="27">
-        <v>20</v>
-      </c>
-      <c r="D6" s="27">
+      <c r="C6" s="17">
+        <v>20</v>
+      </c>
+      <c r="D6" s="17">
         <v>8</v>
       </c>
-      <c r="E6" s="28" t="str">
+      <c r="E6" s="18" t="str">
         <f>INT((INT(SUM($D$1:D6)/60)+SUM($C$1:C6))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D6)/60)+SUM($C$1:C6))/60-INT((INT(SUM($D$1:D6)/60)+SUM($C$1:C6))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D6)/60-INT(SUM($D$1:D6)/60))*60) &amp; " seg"</f>
         <v>1 hs 40 min 55 seg</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="19">
         <v>44398</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="25">
+      <c r="A7" s="22">
         <v>6</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="27">
-        <v>20</v>
-      </c>
-      <c r="D7" s="27">
+      <c r="C7" s="17">
+        <v>20</v>
+      </c>
+      <c r="D7" s="17">
         <v>17</v>
       </c>
-      <c r="E7" s="28" t="str">
+      <c r="E7" s="18" t="str">
         <f>INT((INT(SUM($D$1:D7)/60)+SUM($C$1:C7))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D7)/60)+SUM($C$1:C7))/60-INT((INT(SUM($D$1:D7)/60)+SUM($C$1:C7))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D7)/60-INT(SUM($D$1:D7)/60))*60) &amp; " seg"</f>
         <v>2 hs 0 min 12 seg</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="19">
         <v>44398</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
+      <c r="A8" s="20">
         <v>7</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="24">
-        <v>20</v>
-      </c>
-      <c r="D8" s="24">
+      <c r="C8" s="15">
+        <v>20</v>
+      </c>
+      <c r="D8" s="15">
         <v>12</v>
       </c>
-      <c r="E8" s="17" t="str">
+      <c r="E8" s="12" t="str">
         <f>INT((INT(SUM($D$1:D8)/60)+SUM($C$1:C8))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D8)/60)+SUM($C$1:C8))/60-INT((INT(SUM($D$1:D8)/60)+SUM($C$1:C8))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D8)/60-INT(SUM($D$1:D8)/60))*60) &amp; " seg"</f>
         <v>2 hs 21 min 24 seg</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="13">
         <v>44399</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
+      <c r="A9" s="21">
         <v>8</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="15">
         <v>11</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="15">
         <v>34</v>
       </c>
-      <c r="E9" s="17" t="str">
+      <c r="E9" s="12" t="str">
         <f>INT((INT(SUM($D$1:D9)/60)+SUM($C$1:C9))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D9)/60)+SUM($C$1:C9))/60-INT((INT(SUM($D$1:D9)/60)+SUM($C$1:C9))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D9)/60-INT(SUM($D$1:D9)/60))*60) &amp; " seg"</f>
         <v>2 hs 32 min 58 seg</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="13">
         <v>44399</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
+      <c r="A10" s="20">
         <v>9</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="24">
-        <v>20</v>
-      </c>
-      <c r="D10" s="24">
+      <c r="C10" s="15">
+        <v>20</v>
+      </c>
+      <c r="D10" s="15">
         <v>7</v>
       </c>
-      <c r="E10" s="17" t="str">
+      <c r="E10" s="12" t="str">
         <f>INT((INT(SUM($D$1:D10)/60)+SUM($C$1:C10))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D10)/60)+SUM($C$1:C10))/60-INT((INT(SUM($D$1:D10)/60)+SUM($C$1:C10))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D10)/60-INT(SUM($D$1:D10)/60))*60) &amp; " seg"</f>
         <v>2 hs 53 min 4 seg</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="13">
         <v>44399</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
+      <c r="A11" s="21">
         <v>10</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="24">
-        <v>20</v>
-      </c>
-      <c r="D11" s="24">
+      <c r="C11" s="15">
+        <v>20</v>
+      </c>
+      <c r="D11" s="15">
         <v>7</v>
       </c>
-      <c r="E11" s="17" t="str">
+      <c r="E11" s="12" t="str">
         <f>INT((INT(SUM($D$1:D11)/60)+SUM($C$1:C11))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D11)/60)+SUM($C$1:C11))/60-INT((INT(SUM($D$1:D11)/60)+SUM($C$1:C11))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D11)/60-INT(SUM($D$1:D11)/60))*60) &amp; " seg"</f>
         <v>3 hs 13 min 12 seg</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="13">
         <v>44399</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
+      <c r="A12" s="20">
         <v>11</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="15">
         <v>21</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="15">
         <v>33</v>
       </c>
-      <c r="E12" s="17" t="str">
+      <c r="E12" s="12" t="str">
         <f>INT((INT(SUM($D$1:D12)/60)+SUM($C$1:C12))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D12)/60)+SUM($C$1:C12))/60-INT((INT(SUM($D$1:D12)/60)+SUM($C$1:C12))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D12)/60-INT(SUM($D$1:D12)/60))*60) &amp; " seg"</f>
         <v>3 hs 34 min 45 seg</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="13">
         <v>44399</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="25">
+      <c r="A13" s="22">
         <v>12</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="17">
         <v>15</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="17">
         <v>3</v>
       </c>
-      <c r="E13" s="28" t="str">
+      <c r="E13" s="18" t="str">
         <f>INT((INT(SUM($D$1:D13)/60)+SUM($C$1:C13))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D13)/60)+SUM($C$1:C13))/60-INT((INT(SUM($D$1:D13)/60)+SUM($C$1:C13))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D13)/60-INT(SUM($D$1:D13)/60))*60) &amp; " seg"</f>
         <v>3 hs 49 min 48 seg</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="19">
         <v>44400</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="30">
+      <c r="A14" s="23">
         <v>13</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="17">
         <v>15</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="17">
         <v>5</v>
       </c>
-      <c r="E14" s="28" t="str">
+      <c r="E14" s="18" t="str">
         <f>INT((INT(SUM($D$1:D14)/60)+SUM($C$1:C14))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D14)/60)+SUM($C$1:C14))/60-INT((INT(SUM($D$1:D14)/60)+SUM($C$1:C14))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D14)/60-INT(SUM($D$1:D14)/60))*60) &amp; " seg"</f>
         <v>4 hs 3 min 53 seg</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="19">
         <v>44400</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="25">
+      <c r="A15" s="22">
         <v>14</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="17">
         <v>18</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="17">
         <v>53</v>
       </c>
-      <c r="E15" s="28" t="str">
+      <c r="E15" s="18" t="str">
         <f>INT((INT(SUM($D$1:D15)/60)+SUM($C$1:C15))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D15)/60)+SUM($C$1:C15))/60-INT((INT(SUM($D$1:D15)/60)+SUM($C$1:C15))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D15)/60-INT(SUM($D$1:D15)/60))*60) &amp; " seg"</f>
         <v>4 hs 23 min 46 seg</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="19">
         <v>44400</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="30">
+      <c r="A16" s="23">
         <v>15</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="27">
+      <c r="B16" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="17">
         <v>15</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="17">
         <v>2</v>
       </c>
-      <c r="E16" s="28" t="str">
+      <c r="E16" s="18" t="str">
         <f>INT((INT(SUM($D$1:D16)/60)+SUM($C$1:C16))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D16)/60)+SUM($C$1:C16))/60-INT((INT(SUM($D$1:D16)/60)+SUM($C$1:C16))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D16)/60-INT(SUM($D$1:D16)/60))*60) &amp; " seg"</f>
         <v>4 hs 38 min 48 seg</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="19">
         <v>44400</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="25">
+      <c r="A17" s="22">
         <v>16</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="17">
         <v>15</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="17">
         <v>8</v>
       </c>
-      <c r="E17" s="28" t="str">
+      <c r="E17" s="18" t="str">
         <f>INT((INT(SUM($D$1:D17)/60)+SUM($C$1:C17))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D17)/60)+SUM($C$1:C17))/60-INT((INT(SUM($D$1:D17)/60)+SUM($C$1:C17))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D17)/60-INT(SUM($D$1:D17)/60))*60) &amp; " seg"</f>
         <v>4 hs 53 min 56 seg</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="19">
         <v>44400</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="30">
+      <c r="A18" s="23">
         <v>17</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="17">
         <v>16</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="17">
         <v>8</v>
       </c>
-      <c r="E18" s="28" t="str">
+      <c r="E18" s="18" t="str">
         <f>INT((INT(SUM($D$1:D18)/60)+SUM($C$1:C18))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D18)/60)+SUM($C$1:C18))/60-INT((INT(SUM($D$1:D18)/60)+SUM($C$1:C18))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D18)/60-INT(SUM($D$1:D18)/60))*60) &amp; " seg"</f>
         <v>5 hs 10 min 3 seg</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="19">
         <v>44400</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="16">
+      <c r="A19" s="21">
         <v>18</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="15">
         <v>17</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="15">
         <v>4</v>
       </c>
-      <c r="E19" s="17" t="str">
+      <c r="E19" s="12" t="str">
         <f>INT((INT(SUM($D$1:D19)/60)+SUM($C$1:C19))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D19)/60)+SUM($C$1:C19))/60-INT((INT(SUM($D$1:D19)/60)+SUM($C$1:C19))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D19)/60-INT(SUM($D$1:D19)/60))*60) &amp; " seg"</f>
         <v>5 hs 27 min 8 seg</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="13">
         <v>44401</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
+      <c r="A20" s="20">
         <v>19</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="15">
         <v>17</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="15">
         <v>4</v>
       </c>
-      <c r="E20" s="17" t="str">
+      <c r="E20" s="12" t="str">
         <f>INT((INT(SUM($D$1:D20)/60)+SUM($C$1:C20))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D20)/60)+SUM($C$1:C20))/60-INT((INT(SUM($D$1:D20)/60)+SUM($C$1:C20))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D20)/60-INT(SUM($D$1:D20)/60))*60) &amp; " seg"</f>
         <v>5 hs 44 min 12 seg</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="13">
         <v>44401</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="16">
-        <v>20</v>
-      </c>
-      <c r="B21" s="23" t="s">
+      <c r="A21" s="21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="15">
         <v>19</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="15">
         <v>11</v>
       </c>
-      <c r="E21" s="17" t="str">
+      <c r="E21" s="12" t="str">
         <f>INT((INT(SUM($D$1:D21)/60)+SUM($C$1:C21))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D21)/60)+SUM($C$1:C21))/60-INT((INT(SUM($D$1:D21)/60)+SUM($C$1:C21))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D21)/60-INT(SUM($D$1:D21)/60))*60) &amp; " seg"</f>
         <v>6 hs 2 min 23 seg</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="13">
         <v>44401</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="18">
+      <c r="A22" s="23">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="9">
-        <v>20</v>
-      </c>
-      <c r="D22" s="9">
+      <c r="C22" s="17">
+        <v>20</v>
+      </c>
+      <c r="D22" s="17">
         <v>3</v>
       </c>
-      <c r="E22" s="8" t="str">
+      <c r="E22" s="18" t="str">
         <f>INT((INT(SUM($D$1:D22)/60)+SUM($C$1:C22))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D22)/60)+SUM($C$1:C22))/60-INT((INT(SUM($D$1:D22)/60)+SUM($C$1:C22))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D22)/60-INT(SUM($D$1:D22)/60))*60) &amp; " seg"</f>
         <v>6 hs 23 min 26 seg</v>
       </c>
-      <c r="F22" s="14"/>
+      <c r="F22" s="19">
+        <v>44402</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
+      <c r="A23" s="22">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="9">
-        <v>20</v>
-      </c>
-      <c r="D23" s="9">
+      <c r="C23" s="17">
+        <v>20</v>
+      </c>
+      <c r="D23" s="17">
         <v>7</v>
       </c>
-      <c r="E23" s="8" t="str">
+      <c r="E23" s="18" t="str">
         <f>INT((INT(SUM($D$1:D23)/60)+SUM($C$1:C23))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D23)/60)+SUM($C$1:C23))/60-INT((INT(SUM($D$1:D23)/60)+SUM($C$1:C23))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D23)/60-INT(SUM($D$1:D23)/60))*60) &amp; " seg"</f>
         <v>6 hs 43 min 33 seg</v>
       </c>
-      <c r="F23" s="19"/>
+      <c r="F23" s="19">
+        <v>44402</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="18">
+      <c r="A24" s="23">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="9">
-        <v>20</v>
-      </c>
-      <c r="D24" s="9">
+      <c r="C24" s="17">
+        <v>20</v>
+      </c>
+      <c r="D24" s="17">
         <v>3</v>
       </c>
-      <c r="E24" s="8" t="str">
+      <c r="E24" s="18" t="str">
         <f>INT((INT(SUM($D$1:D24)/60)+SUM($C$1:C24))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D24)/60)+SUM($C$1:C24))/60-INT((INT(SUM($D$1:D24)/60)+SUM($C$1:C24))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D24)/60-INT(SUM($D$1:D24)/60))*60) &amp; " seg"</f>
         <v>7 hs 2 min 36 seg</v>
       </c>
-      <c r="F24" s="14"/>
+      <c r="F24" s="19">
+        <v>44402</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
+      <c r="A25" s="21">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="15">
         <v>16</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="15">
         <v>41</v>
       </c>
-      <c r="E25" s="8" t="str">
+      <c r="E25" s="12" t="str">
         <f>INT((INT(SUM($D$1:D25)/60)+SUM($C$1:C25))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D25)/60)+SUM($C$1:C25))/60-INT((INT(SUM($D$1:D25)/60)+SUM($C$1:C25))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D25)/60-INT(SUM($D$1:D25)/60))*60) &amp; " seg"</f>
         <v>7 hs 20 min 17 seg</v>
       </c>
-      <c r="F25" s="14"/>
+      <c r="F25" s="13">
+        <v>44403</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="18">
+      <c r="A26" s="20">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="9">
-        <v>20</v>
-      </c>
-      <c r="D26" s="9">
+      <c r="C26" s="15">
+        <v>20</v>
+      </c>
+      <c r="D26" s="15">
         <v>5</v>
       </c>
-      <c r="E26" s="8" t="str">
+      <c r="E26" s="12" t="str">
         <f>INT((INT(SUM($D$1:D26)/60)+SUM($C$1:C26))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D26)/60)+SUM($C$1:C26))/60-INT((INT(SUM($D$1:D26)/60)+SUM($C$1:C26))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D26)/60-INT(SUM($D$1:D26)/60))*60) &amp; " seg"</f>
         <v>7 hs 40 min 22 seg</v>
       </c>
-      <c r="F26" s="14"/>
+      <c r="F26" s="13">
+        <v>44403</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
+      <c r="A27" s="21">
         <v>26</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="9">
-        <v>20</v>
-      </c>
-      <c r="D27" s="9">
+      <c r="C27" s="15">
+        <v>20</v>
+      </c>
+      <c r="D27" s="15">
         <v>5</v>
       </c>
-      <c r="E27" s="8" t="str">
+      <c r="E27" s="12" t="str">
         <f>INT((INT(SUM($D$1:D27)/60)+SUM($C$1:C27))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D27)/60)+SUM($C$1:C27))/60-INT((INT(SUM($D$1:D27)/60)+SUM($C$1:C27))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D27)/60-INT(SUM($D$1:D27)/60))*60) &amp; " seg"</f>
         <v>8 hs 0 min 27 seg</v>
       </c>
-      <c r="F27" s="14"/>
+      <c r="F27" s="13">
+        <v>44403</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="18">
+      <c r="A28" s="24">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -1467,10 +1461,10 @@
         <f>INT((INT(SUM($D$1:D28)/60)+SUM($C$1:C28))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D28)/60)+SUM($C$1:C28))/60-INT((INT(SUM($D$1:D28)/60)+SUM($C$1:C28))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D28)/60-INT(SUM($D$1:D28)/60))*60) &amp; " seg"</f>
         <v>8 hs 20 min 32 seg</v>
       </c>
-      <c r="F28" s="14"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -1486,10 +1480,10 @@
         <f>INT((INT(SUM($D$1:D29)/60)+SUM($C$1:C29))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D29)/60)+SUM($C$1:C29))/60-INT((INT(SUM($D$1:D29)/60)+SUM($C$1:C29))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D29)/60-INT(SUM($D$1:D29)/60))*60) &amp; " seg"</f>
         <v>8 hs 36 min 36 seg</v>
       </c>
-      <c r="F29" s="14"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="18">
+      <c r="A30" s="24">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -1505,10 +1499,10 @@
         <f>INT((INT(SUM($D$1:D30)/60)+SUM($C$1:C30))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D30)/60)+SUM($C$1:C30))/60-INT((INT(SUM($D$1:D30)/60)+SUM($C$1:C30))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D30)/60-INT(SUM($D$1:D30)/60))*60) &amp; " seg"</f>
         <v>8 hs 56 min 42 seg</v>
       </c>
-      <c r="F30" s="14"/>
+      <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="10">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -1524,10 +1518,10 @@
         <f>INT((INT(SUM($D$1:D31)/60)+SUM($C$1:C31))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D31)/60)+SUM($C$1:C31))/60-INT((INT(SUM($D$1:D31)/60)+SUM($C$1:C31))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D31)/60-INT(SUM($D$1:D31)/60))*60) &amp; " seg"</f>
         <v>9 hs 16 min 48 seg</v>
       </c>
-      <c r="F31" s="14"/>
+      <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="18">
+      <c r="A32" s="24">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -1543,10 +1537,10 @@
         <f>INT((INT(SUM($D$1:D32)/60)+SUM($C$1:C32))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D32)/60)+SUM($C$1:C32))/60-INT((INT(SUM($D$1:D32)/60)+SUM($C$1:C32))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D32)/60-INT(SUM($D$1:D32)/60))*60) &amp; " seg"</f>
         <v>9 hs 36 min 54 seg</v>
       </c>
-      <c r="F32" s="14"/>
+      <c r="F32" s="11"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="10">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -1562,10 +1556,10 @@
         <f>INT((INT(SUM($D$1:D33)/60)+SUM($C$1:C33))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D33)/60)+SUM($C$1:C33))/60-INT((INT(SUM($D$1:D33)/60)+SUM($C$1:C33))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D33)/60-INT(SUM($D$1:D33)/60))*60) &amp; " seg"</f>
         <v>9 hs 57 min 0 seg</v>
       </c>
-      <c r="F33" s="14"/>
+      <c r="F33" s="11"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="18">
+      <c r="A34" s="24">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -1581,10 +1575,10 @@
         <f>INT((INT(SUM($D$1:D34)/60)+SUM($C$1:C34))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D34)/60)+SUM($C$1:C34))/60-INT((INT(SUM($D$1:D34)/60)+SUM($C$1:C34))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D34)/60-INT(SUM($D$1:D34)/60))*60) &amp; " seg"</f>
         <v>10 hs 24 min 51 seg</v>
       </c>
-      <c r="F34" s="14"/>
+      <c r="F34" s="11"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="10">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -1600,10 +1594,10 @@
         <f>INT((INT(SUM($D$1:D35)/60)+SUM($C$1:C35))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D35)/60)+SUM($C$1:C35))/60-INT((INT(SUM($D$1:D35)/60)+SUM($C$1:C35))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D35)/60-INT(SUM($D$1:D35)/60))*60) &amp; " seg"</f>
         <v>10 hs 44 min 55 seg</v>
       </c>
-      <c r="F35" s="14"/>
+      <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="18">
+      <c r="A36" s="24">
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -1619,10 +1613,10 @@
         <f>INT((INT(SUM($D$1:D36)/60)+SUM($C$1:C36))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D36)/60)+SUM($C$1:C36))/60-INT((INT(SUM($D$1:D36)/60)+SUM($C$1:C36))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D36)/60-INT(SUM($D$1:D36)/60))*60) &amp; " seg"</f>
         <v>11 hs 3 min 59 seg</v>
       </c>
-      <c r="F36" s="14"/>
+      <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="10">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -1638,10 +1632,10 @@
         <f>INT((INT(SUM($D$1:D37)/60)+SUM($C$1:C37))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D37)/60)+SUM($C$1:C37))/60-INT((INT(SUM($D$1:D37)/60)+SUM($C$1:C37))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D37)/60-INT(SUM($D$1:D37)/60))*60) &amp; " seg"</f>
         <v>11 hs 25 min 3 seg</v>
       </c>
-      <c r="F37" s="14"/>
+      <c r="F37" s="11"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="18">
+      <c r="A38" s="24">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -1657,10 +1651,10 @@
         <f>INT((INT(SUM($D$1:D38)/60)+SUM($C$1:C38))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D38)/60)+SUM($C$1:C38))/60-INT((INT(SUM($D$1:D38)/60)+SUM($C$1:C38))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D38)/60-INT(SUM($D$1:D38)/60))*60) &amp; " seg"</f>
         <v>11 hs 41 min 30 seg</v>
       </c>
-      <c r="F38" s="14"/>
+      <c r="F38" s="11"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="10">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -1676,10 +1670,10 @@
         <f>INT((INT(SUM($D$1:D39)/60)+SUM($C$1:C39))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D39)/60)+SUM($C$1:C39))/60-INT((INT(SUM($D$1:D39)/60)+SUM($C$1:C39))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D39)/60-INT(SUM($D$1:D39)/60))*60) &amp; " seg"</f>
         <v>12 hs 1 min 36 seg</v>
       </c>
-      <c r="F39" s="14"/>
+      <c r="F39" s="11"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="18">
+      <c r="A40" s="24">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -1695,10 +1689,10 @@
         <f>INT((INT(SUM($D$1:D40)/60)+SUM($C$1:C40))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D40)/60)+SUM($C$1:C40))/60-INT((INT(SUM($D$1:D40)/60)+SUM($C$1:C40))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D40)/60-INT(SUM($D$1:D40)/60))*60) &amp; " seg"</f>
         <v>12 hs 21 min 42 seg</v>
       </c>
-      <c r="F40" s="14"/>
+      <c r="F40" s="11"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="10">
+      <c r="A41" s="4">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -1714,10 +1708,10 @@
         <f>INT((INT(SUM($D$1:D41)/60)+SUM($C$1:C41))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D41)/60)+SUM($C$1:C41))/60-INT((INT(SUM($D$1:D41)/60)+SUM($C$1:C41))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D41)/60-INT(SUM($D$1:D41)/60))*60) &amp; " seg"</f>
         <v>12 hs 41 min 48 seg</v>
       </c>
-      <c r="F41" s="14"/>
+      <c r="F41" s="11"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="18">
+      <c r="A42" s="24">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -1733,10 +1727,10 @@
         <f>INT((INT(SUM($D$1:D42)/60)+SUM($C$1:C42))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D42)/60)+SUM($C$1:C42))/60-INT((INT(SUM($D$1:D42)/60)+SUM($C$1:C42))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D42)/60-INT(SUM($D$1:D42)/60))*60) &amp; " seg"</f>
         <v>12 hs 56 min 52 seg</v>
       </c>
-      <c r="F42" s="14"/>
+      <c r="F42" s="11"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="10">
+      <c r="A43" s="4">
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -1752,10 +1746,10 @@
         <f>INT((INT(SUM($D$1:D43)/60)+SUM($C$1:C43))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D43)/60)+SUM($C$1:C43))/60-INT((INT(SUM($D$1:D43)/60)+SUM($C$1:C43))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D43)/60-INT(SUM($D$1:D43)/60))*60) &amp; " seg"</f>
         <v>13 hs 12 min 53 seg</v>
       </c>
-      <c r="F43" s="14"/>
+      <c r="F43" s="11"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="18">
+      <c r="A44" s="24">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -1771,10 +1765,10 @@
         <f>INT((INT(SUM($D$1:D44)/60)+SUM($C$1:C44))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D44)/60)+SUM($C$1:C44))/60-INT((INT(SUM($D$1:D44)/60)+SUM($C$1:C44))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D44)/60-INT(SUM($D$1:D44)/60))*60) &amp; " seg"</f>
         <v>13 hs 26 min 22 seg</v>
       </c>
-      <c r="F44" s="14"/>
+      <c r="F44" s="11"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="10">
+      <c r="A45" s="4">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -1790,10 +1784,10 @@
         <f>INT((INT(SUM($D$1:D45)/60)+SUM($C$1:C45))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D45)/60)+SUM($C$1:C45))/60-INT((INT(SUM($D$1:D45)/60)+SUM($C$1:C45))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D45)/60-INT(SUM($D$1:D45)/60))*60) &amp; " seg"</f>
         <v>13 hs 46 min 27 seg</v>
       </c>
-      <c r="F45" s="14"/>
+      <c r="F45" s="11"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="18">
+      <c r="A46" s="24">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -1809,10 +1803,10 @@
         <f>INT((INT(SUM($D$1:D46)/60)+SUM($C$1:C46))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D46)/60)+SUM($C$1:C46))/60-INT((INT(SUM($D$1:D46)/60)+SUM($C$1:C46))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D46)/60-INT(SUM($D$1:D46)/60))*60) &amp; " seg"</f>
         <v>14 hs 5 min 37 seg</v>
       </c>
-      <c r="F46" s="14"/>
+      <c r="F46" s="11"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="10">
+      <c r="A47" s="4">
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -1828,10 +1822,10 @@
         <f>INT((INT(SUM($D$1:D47)/60)+SUM($C$1:C47))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D47)/60)+SUM($C$1:C47))/60-INT((INT(SUM($D$1:D47)/60)+SUM($C$1:C47))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D47)/60-INT(SUM($D$1:D47)/60))*60) &amp; " seg"</f>
         <v>14 hs 26 min 42 seg</v>
       </c>
-      <c r="F47" s="14"/>
+      <c r="F47" s="11"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="18">
+      <c r="A48" s="24">
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -1847,10 +1841,10 @@
         <f>INT((INT(SUM($D$1:D48)/60)+SUM($C$1:C48))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D48)/60)+SUM($C$1:C48))/60-INT((INT(SUM($D$1:D48)/60)+SUM($C$1:C48))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D48)/60-INT(SUM($D$1:D48)/60))*60) &amp; " seg"</f>
         <v>14 hs 46 min 47 seg</v>
       </c>
-      <c r="F48" s="14"/>
+      <c r="F48" s="11"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="10">
+      <c r="A49" s="4">
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -1866,10 +1860,10 @@
         <f>INT((INT(SUM($D$1:D49)/60)+SUM($C$1:C49))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D49)/60)+SUM($C$1:C49))/60-INT((INT(SUM($D$1:D49)/60)+SUM($C$1:C49))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D49)/60-INT(SUM($D$1:D49)/60))*60) &amp; " seg"</f>
         <v>15 hs 11 min 23 seg</v>
       </c>
-      <c r="F49" s="14"/>
+      <c r="F49" s="11"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="18">
+      <c r="A50" s="24">
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -1885,16 +1879,16 @@
         <f>INT((INT(SUM($D$1:D50)/60)+SUM($C$1:C50))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D50)/60)+SUM($C$1:C50))/60-INT((INT(SUM($D$1:D50)/60)+SUM($C$1:C50))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D50)/60-INT(SUM($D$1:D50)/60))*60) &amp; " seg"</f>
         <v>15 hs 31 min 26 seg</v>
       </c>
-      <c r="F50" s="14"/>
+      <c r="F50" s="11"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="10">
+      <c r="A51" s="4">
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51" s="9">
         <v>20</v>
       </c>
       <c r="D51" s="9">
@@ -1904,16 +1898,16 @@
         <f>INT((INT(SUM($D$1:D51)/60)+SUM($C$1:C51))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D51)/60)+SUM($C$1:C51))/60-INT((INT(SUM($D$1:D51)/60)+SUM($C$1:C51))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D51)/60-INT(SUM($D$1:D51)/60))*60) &amp; " seg"</f>
         <v>15 hs 51 min 29 seg</v>
       </c>
-      <c r="F51" s="14"/>
+      <c r="F51" s="11"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="18">
+      <c r="A52" s="24">
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="9">
         <v>20</v>
       </c>
       <c r="D52" s="9">
@@ -1923,16 +1917,16 @@
         <f>INT((INT(SUM($D$1:D52)/60)+SUM($C$1:C52))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D52)/60)+SUM($C$1:C52))/60-INT((INT(SUM($D$1:D52)/60)+SUM($C$1:C52))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D52)/60-INT(SUM($D$1:D52)/60))*60) &amp; " seg"</f>
         <v>16 hs 11 min 38 seg</v>
       </c>
-      <c r="F52" s="14"/>
+      <c r="F52" s="11"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="10">
+      <c r="A53" s="4">
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C53" s="9">
         <v>20</v>
       </c>
       <c r="D53" s="9">
@@ -1942,16 +1936,16 @@
         <f>INT((INT(SUM($D$1:D53)/60)+SUM($C$1:C53))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D53)/60)+SUM($C$1:C53))/60-INT((INT(SUM($D$1:D53)/60)+SUM($C$1:C53))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D53)/60-INT(SUM($D$1:D53)/60))*60) &amp; " seg"</f>
         <v>16 hs 30 min 47 seg</v>
       </c>
-      <c r="F53" s="14"/>
+      <c r="F53" s="11"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="18">
+      <c r="A54" s="24">
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54" s="9">
         <v>20</v>
       </c>
       <c r="D54" s="9">
@@ -1961,16 +1955,16 @@
         <f>INT((INT(SUM($D$1:D54)/60)+SUM($C$1:C54))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D54)/60)+SUM($C$1:C54))/60-INT((INT(SUM($D$1:D54)/60)+SUM($C$1:C54))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D54)/60-INT(SUM($D$1:D54)/60))*60) &amp; " seg"</f>
         <v>16 hs 51 min 56 seg</v>
       </c>
-      <c r="F54" s="14"/>
+      <c r="F54" s="11"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="10">
+      <c r="A55" s="4">
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="11">
+      <c r="C55" s="9">
         <v>15</v>
       </c>
       <c r="D55" s="9">
@@ -1980,16 +1974,16 @@
         <f>INT((INT(SUM($D$1:D55)/60)+SUM($C$1:C55))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D55)/60)+SUM($C$1:C55))/60-INT((INT(SUM($D$1:D55)/60)+SUM($C$1:C55))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D55)/60-INT(SUM($D$1:D55)/60))*60) &amp; " seg"</f>
         <v>17 hs 6 min 56 seg</v>
       </c>
-      <c r="F55" s="14"/>
+      <c r="F55" s="11"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="18">
+      <c r="A56" s="24">
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C56" s="9">
         <v>20</v>
       </c>
       <c r="D56" s="9">
@@ -1999,16 +1993,16 @@
         <f>INT((INT(SUM($D$1:D56)/60)+SUM($C$1:C56))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D56)/60)+SUM($C$1:C56))/60-INT((INT(SUM($D$1:D56)/60)+SUM($C$1:C56))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D56)/60-INT(SUM($D$1:D56)/60))*60) &amp; " seg"</f>
         <v>17 hs 26 min 59 seg</v>
       </c>
-      <c r="F56" s="14"/>
+      <c r="F56" s="11"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="10">
+      <c r="A57" s="4">
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C57" s="9">
         <v>20</v>
       </c>
       <c r="D57" s="9">
@@ -2018,447 +2012,447 @@
         <f>INT((INT(SUM($D$1:D57)/60)+SUM($C$1:C57))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D57)/60)+SUM($C$1:C57))/60-INT((INT(SUM($D$1:D57)/60)+SUM($C$1:C57))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D57)/60-INT(SUM($D$1:D57)/60))*60) &amp; " seg"</f>
         <v>17 hs 47 min 1 seg</v>
       </c>
-      <c r="F57" s="14"/>
+      <c r="F57" s="11"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="18">
+      <c r="A58" s="24">
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="11">
-        <v>20</v>
-      </c>
-      <c r="D58" s="11">
+      <c r="C58" s="9">
+        <v>20</v>
+      </c>
+      <c r="D58" s="9">
         <v>7</v>
       </c>
       <c r="E58" s="8" t="str">
         <f>INT((INT(SUM($D$1:D58)/60)+SUM($C$1:C58))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D58)/60)+SUM($C$1:C58))/60-INT((INT(SUM($D$1:D58)/60)+SUM($C$1:C58))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D58)/60-INT(SUM($D$1:D58)/60))*60) &amp; " seg"</f>
         <v>18 hs 7 min 9 seg</v>
       </c>
-      <c r="F58" s="14"/>
+      <c r="F58" s="11"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="10">
+      <c r="A59" s="4">
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="11">
-        <v>20</v>
-      </c>
-      <c r="D59" s="11">
+      <c r="C59" s="9">
+        <v>20</v>
+      </c>
+      <c r="D59" s="9">
         <v>22</v>
       </c>
       <c r="E59" s="8" t="str">
         <f>INT((INT(SUM($D$1:D59)/60)+SUM($C$1:C59))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D59)/60)+SUM($C$1:C59))/60-INT((INT(SUM($D$1:D59)/60)+SUM($C$1:C59))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D59)/60-INT(SUM($D$1:D59)/60))*60) &amp; " seg"</f>
         <v>18 hs 27 min 31 seg</v>
       </c>
-      <c r="F59" s="14"/>
+      <c r="F59" s="11"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="18">
+      <c r="A60" s="24">
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="11">
-        <v>20</v>
-      </c>
-      <c r="D60" s="11">
+      <c r="C60" s="9">
+        <v>20</v>
+      </c>
+      <c r="D60" s="9">
         <v>7</v>
       </c>
       <c r="E60" s="8" t="str">
         <f>INT((INT(SUM($D$1:D60)/60)+SUM($C$1:C60))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D60)/60)+SUM($C$1:C60))/60-INT((INT(SUM($D$1:D60)/60)+SUM($C$1:C60))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D60)/60-INT(SUM($D$1:D60)/60))*60) &amp; " seg"</f>
         <v>18 hs 47 min 38 seg</v>
       </c>
-      <c r="F60" s="14"/>
+      <c r="F60" s="11"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="10">
+      <c r="A61" s="4">
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="11">
+      <c r="C61" s="9">
         <v>18</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D61" s="9">
         <v>42</v>
       </c>
       <c r="E61" s="8" t="str">
         <f>INT((INT(SUM($D$1:D61)/60)+SUM($C$1:C61))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D61)/60)+SUM($C$1:C61))/60-INT((INT(SUM($D$1:D61)/60)+SUM($C$1:C61))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D61)/60-INT(SUM($D$1:D61)/60))*60) &amp; " seg"</f>
         <v>19 hs 6 min 20 seg</v>
       </c>
-      <c r="F61" s="14"/>
+      <c r="F61" s="11"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="18">
+      <c r="A62" s="24">
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="11">
+      <c r="C62" s="9">
         <v>14</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D62" s="9">
         <v>3</v>
       </c>
       <c r="E62" s="8" t="str">
         <f>INT((INT(SUM($D$1:D62)/60)+SUM($C$1:C62))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D62)/60)+SUM($C$1:C62))/60-INT((INT(SUM($D$1:D62)/60)+SUM($C$1:C62))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D62)/60-INT(SUM($D$1:D62)/60))*60) &amp; " seg"</f>
         <v>19 hs 19 min 23 seg</v>
       </c>
-      <c r="F62" s="14"/>
+      <c r="F62" s="11"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="10">
+      <c r="A63" s="4">
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="11">
+      <c r="C63" s="9">
         <v>14</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D63" s="9">
         <v>11</v>
       </c>
       <c r="E63" s="8" t="str">
         <f>INT((INT(SUM($D$1:D63)/60)+SUM($C$1:C63))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D63)/60)+SUM($C$1:C63))/60-INT((INT(SUM($D$1:D63)/60)+SUM($C$1:C63))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D63)/60-INT(SUM($D$1:D63)/60))*60) &amp; " seg"</f>
         <v>19 hs 34 min 34 seg</v>
       </c>
-      <c r="F63" s="14"/>
+      <c r="F63" s="11"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="18">
+      <c r="A64" s="24">
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="11">
-        <v>20</v>
-      </c>
-      <c r="D64" s="11">
+      <c r="C64" s="9">
+        <v>20</v>
+      </c>
+      <c r="D64" s="9">
         <v>2</v>
       </c>
       <c r="E64" s="8" t="str">
         <f>INT((INT(SUM($D$1:D64)/60)+SUM($C$1:C64))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D64)/60)+SUM($C$1:C64))/60-INT((INT(SUM($D$1:D64)/60)+SUM($C$1:C64))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D64)/60-INT(SUM($D$1:D64)/60))*60) &amp; " seg"</f>
         <v>19 hs 53 min 36 seg</v>
       </c>
-      <c r="F64" s="14"/>
+      <c r="F64" s="11"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="10">
+      <c r="A65" s="4">
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="11">
-        <v>20</v>
-      </c>
-      <c r="D65" s="11">
+      <c r="C65" s="9">
+        <v>20</v>
+      </c>
+      <c r="D65" s="9">
         <v>5</v>
       </c>
       <c r="E65" s="8" t="str">
         <f>INT((INT(SUM($D$1:D65)/60)+SUM($C$1:C65))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D65)/60)+SUM($C$1:C65))/60-INT((INT(SUM($D$1:D65)/60)+SUM($C$1:C65))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D65)/60-INT(SUM($D$1:D65)/60))*60) &amp; " seg"</f>
         <v>20 hs 14 min 41 seg</v>
       </c>
-      <c r="F65" s="14"/>
+      <c r="F65" s="11"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="18">
+      <c r="A66" s="24">
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="11">
-        <v>20</v>
-      </c>
-      <c r="D66" s="11">
+      <c r="C66" s="9">
+        <v>20</v>
+      </c>
+      <c r="D66" s="9">
         <v>2</v>
       </c>
       <c r="E66" s="8" t="str">
         <f>INT((INT(SUM($D$1:D66)/60)+SUM($C$1:C66))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D66)/60)+SUM($C$1:C66))/60-INT((INT(SUM($D$1:D66)/60)+SUM($C$1:C66))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D66)/60-INT(SUM($D$1:D66)/60))*60) &amp; " seg"</f>
         <v>20 hs 34 min 43 seg</v>
       </c>
-      <c r="F66" s="14"/>
+      <c r="F66" s="11"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="10">
+      <c r="A67" s="4">
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="11">
+      <c r="C67" s="9">
         <v>10</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D67" s="9">
         <v>33</v>
       </c>
       <c r="E67" s="8" t="str">
         <f>INT((INT(SUM($D$1:D67)/60)+SUM($C$1:C67))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D67)/60)+SUM($C$1:C67))/60-INT((INT(SUM($D$1:D67)/60)+SUM($C$1:C67))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D67)/60-INT(SUM($D$1:D67)/60))*60) &amp; " seg"</f>
         <v>20 hs 45 min 16 seg</v>
       </c>
-      <c r="F67" s="14"/>
+      <c r="F67" s="11"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="18">
+      <c r="A68" s="24">
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C68" s="11">
-        <v>20</v>
-      </c>
-      <c r="D68" s="11">
+      <c r="C68" s="9">
+        <v>20</v>
+      </c>
+      <c r="D68" s="9">
         <v>4</v>
       </c>
       <c r="E68" s="8" t="str">
         <f>INT((INT(SUM($D$1:D68)/60)+SUM($C$1:C68))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D68)/60)+SUM($C$1:C68))/60-INT((INT(SUM($D$1:D68)/60)+SUM($C$1:C68))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D68)/60-INT(SUM($D$1:D68)/60))*60) &amp; " seg"</f>
         <v>21 hs 4 min 20 seg</v>
       </c>
-      <c r="F68" s="14"/>
+      <c r="F68" s="11"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="10">
+      <c r="A69" s="4">
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C69" s="11">
-        <v>20</v>
-      </c>
-      <c r="D69" s="11">
+      <c r="C69" s="9">
+        <v>20</v>
+      </c>
+      <c r="D69" s="9">
         <v>8</v>
       </c>
       <c r="E69" s="8" t="str">
         <f>INT((INT(SUM($D$1:D69)/60)+SUM($C$1:C69))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D69)/60)+SUM($C$1:C69))/60-INT((INT(SUM($D$1:D69)/60)+SUM($C$1:C69))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D69)/60-INT(SUM($D$1:D69)/60))*60) &amp; " seg"</f>
         <v>21 hs 25 min 28 seg</v>
       </c>
-      <c r="F69" s="14"/>
+      <c r="F69" s="11"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="18">
+      <c r="A70" s="24">
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C70" s="11">
+      <c r="C70" s="9">
         <v>15</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D70" s="9">
         <v>6</v>
       </c>
       <c r="E70" s="8" t="str">
         <f>INT((INT(SUM($D$1:D70)/60)+SUM($C$1:C70))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D70)/60)+SUM($C$1:C70))/60-INT((INT(SUM($D$1:D70)/60)+SUM($C$1:C70))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D70)/60-INT(SUM($D$1:D70)/60))*60) &amp; " seg"</f>
         <v>21 hs 40 min 34 seg</v>
       </c>
-      <c r="F70" s="14"/>
+      <c r="F70" s="11"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="10">
+      <c r="A71" s="4">
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C71" s="11">
+      <c r="C71" s="9">
         <v>18</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D71" s="9">
         <v>9</v>
       </c>
       <c r="E71" s="8" t="str">
         <f>INT((INT(SUM($D$1:D71)/60)+SUM($C$1:C71))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D71)/60)+SUM($C$1:C71))/60-INT((INT(SUM($D$1:D71)/60)+SUM($C$1:C71))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D71)/60-INT(SUM($D$1:D71)/60))*60) &amp; " seg"</f>
         <v>21 hs 57 min 43 seg</v>
       </c>
-      <c r="F71" s="14"/>
+      <c r="F71" s="11"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="18">
+      <c r="A72" s="24">
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="11">
+      <c r="C72" s="9">
         <v>15</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D72" s="9">
         <v>2</v>
       </c>
       <c r="E72" s="8" t="str">
         <f>INT((INT(SUM($D$1:D72)/60)+SUM($C$1:C72))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D72)/60)+SUM($C$1:C72))/60-INT((INT(SUM($D$1:D72)/60)+SUM($C$1:C72))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D72)/60-INT(SUM($D$1:D72)/60))*60) &amp; " seg"</f>
         <v>22 hs 12 min 45 seg</v>
       </c>
-      <c r="F72" s="14"/>
+      <c r="F72" s="11"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="10">
+      <c r="A73" s="4">
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C73" s="11">
+      <c r="C73" s="9">
         <v>15</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D73" s="9">
         <v>4</v>
       </c>
       <c r="E73" s="8" t="str">
         <f>INT((INT(SUM($D$1:D73)/60)+SUM($C$1:C73))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D73)/60)+SUM($C$1:C73))/60-INT((INT(SUM($D$1:D73)/60)+SUM($C$1:C73))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D73)/60-INT(SUM($D$1:D73)/60))*60) &amp; " seg"</f>
         <v>22 hs 27 min 49 seg</v>
       </c>
-      <c r="F73" s="15"/>
+      <c r="F73" s="11"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="18">
+      <c r="A74" s="24">
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C74" s="11">
+      <c r="C74" s="9">
         <v>15</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D74" s="9">
         <v>24</v>
       </c>
       <c r="E74" s="8" t="str">
         <f>INT((INT(SUM($D$1:D74)/60)+SUM($C$1:C74))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D74)/60)+SUM($C$1:C74))/60-INT((INT(SUM($D$1:D74)/60)+SUM($C$1:C74))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D74)/60-INT(SUM($D$1:D74)/60))*60) &amp; " seg"</f>
         <v>22 hs 44 min 13 seg</v>
       </c>
-      <c r="F74" s="15"/>
+      <c r="F74" s="11"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="10">
+      <c r="A75" s="4">
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="11">
-        <v>20</v>
-      </c>
-      <c r="D75" s="11">
+      <c r="C75" s="9">
+        <v>20</v>
+      </c>
+      <c r="D75" s="9">
         <v>2</v>
       </c>
       <c r="E75" s="8" t="str">
         <f>INT((INT(SUM($D$1:D75)/60)+SUM($C$1:C75))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D75)/60)+SUM($C$1:C75))/60-INT((INT(SUM($D$1:D75)/60)+SUM($C$1:C75))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D75)/60-INT(SUM($D$1:D75)/60))*60) &amp; " seg"</f>
         <v>23 hs 3 min 15 seg</v>
       </c>
-      <c r="F75" s="15"/>
+      <c r="F75" s="11"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="18">
+      <c r="A76" s="24">
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C76" s="11">
+      <c r="C76" s="9">
         <v>19</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D76" s="9">
         <v>41</v>
       </c>
       <c r="E76" s="8" t="str">
         <f>INT((INT(SUM($D$1:D76)/60)+SUM($C$1:C76))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D76)/60)+SUM($C$1:C76))/60-INT((INT(SUM($D$1:D76)/60)+SUM($C$1:C76))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D76)/60-INT(SUM($D$1:D76)/60))*60) &amp; " seg"</f>
         <v>23 hs 23 min 56 seg</v>
       </c>
-      <c r="F76" s="15"/>
+      <c r="F76" s="11"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="10">
+      <c r="A77" s="4">
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="11">
-        <v>20</v>
-      </c>
-      <c r="D77" s="11">
+      <c r="C77" s="9">
+        <v>20</v>
+      </c>
+      <c r="D77" s="9">
         <v>2</v>
       </c>
       <c r="E77" s="8" t="str">
         <f>INT((INT(SUM($D$1:D77)/60)+SUM($C$1:C77))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D77)/60)+SUM($C$1:C77))/60-INT((INT(SUM($D$1:D77)/60)+SUM($C$1:C77))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D77)/60-INT(SUM($D$1:D77)/60))*60) &amp; " seg"</f>
         <v>23 hs 42 min 58 seg</v>
       </c>
-      <c r="F77" s="15"/>
+      <c r="F77" s="11"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="18">
+      <c r="A78" s="24">
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C78" s="11">
-        <v>20</v>
-      </c>
-      <c r="D78" s="11">
+      <c r="C78" s="9">
+        <v>20</v>
+      </c>
+      <c r="D78" s="9">
         <v>8</v>
       </c>
       <c r="E78" s="8" t="str">
         <f>INT((INT(SUM($D$1:D78)/60)+SUM($C$1:C78))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D78)/60)+SUM($C$1:C78))/60-INT((INT(SUM($D$1:D78)/60)+SUM($C$1:C78))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D78)/60-INT(SUM($D$1:D78)/60))*60) &amp; " seg"</f>
         <v>24 hs 3 min 6 seg</v>
       </c>
-      <c r="F78" s="15"/>
+      <c r="F78" s="11"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="10">
+      <c r="A79" s="4">
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C79" s="11">
-        <v>20</v>
-      </c>
-      <c r="D79" s="11">
+      <c r="C79" s="9">
+        <v>20</v>
+      </c>
+      <c r="D79" s="9">
         <v>8</v>
       </c>
       <c r="E79" s="8" t="str">
         <f>INT((INT(SUM($D$1:D79)/60)+SUM($C$1:C79))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D79)/60)+SUM($C$1:C79))/60-INT((INT(SUM($D$1:D79)/60)+SUM($C$1:C79))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D79)/60-INT(SUM($D$1:D79)/60))*60) &amp; " seg"</f>
         <v>24 hs 23 min 14 seg</v>
       </c>
-      <c r="F79" s="15"/>
+      <c r="F79" s="11"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="18">
+      <c r="A80" s="24">
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C80" s="11">
-        <v>20</v>
-      </c>
-      <c r="D80" s="11">
+      <c r="C80" s="9">
+        <v>20</v>
+      </c>
+      <c r="D80" s="9">
         <v>8</v>
       </c>
       <c r="E80" s="8" t="str">
         <f>INT((INT(SUM($D$1:D80)/60)+SUM($C$1:C80))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D80)/60)+SUM($C$1:C80))/60-INT((INT(SUM($D$1:D80)/60)+SUM($C$1:C80))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D80)/60-INT(SUM($D$1:D80)/60))*60) &amp; " seg"</f>
         <v>24 hs 44 min 22 seg</v>
       </c>
-      <c r="F80" s="15"/>
+      <c r="F80" s="11"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="10">
+      <c r="A81" s="4">
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
@@ -2474,10 +2468,10 @@
         <f>INT((INT(SUM($D$1:D81)/60)+SUM($C$1:C81))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D81)/60)+SUM($C$1:C81))/60-INT((INT(SUM($D$1:D81)/60)+SUM($C$1:C81))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D81)/60-INT(SUM($D$1:D81)/60))*60) &amp; " seg"</f>
         <v>25 hs 3 min 30 seg</v>
       </c>
-      <c r="F81" s="14"/>
+      <c r="F81" s="11"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="18">
+      <c r="A82" s="24">
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
@@ -2493,10 +2487,10 @@
         <f>INT((INT(SUM($D$1:D82)/60)+SUM($C$1:C82))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D82)/60)+SUM($C$1:C82))/60-INT((INT(SUM($D$1:D82)/60)+SUM($C$1:C82))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D82)/60-INT(SUM($D$1:D82)/60))*60) &amp; " seg"</f>
         <v>25 hs 21 min 40 seg</v>
       </c>
-      <c r="F82" s="14"/>
+      <c r="F82" s="11"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="10">
+      <c r="A83" s="4">
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -2512,10 +2506,10 @@
         <f>INT((INT(SUM($D$1:D83)/60)+SUM($C$1:C83))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D83)/60)+SUM($C$1:C83))/60-INT((INT(SUM($D$1:D83)/60)+SUM($C$1:C83))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D83)/60-INT(SUM($D$1:D83)/60))*60) &amp; " seg"</f>
         <v>25 hs 37 min 44 seg</v>
       </c>
-      <c r="F83" s="14"/>
+      <c r="F83" s="11"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="18">
+      <c r="A84" s="24">
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
@@ -2531,10 +2525,10 @@
         <f>INT((INT(SUM($D$1:D84)/60)+SUM($C$1:C84))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D84)/60)+SUM($C$1:C84))/60-INT((INT(SUM($D$1:D84)/60)+SUM($C$1:C84))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D84)/60-INT(SUM($D$1:D84)/60))*60) &amp; " seg"</f>
         <v>25 hs 57 min 3 seg</v>
       </c>
-      <c r="F84" s="14"/>
+      <c r="F84" s="11"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="10">
+      <c r="A85" s="4">
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -2550,10 +2544,10 @@
         <f>INT((INT(SUM($D$1:D85)/60)+SUM($C$1:C85))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D85)/60)+SUM($C$1:C85))/60-INT((INT(SUM($D$1:D85)/60)+SUM($C$1:C85))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D85)/60-INT(SUM($D$1:D85)/60))*60) &amp; " seg"</f>
         <v>26 hs 27 min 34 seg</v>
       </c>
-      <c r="F85" s="14"/>
+      <c r="F85" s="11"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="18">
+      <c r="A86" s="24">
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
@@ -2569,10 +2563,10 @@
         <f>INT((INT(SUM($D$1:D86)/60)+SUM($C$1:C86))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D86)/60)+SUM($C$1:C86))/60-INT((INT(SUM($D$1:D86)/60)+SUM($C$1:C86))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D86)/60-INT(SUM($D$1:D86)/60))*60) &amp; " seg"</f>
         <v>26 hs 48 min 36 seg</v>
       </c>
-      <c r="F86" s="14"/>
+      <c r="F86" s="11"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="10">
+      <c r="A87" s="4">
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
@@ -2588,10 +2582,10 @@
         <f>INT((INT(SUM($D$1:D87)/60)+SUM($C$1:C87))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D87)/60)+SUM($C$1:C87))/60-INT((INT(SUM($D$1:D87)/60)+SUM($C$1:C87))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D87)/60-INT(SUM($D$1:D87)/60))*60) &amp; " seg"</f>
         <v>27 hs 7 min 42 seg</v>
       </c>
-      <c r="F87" s="14"/>
+      <c r="F87" s="11"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="18">
+      <c r="A88" s="24">
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
@@ -2610,7 +2604,7 @@
       <c r="F88" s="4"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="10">
+      <c r="A89" s="4">
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -2629,7 +2623,7 @@
       <c r="F89" s="4"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="18">
+      <c r="A90" s="24">
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
@@ -2648,7 +2642,7 @@
       <c r="F90" s="4"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="10">
+      <c r="A91" s="4">
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -2667,7 +2661,7 @@
       <c r="F91" s="4"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="18">
+      <c r="A92" s="24">
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
@@ -2686,7 +2680,7 @@
       <c r="F92" s="4"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="10">
+      <c r="A93" s="4">
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
@@ -2705,7 +2699,7 @@
       <c r="F93" s="4"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="18">
+      <c r="A94" s="24">
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
@@ -2724,7 +2718,7 @@
       <c r="F94" s="4"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="10">
+      <c r="A95" s="4">
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
@@ -2743,7 +2737,7 @@
       <c r="F95" s="4"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="18">
+      <c r="A96" s="24">
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
@@ -2762,7 +2756,7 @@
       <c r="F96" s="4"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="10">
+      <c r="A97" s="4">
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
@@ -2781,7 +2775,7 @@
       <c r="F97" s="4"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="18">
+      <c r="A98" s="24">
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
@@ -2800,7 +2794,7 @@
       <c r="F98" s="4"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="10">
+      <c r="A99" s="4">
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
@@ -2819,7 +2813,7 @@
       <c r="F99" s="4"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="18">
+      <c r="A100" s="24">
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -2838,7 +2832,7 @@
       <c r="F100" s="4"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="10">
+      <c r="A101" s="4">
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
@@ -2857,7 +2851,7 @@
       <c r="F101" s="4"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="18">
+      <c r="A102" s="24">
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
@@ -2876,7 +2870,7 @@
       <c r="F102" s="4"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="10">
+      <c r="A103" s="4">
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">

--- a/AppComercial-Videos.xlsx
+++ b/AppComercial-Videos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FD6873-EF52-4B99-B477-4C58D1466609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBE9078-043A-484A-B6A8-CE9385D24AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -863,8 +863,8 @@
   <dimension ref="A1:F154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -1445,80 +1445,88 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="24">
+      <c r="A28" s="23">
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="9">
-        <v>20</v>
-      </c>
-      <c r="D28" s="9">
+      <c r="C28" s="17">
+        <v>20</v>
+      </c>
+      <c r="D28" s="17">
         <v>5</v>
       </c>
-      <c r="E28" s="8" t="str">
+      <c r="E28" s="18" t="str">
         <f>INT((INT(SUM($D$1:D28)/60)+SUM($C$1:C28))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D28)/60)+SUM($C$1:C28))/60-INT((INT(SUM($D$1:D28)/60)+SUM($C$1:C28))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D28)/60-INT(SUM($D$1:D28)/60))*60) &amp; " seg"</f>
         <v>8 hs 20 min 32 seg</v>
       </c>
-      <c r="F28" s="11"/>
+      <c r="F28" s="19">
+        <v>44404</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
+      <c r="A29" s="22">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="17">
         <v>16</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="17">
         <v>4</v>
       </c>
-      <c r="E29" s="8" t="str">
+      <c r="E29" s="18" t="str">
         <f>INT((INT(SUM($D$1:D29)/60)+SUM($C$1:C29))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D29)/60)+SUM($C$1:C29))/60-INT((INT(SUM($D$1:D29)/60)+SUM($C$1:C29))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D29)/60-INT(SUM($D$1:D29)/60))*60) &amp; " seg"</f>
         <v>8 hs 36 min 36 seg</v>
       </c>
-      <c r="F29" s="11"/>
+      <c r="F29" s="19">
+        <v>44404</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="24">
+      <c r="A30" s="23">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="9">
-        <v>20</v>
-      </c>
-      <c r="D30" s="9">
+      <c r="C30" s="17">
+        <v>20</v>
+      </c>
+      <c r="D30" s="17">
         <v>6</v>
       </c>
-      <c r="E30" s="8" t="str">
+      <c r="E30" s="18" t="str">
         <f>INT((INT(SUM($D$1:D30)/60)+SUM($C$1:C30))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D30)/60)+SUM($C$1:C30))/60-INT((INT(SUM($D$1:D30)/60)+SUM($C$1:C30))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D30)/60-INT(SUM($D$1:D30)/60))*60) &amp; " seg"</f>
         <v>8 hs 56 min 42 seg</v>
       </c>
-      <c r="F30" s="11"/>
+      <c r="F30" s="19">
+        <v>44404</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
+      <c r="A31" s="22">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="9">
-        <v>20</v>
-      </c>
-      <c r="D31" s="9">
+      <c r="C31" s="17">
+        <v>20</v>
+      </c>
+      <c r="D31" s="17">
         <v>6</v>
       </c>
-      <c r="E31" s="8" t="str">
+      <c r="E31" s="18" t="str">
         <f>INT((INT(SUM($D$1:D31)/60)+SUM($C$1:C31))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D31)/60)+SUM($C$1:C31))/60-INT((INT(SUM($D$1:D31)/60)+SUM($C$1:C31))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D31)/60-INT(SUM($D$1:D31)/60))*60) &amp; " seg"</f>
         <v>9 hs 16 min 48 seg</v>
       </c>
-      <c r="F31" s="11"/>
+      <c r="F31" s="19">
+        <v>44404</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="24">

--- a/AppComercial-Videos.xlsx
+++ b/AppComercial-Videos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBE9078-043A-484A-B6A8-CE9385D24AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC9ED28-CC35-4E29-94CD-43CB8C4A431D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -864,7 +864,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="A32:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -1529,61 +1529,67 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="24">
+      <c r="A32" s="20">
         <v>31</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="9">
-        <v>20</v>
-      </c>
-      <c r="D32" s="9">
+      <c r="C32" s="15">
+        <v>20</v>
+      </c>
+      <c r="D32" s="15">
         <v>6</v>
       </c>
-      <c r="E32" s="8" t="str">
+      <c r="E32" s="12" t="str">
         <f>INT((INT(SUM($D$1:D32)/60)+SUM($C$1:C32))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D32)/60)+SUM($C$1:C32))/60-INT((INT(SUM($D$1:D32)/60)+SUM($C$1:C32))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D32)/60-INT(SUM($D$1:D32)/60))*60) &amp; " seg"</f>
         <v>9 hs 36 min 54 seg</v>
       </c>
-      <c r="F32" s="11"/>
+      <c r="F32" s="13">
+        <v>44405</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
+      <c r="A33" s="21">
         <v>32</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="9">
-        <v>20</v>
-      </c>
-      <c r="D33" s="9">
+      <c r="C33" s="15">
+        <v>20</v>
+      </c>
+      <c r="D33" s="15">
         <v>6</v>
       </c>
-      <c r="E33" s="8" t="str">
+      <c r="E33" s="12" t="str">
         <f>INT((INT(SUM($D$1:D33)/60)+SUM($C$1:C33))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D33)/60)+SUM($C$1:C33))/60-INT((INT(SUM($D$1:D33)/60)+SUM($C$1:C33))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D33)/60-INT(SUM($D$1:D33)/60))*60) &amp; " seg"</f>
         <v>9 hs 57 min 0 seg</v>
       </c>
-      <c r="F33" s="11"/>
+      <c r="F33" s="13">
+        <v>44405</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="24">
+      <c r="A34" s="20">
         <v>33</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="15">
         <v>27</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="15">
         <v>51</v>
       </c>
-      <c r="E34" s="8" t="str">
+      <c r="E34" s="12" t="str">
         <f>INT((INT(SUM($D$1:D34)/60)+SUM($C$1:C34))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D34)/60)+SUM($C$1:C34))/60-INT((INT(SUM($D$1:D34)/60)+SUM($C$1:C34))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D34)/60-INT(SUM($D$1:D34)/60))*60) &amp; " seg"</f>
         <v>10 hs 24 min 51 seg</v>
       </c>
-      <c r="F34" s="11"/>
+      <c r="F34" s="13">
+        <v>44405</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4">

--- a/AppComercial-Videos.xlsx
+++ b/AppComercial-Videos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC9ED28-CC35-4E29-94CD-43CB8C4A431D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18AE4D4-6B46-45E1-86AF-99BA5CB6751F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -864,7 +864,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="A32:F34"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -1592,80 +1592,88 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
+      <c r="A35" s="22">
         <v>34</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="9">
-        <v>20</v>
-      </c>
-      <c r="D35" s="9">
+      <c r="C35" s="17">
+        <v>20</v>
+      </c>
+      <c r="D35" s="17">
         <v>4</v>
       </c>
-      <c r="E35" s="8" t="str">
+      <c r="E35" s="18" t="str">
         <f>INT((INT(SUM($D$1:D35)/60)+SUM($C$1:C35))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D35)/60)+SUM($C$1:C35))/60-INT((INT(SUM($D$1:D35)/60)+SUM($C$1:C35))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D35)/60-INT(SUM($D$1:D35)/60))*60) &amp; " seg"</f>
         <v>10 hs 44 min 55 seg</v>
       </c>
-      <c r="F35" s="11"/>
+      <c r="F35" s="19">
+        <v>44406</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="24">
+      <c r="A36" s="23">
         <v>35</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="9">
-        <v>20</v>
-      </c>
-      <c r="D36" s="9">
+      <c r="C36" s="17">
+        <v>20</v>
+      </c>
+      <c r="D36" s="17">
         <v>4</v>
       </c>
-      <c r="E36" s="8" t="str">
+      <c r="E36" s="18" t="str">
         <f>INT((INT(SUM($D$1:D36)/60)+SUM($C$1:C36))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D36)/60)+SUM($C$1:C36))/60-INT((INT(SUM($D$1:D36)/60)+SUM($C$1:C36))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D36)/60-INT(SUM($D$1:D36)/60))*60) &amp; " seg"</f>
         <v>11 hs 3 min 59 seg</v>
       </c>
-      <c r="F36" s="11"/>
+      <c r="F36" s="19">
+        <v>44406</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
+      <c r="A37" s="22">
         <v>36</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="9">
-        <v>20</v>
-      </c>
-      <c r="D37" s="9">
+      <c r="C37" s="17">
+        <v>20</v>
+      </c>
+      <c r="D37" s="17">
         <v>4</v>
       </c>
-      <c r="E37" s="8" t="str">
+      <c r="E37" s="18" t="str">
         <f>INT((INT(SUM($D$1:D37)/60)+SUM($C$1:C37))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D37)/60)+SUM($C$1:C37))/60-INT((INT(SUM($D$1:D37)/60)+SUM($C$1:C37))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D37)/60-INT(SUM($D$1:D37)/60))*60) &amp; " seg"</f>
         <v>11 hs 25 min 3 seg</v>
       </c>
-      <c r="F37" s="11"/>
+      <c r="F37" s="19">
+        <v>44406</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="24">
+      <c r="A38" s="23">
         <v>37</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="17">
         <v>16</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="17">
         <v>27</v>
       </c>
-      <c r="E38" s="8" t="str">
+      <c r="E38" s="18" t="str">
         <f>INT((INT(SUM($D$1:D38)/60)+SUM($C$1:C38))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D38)/60)+SUM($C$1:C38))/60-INT((INT(SUM($D$1:D38)/60)+SUM($C$1:C38))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D38)/60-INT(SUM($D$1:D38)/60))*60) &amp; " seg"</f>
         <v>11 hs 41 min 30 seg</v>
       </c>
-      <c r="F38" s="11"/>
+      <c r="F38" s="19">
+        <v>44406</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="4">

--- a/AppComercial-Videos.xlsx
+++ b/AppComercial-Videos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18AE4D4-6B46-45E1-86AF-99BA5CB6751F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6ABDB2F-1EE9-4C71-AC29-AFB88637A7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -863,8 +863,8 @@
   <dimension ref="A1:F154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -1676,61 +1676,67 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
+      <c r="A39" s="21">
         <v>38</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="9">
-        <v>20</v>
-      </c>
-      <c r="D39" s="9">
+      <c r="C39" s="15">
+        <v>20</v>
+      </c>
+      <c r="D39" s="15">
         <v>6</v>
       </c>
-      <c r="E39" s="8" t="str">
+      <c r="E39" s="12" t="str">
         <f>INT((INT(SUM($D$1:D39)/60)+SUM($C$1:C39))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D39)/60)+SUM($C$1:C39))/60-INT((INT(SUM($D$1:D39)/60)+SUM($C$1:C39))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D39)/60-INT(SUM($D$1:D39)/60))*60) &amp; " seg"</f>
         <v>12 hs 1 min 36 seg</v>
       </c>
-      <c r="F39" s="11"/>
+      <c r="F39" s="13">
+        <v>44407</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="24">
+      <c r="A40" s="20">
         <v>39</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="9">
-        <v>20</v>
-      </c>
-      <c r="D40" s="9">
+      <c r="C40" s="15">
+        <v>20</v>
+      </c>
+      <c r="D40" s="15">
         <v>6</v>
       </c>
-      <c r="E40" s="8" t="str">
+      <c r="E40" s="12" t="str">
         <f>INT((INT(SUM($D$1:D40)/60)+SUM($C$1:C40))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D40)/60)+SUM($C$1:C40))/60-INT((INT(SUM($D$1:D40)/60)+SUM($C$1:C40))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D40)/60-INT(SUM($D$1:D40)/60))*60) &amp; " seg"</f>
         <v>12 hs 21 min 42 seg</v>
       </c>
-      <c r="F40" s="11"/>
+      <c r="F40" s="13">
+        <v>44407</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
+      <c r="A41" s="21">
         <v>40</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="9">
-        <v>20</v>
-      </c>
-      <c r="D41" s="9">
+      <c r="C41" s="15">
+        <v>20</v>
+      </c>
+      <c r="D41" s="15">
         <v>6</v>
       </c>
-      <c r="E41" s="8" t="str">
+      <c r="E41" s="12" t="str">
         <f>INT((INT(SUM($D$1:D41)/60)+SUM($C$1:C41))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D41)/60)+SUM($C$1:C41))/60-INT((INT(SUM($D$1:D41)/60)+SUM($C$1:C41))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D41)/60-INT(SUM($D$1:D41)/60))*60) &amp; " seg"</f>
         <v>12 hs 41 min 48 seg</v>
       </c>
-      <c r="F41" s="11"/>
+      <c r="F41" s="13">
+        <v>44407</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="24">

--- a/AppComercial-Videos.xlsx
+++ b/AppComercial-Videos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6ABDB2F-1EE9-4C71-AC29-AFB88637A7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8152DF-67C7-4577-AF83-495B335C7E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -863,8 +863,8 @@
   <dimension ref="A1:F154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F42" sqref="F42:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -1739,61 +1739,67 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="24">
+      <c r="A42" s="23">
         <v>41</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="17">
         <v>15</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="17">
         <v>4</v>
       </c>
-      <c r="E42" s="8" t="str">
+      <c r="E42" s="18" t="str">
         <f>INT((INT(SUM($D$1:D42)/60)+SUM($C$1:C42))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D42)/60)+SUM($C$1:C42))/60-INT((INT(SUM($D$1:D42)/60)+SUM($C$1:C42))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D42)/60-INT(SUM($D$1:D42)/60))*60) &amp; " seg"</f>
         <v>12 hs 56 min 52 seg</v>
       </c>
-      <c r="F42" s="11"/>
+      <c r="F42" s="19">
+        <v>44408</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
+      <c r="A43" s="22">
         <v>42</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="17">
         <v>16</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="17">
         <v>1</v>
       </c>
-      <c r="E43" s="8" t="str">
+      <c r="E43" s="18" t="str">
         <f>INT((INT(SUM($D$1:D43)/60)+SUM($C$1:C43))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D43)/60)+SUM($C$1:C43))/60-INT((INT(SUM($D$1:D43)/60)+SUM($C$1:C43))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D43)/60-INT(SUM($D$1:D43)/60))*60) &amp; " seg"</f>
         <v>13 hs 12 min 53 seg</v>
       </c>
-      <c r="F43" s="11"/>
+      <c r="F43" s="19">
+        <v>44408</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="24">
+      <c r="A44" s="23">
         <v>43</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="17">
         <v>13</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="17">
         <v>29</v>
       </c>
-      <c r="E44" s="8" t="str">
+      <c r="E44" s="18" t="str">
         <f>INT((INT(SUM($D$1:D44)/60)+SUM($C$1:C44))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D44)/60)+SUM($C$1:C44))/60-INT((INT(SUM($D$1:D44)/60)+SUM($C$1:C44))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D44)/60-INT(SUM($D$1:D44)/60))*60) &amp; " seg"</f>
         <v>13 hs 26 min 22 seg</v>
       </c>
-      <c r="F44" s="11"/>
+      <c r="F44" s="19">
+        <v>44408</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="4">

--- a/AppComercial-Videos.xlsx
+++ b/AppComercial-Videos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8152DF-67C7-4577-AF83-495B335C7E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75283836-E885-44D9-9487-1F9EAAE58431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -863,8 +863,8 @@
   <dimension ref="A1:F154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F42" sqref="F42:F44"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F45" sqref="A45:F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -1802,61 +1802,67 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
+      <c r="A45" s="21">
         <v>44</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="9">
-        <v>20</v>
-      </c>
-      <c r="D45" s="9">
+      <c r="C45" s="15">
+        <v>20</v>
+      </c>
+      <c r="D45" s="15">
         <v>5</v>
       </c>
-      <c r="E45" s="8" t="str">
+      <c r="E45" s="12" t="str">
         <f>INT((INT(SUM($D$1:D45)/60)+SUM($C$1:C45))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D45)/60)+SUM($C$1:C45))/60-INT((INT(SUM($D$1:D45)/60)+SUM($C$1:C45))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D45)/60-INT(SUM($D$1:D45)/60))*60) &amp; " seg"</f>
         <v>13 hs 46 min 27 seg</v>
       </c>
-      <c r="F45" s="11"/>
+      <c r="F45" s="13">
+        <v>44409</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="24">
+      <c r="A46" s="20">
         <v>45</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="9">
-        <v>20</v>
-      </c>
-      <c r="D46" s="9">
+      <c r="C46" s="15">
+        <v>20</v>
+      </c>
+      <c r="D46" s="15">
         <v>10</v>
       </c>
-      <c r="E46" s="8" t="str">
+      <c r="E46" s="12" t="str">
         <f>INT((INT(SUM($D$1:D46)/60)+SUM($C$1:C46))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D46)/60)+SUM($C$1:C46))/60-INT((INT(SUM($D$1:D46)/60)+SUM($C$1:C46))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D46)/60-INT(SUM($D$1:D46)/60))*60) &amp; " seg"</f>
         <v>14 hs 5 min 37 seg</v>
       </c>
-      <c r="F46" s="11"/>
+      <c r="F46" s="13">
+        <v>44409</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
+      <c r="A47" s="21">
         <v>46</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="9">
-        <v>20</v>
-      </c>
-      <c r="D47" s="9">
+      <c r="C47" s="15">
+        <v>20</v>
+      </c>
+      <c r="D47" s="15">
         <v>5</v>
       </c>
-      <c r="E47" s="8" t="str">
+      <c r="E47" s="12" t="str">
         <f>INT((INT(SUM($D$1:D47)/60)+SUM($C$1:C47))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D47)/60)+SUM($C$1:C47))/60-INT((INT(SUM($D$1:D47)/60)+SUM($C$1:C47))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D47)/60-INT(SUM($D$1:D47)/60))*60) &amp; " seg"</f>
         <v>14 hs 26 min 42 seg</v>
       </c>
-      <c r="F47" s="11"/>
+      <c r="F47" s="13">
+        <v>44409</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="24">

--- a/AppComercial-Videos.xlsx
+++ b/AppComercial-Videos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75283836-E885-44D9-9487-1F9EAAE58431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B684414-8A16-4877-89BB-2D542F68DC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -864,7 +864,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F45" sqref="A45:F47"/>
+      <selection pane="bottomLeft" activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -1865,61 +1865,67 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="24">
+      <c r="A48" s="23">
         <v>47</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="9">
-        <v>20</v>
-      </c>
-      <c r="D48" s="9">
+      <c r="C48" s="17">
+        <v>20</v>
+      </c>
+      <c r="D48" s="17">
         <v>5</v>
       </c>
-      <c r="E48" s="8" t="str">
+      <c r="E48" s="18" t="str">
         <f>INT((INT(SUM($D$1:D48)/60)+SUM($C$1:C48))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D48)/60)+SUM($C$1:C48))/60-INT((INT(SUM($D$1:D48)/60)+SUM($C$1:C48))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D48)/60-INT(SUM($D$1:D48)/60))*60) &amp; " seg"</f>
         <v>14 hs 46 min 47 seg</v>
       </c>
-      <c r="F48" s="11"/>
+      <c r="F48" s="19">
+        <v>44410</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
+      <c r="A49" s="22">
         <v>48</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="17">
         <v>24</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="17">
         <v>36</v>
       </c>
-      <c r="E49" s="8" t="str">
+      <c r="E49" s="18" t="str">
         <f>INT((INT(SUM($D$1:D49)/60)+SUM($C$1:C49))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D49)/60)+SUM($C$1:C49))/60-INT((INT(SUM($D$1:D49)/60)+SUM($C$1:C49))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D49)/60-INT(SUM($D$1:D49)/60))*60) &amp; " seg"</f>
         <v>15 hs 11 min 23 seg</v>
       </c>
-      <c r="F49" s="11"/>
+      <c r="F49" s="19">
+        <v>44410</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="24">
+      <c r="A50" s="23">
         <v>49</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="9">
-        <v>20</v>
-      </c>
-      <c r="D50" s="9">
+      <c r="C50" s="17">
+        <v>20</v>
+      </c>
+      <c r="D50" s="17">
         <v>3</v>
       </c>
-      <c r="E50" s="8" t="str">
+      <c r="E50" s="18" t="str">
         <f>INT((INT(SUM($D$1:D50)/60)+SUM($C$1:C50))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D50)/60)+SUM($C$1:C50))/60-INT((INT(SUM($D$1:D50)/60)+SUM($C$1:C50))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D50)/60-INT(SUM($D$1:D50)/60))*60) &amp; " seg"</f>
         <v>15 hs 31 min 26 seg</v>
       </c>
-      <c r="F50" s="11"/>
+      <c r="F50" s="19">
+        <v>44410</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="4">

--- a/AppComercial-Videos.xlsx
+++ b/AppComercial-Videos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B684414-8A16-4877-89BB-2D542F68DC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6685EF93-FAD4-4919-90C3-B8B7C0BE88A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -863,8 +863,8 @@
   <dimension ref="A1:F154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K45" sqref="K45"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="A51:F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -1928,61 +1928,67 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
+      <c r="A51" s="21">
         <v>50</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="9">
-        <v>20</v>
-      </c>
-      <c r="D51" s="9">
+      <c r="C51" s="15">
+        <v>20</v>
+      </c>
+      <c r="D51" s="15">
         <v>3</v>
       </c>
-      <c r="E51" s="8" t="str">
+      <c r="E51" s="12" t="str">
         <f>INT((INT(SUM($D$1:D51)/60)+SUM($C$1:C51))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D51)/60)+SUM($C$1:C51))/60-INT((INT(SUM($D$1:D51)/60)+SUM($C$1:C51))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D51)/60-INT(SUM($D$1:D51)/60))*60) &amp; " seg"</f>
         <v>15 hs 51 min 29 seg</v>
       </c>
-      <c r="F51" s="11"/>
+      <c r="F51" s="13">
+        <v>44411</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="24">
+      <c r="A52" s="20">
         <v>51</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="9">
-        <v>20</v>
-      </c>
-      <c r="D52" s="9">
+      <c r="C52" s="15">
+        <v>20</v>
+      </c>
+      <c r="D52" s="15">
         <v>9</v>
       </c>
-      <c r="E52" s="8" t="str">
+      <c r="E52" s="12" t="str">
         <f>INT((INT(SUM($D$1:D52)/60)+SUM($C$1:C52))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D52)/60)+SUM($C$1:C52))/60-INT((INT(SUM($D$1:D52)/60)+SUM($C$1:C52))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D52)/60-INT(SUM($D$1:D52)/60))*60) &amp; " seg"</f>
         <v>16 hs 11 min 38 seg</v>
       </c>
-      <c r="F52" s="11"/>
+      <c r="F52" s="13">
+        <v>44411</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
+      <c r="A53" s="21">
         <v>52</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="9">
-        <v>20</v>
-      </c>
-      <c r="D53" s="9">
+      <c r="C53" s="15">
+        <v>20</v>
+      </c>
+      <c r="D53" s="15">
         <v>9</v>
       </c>
-      <c r="E53" s="8" t="str">
+      <c r="E53" s="12" t="str">
         <f>INT((INT(SUM($D$1:D53)/60)+SUM($C$1:C53))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D53)/60)+SUM($C$1:C53))/60-INT((INT(SUM($D$1:D53)/60)+SUM($C$1:C53))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D53)/60-INT(SUM($D$1:D53)/60))*60) &amp; " seg"</f>
         <v>16 hs 30 min 47 seg</v>
       </c>
-      <c r="F53" s="11"/>
+      <c r="F53" s="13">
+        <v>44411</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="24">

--- a/AppComercial-Videos.xlsx
+++ b/AppComercial-Videos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6685EF93-FAD4-4919-90C3-B8B7C0BE88A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C61D44-2453-46B0-BD16-60619FE3D170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -864,7 +864,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F51" sqref="A51:F53"/>
+      <selection pane="bottomLeft" activeCell="F54" sqref="A54:F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -1991,61 +1991,67 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="24">
+      <c r="A54" s="23">
         <v>53</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="9">
-        <v>20</v>
-      </c>
-      <c r="D54" s="9">
+      <c r="C54" s="17">
+        <v>20</v>
+      </c>
+      <c r="D54" s="17">
         <v>9</v>
       </c>
-      <c r="E54" s="8" t="str">
+      <c r="E54" s="18" t="str">
         <f>INT((INT(SUM($D$1:D54)/60)+SUM($C$1:C54))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D54)/60)+SUM($C$1:C54))/60-INT((INT(SUM($D$1:D54)/60)+SUM($C$1:C54))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D54)/60-INT(SUM($D$1:D54)/60))*60) &amp; " seg"</f>
         <v>16 hs 51 min 56 seg</v>
       </c>
-      <c r="F54" s="11"/>
+      <c r="F54" s="19">
+        <v>44412</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="4">
+      <c r="A55" s="22">
         <v>54</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="17">
         <v>15</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="17">
         <v>0</v>
       </c>
-      <c r="E55" s="8" t="str">
+      <c r="E55" s="18" t="str">
         <f>INT((INT(SUM($D$1:D55)/60)+SUM($C$1:C55))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D55)/60)+SUM($C$1:C55))/60-INT((INT(SUM($D$1:D55)/60)+SUM($C$1:C55))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D55)/60-INT(SUM($D$1:D55)/60))*60) &amp; " seg"</f>
         <v>17 hs 6 min 56 seg</v>
       </c>
-      <c r="F55" s="11"/>
+      <c r="F55" s="19">
+        <v>44412</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="24">
+      <c r="A56" s="23">
         <v>55</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="9">
-        <v>20</v>
-      </c>
-      <c r="D56" s="9">
+      <c r="C56" s="17">
+        <v>20</v>
+      </c>
+      <c r="D56" s="17">
         <v>3</v>
       </c>
-      <c r="E56" s="8" t="str">
+      <c r="E56" s="18" t="str">
         <f>INT((INT(SUM($D$1:D56)/60)+SUM($C$1:C56))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D56)/60)+SUM($C$1:C56))/60-INT((INT(SUM($D$1:D56)/60)+SUM($C$1:C56))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D56)/60-INT(SUM($D$1:D56)/60))*60) &amp; " seg"</f>
         <v>17 hs 26 min 59 seg</v>
       </c>
-      <c r="F56" s="11"/>
+      <c r="F56" s="19">
+        <v>44412</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="4">

--- a/AppComercial-Videos.xlsx
+++ b/AppComercial-Videos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C61D44-2453-46B0-BD16-60619FE3D170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B82A2CB-79EA-45C5-9FD2-5562520B44E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -864,7 +864,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F54" sqref="A54:F56"/>
+      <selection pane="bottomLeft" activeCell="F57" sqref="A57:F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -2054,80 +2054,88 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="4">
+      <c r="A57" s="21">
         <v>56</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="9">
-        <v>20</v>
-      </c>
-      <c r="D57" s="9">
+      <c r="C57" s="15">
+        <v>20</v>
+      </c>
+      <c r="D57" s="15">
         <v>3</v>
       </c>
-      <c r="E57" s="8" t="str">
+      <c r="E57" s="12" t="str">
         <f>INT((INT(SUM($D$1:D57)/60)+SUM($C$1:C57))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D57)/60)+SUM($C$1:C57))/60-INT((INT(SUM($D$1:D57)/60)+SUM($C$1:C57))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D57)/60-INT(SUM($D$1:D57)/60))*60) &amp; " seg"</f>
         <v>17 hs 47 min 1 seg</v>
       </c>
-      <c r="F57" s="11"/>
+      <c r="F57" s="13">
+        <v>44413</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="24">
+      <c r="A58" s="20">
         <v>57</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="9">
-        <v>20</v>
-      </c>
-      <c r="D58" s="9">
+      <c r="C58" s="15">
+        <v>20</v>
+      </c>
+      <c r="D58" s="15">
         <v>7</v>
       </c>
-      <c r="E58" s="8" t="str">
+      <c r="E58" s="12" t="str">
         <f>INT((INT(SUM($D$1:D58)/60)+SUM($C$1:C58))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D58)/60)+SUM($C$1:C58))/60-INT((INT(SUM($D$1:D58)/60)+SUM($C$1:C58))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D58)/60-INT(SUM($D$1:D58)/60))*60) &amp; " seg"</f>
         <v>18 hs 7 min 9 seg</v>
       </c>
-      <c r="F58" s="11"/>
+      <c r="F58" s="13">
+        <v>44413</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="4">
+      <c r="A59" s="21">
         <v>58</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="9">
-        <v>20</v>
-      </c>
-      <c r="D59" s="9">
+      <c r="C59" s="15">
+        <v>20</v>
+      </c>
+      <c r="D59" s="15">
         <v>22</v>
       </c>
-      <c r="E59" s="8" t="str">
+      <c r="E59" s="12" t="str">
         <f>INT((INT(SUM($D$1:D59)/60)+SUM($C$1:C59))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D59)/60)+SUM($C$1:C59))/60-INT((INT(SUM($D$1:D59)/60)+SUM($C$1:C59))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D59)/60-INT(SUM($D$1:D59)/60))*60) &amp; " seg"</f>
         <v>18 hs 27 min 31 seg</v>
       </c>
-      <c r="F59" s="11"/>
+      <c r="F59" s="13">
+        <v>44413</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="24">
+      <c r="A60" s="20">
         <v>59</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="9">
-        <v>20</v>
-      </c>
-      <c r="D60" s="9">
+      <c r="C60" s="15">
+        <v>20</v>
+      </c>
+      <c r="D60" s="15">
         <v>7</v>
       </c>
-      <c r="E60" s="8" t="str">
+      <c r="E60" s="12" t="str">
         <f>INT((INT(SUM($D$1:D60)/60)+SUM($C$1:C60))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D60)/60)+SUM($C$1:C60))/60-INT((INT(SUM($D$1:D60)/60)+SUM($C$1:C60))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D60)/60-INT(SUM($D$1:D60)/60))*60) &amp; " seg"</f>
         <v>18 hs 47 min 38 seg</v>
       </c>
-      <c r="F60" s="11"/>
+      <c r="F60" s="13">
+        <v>44413</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="4">

--- a/AppComercial-Videos.xlsx
+++ b/AppComercial-Videos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B82A2CB-79EA-45C5-9FD2-5562520B44E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441DA99F-B7CD-4C24-B26D-B7DCA3308AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -864,7 +864,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F57" sqref="A57:F60"/>
+      <selection pane="bottomLeft" activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -2138,61 +2138,67 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="4">
+      <c r="A61" s="22">
         <v>60</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="17">
         <v>18</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="17">
         <v>42</v>
       </c>
-      <c r="E61" s="8" t="str">
+      <c r="E61" s="18" t="str">
         <f>INT((INT(SUM($D$1:D61)/60)+SUM($C$1:C61))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D61)/60)+SUM($C$1:C61))/60-INT((INT(SUM($D$1:D61)/60)+SUM($C$1:C61))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D61)/60-INT(SUM($D$1:D61)/60))*60) &amp; " seg"</f>
         <v>19 hs 6 min 20 seg</v>
       </c>
-      <c r="F61" s="11"/>
+      <c r="F61" s="19">
+        <v>44414</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="24">
+      <c r="A62" s="23">
         <v>61</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62" s="17">
         <v>14</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="17">
         <v>3</v>
       </c>
-      <c r="E62" s="8" t="str">
+      <c r="E62" s="18" t="str">
         <f>INT((INT(SUM($D$1:D62)/60)+SUM($C$1:C62))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D62)/60)+SUM($C$1:C62))/60-INT((INT(SUM($D$1:D62)/60)+SUM($C$1:C62))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D62)/60-INT(SUM($D$1:D62)/60))*60) &amp; " seg"</f>
         <v>19 hs 19 min 23 seg</v>
       </c>
-      <c r="F62" s="11"/>
+      <c r="F62" s="19">
+        <v>44414</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="4">
+      <c r="A63" s="22">
         <v>62</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="17">
         <v>14</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="17">
         <v>11</v>
       </c>
-      <c r="E63" s="8" t="str">
+      <c r="E63" s="18" t="str">
         <f>INT((INT(SUM($D$1:D63)/60)+SUM($C$1:C63))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D63)/60)+SUM($C$1:C63))/60-INT((INT(SUM($D$1:D63)/60)+SUM($C$1:C63))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D63)/60-INT(SUM($D$1:D63)/60))*60) &amp; " seg"</f>
         <v>19 hs 34 min 34 seg</v>
       </c>
-      <c r="F63" s="11"/>
+      <c r="F63" s="19">
+        <v>44414</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="24">

--- a/AppComercial-Videos.xlsx
+++ b/AppComercial-Videos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441DA99F-B7CD-4C24-B26D-B7DCA3308AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730C65C1-31E7-4747-A22F-956379E27105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -863,8 +863,8 @@
   <dimension ref="A1:F154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N41" sqref="N41"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -2201,80 +2201,88 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="24">
+      <c r="A64" s="20">
         <v>63</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="9">
-        <v>20</v>
-      </c>
-      <c r="D64" s="9">
+      <c r="C64" s="15">
+        <v>20</v>
+      </c>
+      <c r="D64" s="15">
         <v>2</v>
       </c>
-      <c r="E64" s="8" t="str">
+      <c r="E64" s="12" t="str">
         <f>INT((INT(SUM($D$1:D64)/60)+SUM($C$1:C64))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D64)/60)+SUM($C$1:C64))/60-INT((INT(SUM($D$1:D64)/60)+SUM($C$1:C64))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D64)/60-INT(SUM($D$1:D64)/60))*60) &amp; " seg"</f>
         <v>19 hs 53 min 36 seg</v>
       </c>
-      <c r="F64" s="11"/>
+      <c r="F64" s="13">
+        <v>44416</v>
+      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="4">
+      <c r="A65" s="21">
         <v>64</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="9">
-        <v>20</v>
-      </c>
-      <c r="D65" s="9">
+      <c r="C65" s="15">
+        <v>20</v>
+      </c>
+      <c r="D65" s="15">
         <v>5</v>
       </c>
-      <c r="E65" s="8" t="str">
+      <c r="E65" s="12" t="str">
         <f>INT((INT(SUM($D$1:D65)/60)+SUM($C$1:C65))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D65)/60)+SUM($C$1:C65))/60-INT((INT(SUM($D$1:D65)/60)+SUM($C$1:C65))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D65)/60-INT(SUM($D$1:D65)/60))*60) &amp; " seg"</f>
         <v>20 hs 14 min 41 seg</v>
       </c>
-      <c r="F65" s="11"/>
+      <c r="F65" s="13">
+        <v>44416</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="24">
+      <c r="A66" s="20">
         <v>65</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="9">
-        <v>20</v>
-      </c>
-      <c r="D66" s="9">
+      <c r="C66" s="15">
+        <v>20</v>
+      </c>
+      <c r="D66" s="15">
         <v>2</v>
       </c>
-      <c r="E66" s="8" t="str">
+      <c r="E66" s="12" t="str">
         <f>INT((INT(SUM($D$1:D66)/60)+SUM($C$1:C66))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D66)/60)+SUM($C$1:C66))/60-INT((INT(SUM($D$1:D66)/60)+SUM($C$1:C66))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D66)/60-INT(SUM($D$1:D66)/60))*60) &amp; " seg"</f>
         <v>20 hs 34 min 43 seg</v>
       </c>
-      <c r="F66" s="11"/>
+      <c r="F66" s="13">
+        <v>44416</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="4">
+      <c r="A67" s="21">
         <v>66</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C67" s="15">
         <v>10</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="15">
         <v>33</v>
       </c>
-      <c r="E67" s="8" t="str">
+      <c r="E67" s="12" t="str">
         <f>INT((INT(SUM($D$1:D67)/60)+SUM($C$1:C67))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D67)/60)+SUM($C$1:C67))/60-INT((INT(SUM($D$1:D67)/60)+SUM($C$1:C67))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D67)/60-INT(SUM($D$1:D67)/60))*60) &amp; " seg"</f>
         <v>20 hs 45 min 16 seg</v>
       </c>
-      <c r="F67" s="11"/>
+      <c r="F67" s="13">
+        <v>44416</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="24">

--- a/AppComercial-Videos.xlsx
+++ b/AppComercial-Videos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730C65C1-31E7-4747-A22F-956379E27105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AB77B4-8B54-4E5B-A41E-F0483AA2B8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -864,7 +864,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A68" sqref="A68"/>
+      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -2285,80 +2285,88 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="24">
+      <c r="A68" s="23">
         <v>67</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C68" s="9">
-        <v>20</v>
-      </c>
-      <c r="D68" s="9">
+      <c r="C68" s="17">
+        <v>20</v>
+      </c>
+      <c r="D68" s="17">
         <v>4</v>
       </c>
-      <c r="E68" s="8" t="str">
+      <c r="E68" s="18" t="str">
         <f>INT((INT(SUM($D$1:D68)/60)+SUM($C$1:C68))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D68)/60)+SUM($C$1:C68))/60-INT((INT(SUM($D$1:D68)/60)+SUM($C$1:C68))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D68)/60-INT(SUM($D$1:D68)/60))*60) &amp; " seg"</f>
         <v>21 hs 4 min 20 seg</v>
       </c>
-      <c r="F68" s="11"/>
+      <c r="F68" s="19">
+        <v>44417</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="4">
+      <c r="A69" s="22">
         <v>68</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C69" s="9">
-        <v>20</v>
-      </c>
-      <c r="D69" s="9">
+      <c r="C69" s="17">
+        <v>20</v>
+      </c>
+      <c r="D69" s="17">
         <v>8</v>
       </c>
-      <c r="E69" s="8" t="str">
+      <c r="E69" s="18" t="str">
         <f>INT((INT(SUM($D$1:D69)/60)+SUM($C$1:C69))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D69)/60)+SUM($C$1:C69))/60-INT((INT(SUM($D$1:D69)/60)+SUM($C$1:C69))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D69)/60-INT(SUM($D$1:D69)/60))*60) &amp; " seg"</f>
         <v>21 hs 25 min 28 seg</v>
       </c>
-      <c r="F69" s="11"/>
+      <c r="F69" s="19">
+        <v>44417</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="24">
+      <c r="A70" s="23">
         <v>69</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C70" s="9">
+      <c r="C70" s="17">
         <v>15</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D70" s="17">
         <v>6</v>
       </c>
-      <c r="E70" s="8" t="str">
+      <c r="E70" s="18" t="str">
         <f>INT((INT(SUM($D$1:D70)/60)+SUM($C$1:C70))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D70)/60)+SUM($C$1:C70))/60-INT((INT(SUM($D$1:D70)/60)+SUM($C$1:C70))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D70)/60-INT(SUM($D$1:D70)/60))*60) &amp; " seg"</f>
         <v>21 hs 40 min 34 seg</v>
       </c>
-      <c r="F70" s="11"/>
+      <c r="F70" s="19">
+        <v>44417</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="4">
+      <c r="A71" s="22">
         <v>70</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C71" s="9">
+      <c r="C71" s="17">
         <v>18</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D71" s="17">
         <v>9</v>
       </c>
-      <c r="E71" s="8" t="str">
+      <c r="E71" s="18" t="str">
         <f>INT((INT(SUM($D$1:D71)/60)+SUM($C$1:C71))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D71)/60)+SUM($C$1:C71))/60-INT((INT(SUM($D$1:D71)/60)+SUM($C$1:C71))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D71)/60-INT(SUM($D$1:D71)/60))*60) &amp; " seg"</f>
         <v>21 hs 57 min 43 seg</v>
       </c>
-      <c r="F71" s="11"/>
+      <c r="F71" s="19">
+        <v>44417</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="24">

--- a/AppComercial-Videos.xlsx
+++ b/AppComercial-Videos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AB77B4-8B54-4E5B-A41E-F0483AA2B8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33662789-310D-4375-841B-CBD1395769EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -864,7 +864,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
+      <selection pane="bottomLeft" activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -2369,99 +2369,109 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="24">
+      <c r="A72" s="20">
         <v>71</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C72" s="15">
         <v>15</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D72" s="15">
         <v>2</v>
       </c>
-      <c r="E72" s="8" t="str">
+      <c r="E72" s="12" t="str">
         <f>INT((INT(SUM($D$1:D72)/60)+SUM($C$1:C72))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D72)/60)+SUM($C$1:C72))/60-INT((INT(SUM($D$1:D72)/60)+SUM($C$1:C72))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D72)/60-INT(SUM($D$1:D72)/60))*60) &amp; " seg"</f>
         <v>22 hs 12 min 45 seg</v>
       </c>
-      <c r="F72" s="11"/>
+      <c r="F72" s="13">
+        <v>44418</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="4">
+      <c r="A73" s="21">
         <v>72</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C73" s="9">
+      <c r="C73" s="15">
         <v>15</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D73" s="15">
         <v>4</v>
       </c>
-      <c r="E73" s="8" t="str">
+      <c r="E73" s="12" t="str">
         <f>INT((INT(SUM($D$1:D73)/60)+SUM($C$1:C73))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D73)/60)+SUM($C$1:C73))/60-INT((INT(SUM($D$1:D73)/60)+SUM($C$1:C73))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D73)/60-INT(SUM($D$1:D73)/60))*60) &amp; " seg"</f>
         <v>22 hs 27 min 49 seg</v>
       </c>
-      <c r="F73" s="11"/>
+      <c r="F73" s="13">
+        <v>44418</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="24">
+      <c r="A74" s="20">
         <v>73</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C74" s="15">
         <v>15</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D74" s="15">
         <v>24</v>
       </c>
-      <c r="E74" s="8" t="str">
+      <c r="E74" s="12" t="str">
         <f>INT((INT(SUM($D$1:D74)/60)+SUM($C$1:C74))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D74)/60)+SUM($C$1:C74))/60-INT((INT(SUM($D$1:D74)/60)+SUM($C$1:C74))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D74)/60-INT(SUM($D$1:D74)/60))*60) &amp; " seg"</f>
         <v>22 hs 44 min 13 seg</v>
       </c>
-      <c r="F74" s="11"/>
+      <c r="F74" s="13">
+        <v>44418</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="4">
+      <c r="A75" s="21">
         <v>74</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="9">
-        <v>20</v>
-      </c>
-      <c r="D75" s="9">
+      <c r="C75" s="15">
+        <v>20</v>
+      </c>
+      <c r="D75" s="15">
         <v>2</v>
       </c>
-      <c r="E75" s="8" t="str">
+      <c r="E75" s="12" t="str">
         <f>INT((INT(SUM($D$1:D75)/60)+SUM($C$1:C75))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D75)/60)+SUM($C$1:C75))/60-INT((INT(SUM($D$1:D75)/60)+SUM($C$1:C75))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D75)/60-INT(SUM($D$1:D75)/60))*60) &amp; " seg"</f>
         <v>23 hs 3 min 15 seg</v>
       </c>
-      <c r="F75" s="11"/>
+      <c r="F75" s="13">
+        <v>44418</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="24">
+      <c r="A76" s="20">
         <v>75</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C76" s="9">
+      <c r="C76" s="15">
         <v>19</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D76" s="15">
         <v>41</v>
       </c>
-      <c r="E76" s="8" t="str">
+      <c r="E76" s="12" t="str">
         <f>INT((INT(SUM($D$1:D76)/60)+SUM($C$1:C76))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D76)/60)+SUM($C$1:C76))/60-INT((INT(SUM($D$1:D76)/60)+SUM($C$1:C76))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D76)/60-INT(SUM($D$1:D76)/60))*60) &amp; " seg"</f>
         <v>23 hs 23 min 56 seg</v>
       </c>
-      <c r="F76" s="11"/>
+      <c r="F76" s="13">
+        <v>44418</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="4">

--- a/AppComercial-Videos.xlsx
+++ b/AppComercial-Videos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33662789-310D-4375-841B-CBD1395769EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35131CE-B18E-4E20-8268-3D5ED7E1461A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -864,7 +864,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K73" sqref="K73"/>
+      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>

--- a/AppComercial-Videos.xlsx
+++ b/AppComercial-Videos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35131CE-B18E-4E20-8268-3D5ED7E1461A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F01719-6A9B-4DA0-8D36-061B188F822B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -863,8 +863,8 @@
   <dimension ref="A1:F154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C83" sqref="C83:C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -2474,61 +2474,67 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="4">
+      <c r="A77" s="22">
         <v>76</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="9">
-        <v>20</v>
-      </c>
-      <c r="D77" s="9">
+      <c r="C77" s="17">
+        <v>20</v>
+      </c>
+      <c r="D77" s="17">
         <v>2</v>
       </c>
-      <c r="E77" s="8" t="str">
+      <c r="E77" s="18" t="str">
         <f>INT((INT(SUM($D$1:D77)/60)+SUM($C$1:C77))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D77)/60)+SUM($C$1:C77))/60-INT((INT(SUM($D$1:D77)/60)+SUM($C$1:C77))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D77)/60-INT(SUM($D$1:D77)/60))*60) &amp; " seg"</f>
         <v>23 hs 42 min 58 seg</v>
       </c>
-      <c r="F77" s="11"/>
+      <c r="F77" s="19">
+        <v>44419</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="24">
+      <c r="A78" s="23">
         <v>77</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C78" s="9">
-        <v>20</v>
-      </c>
-      <c r="D78" s="9">
+      <c r="C78" s="17">
+        <v>20</v>
+      </c>
+      <c r="D78" s="17">
         <v>8</v>
       </c>
-      <c r="E78" s="8" t="str">
+      <c r="E78" s="18" t="str">
         <f>INT((INT(SUM($D$1:D78)/60)+SUM($C$1:C78))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D78)/60)+SUM($C$1:C78))/60-INT((INT(SUM($D$1:D78)/60)+SUM($C$1:C78))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D78)/60-INT(SUM($D$1:D78)/60))*60) &amp; " seg"</f>
         <v>24 hs 3 min 6 seg</v>
       </c>
-      <c r="F78" s="11"/>
+      <c r="F78" s="19">
+        <v>44419</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="4">
+      <c r="A79" s="22">
         <v>78</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C79" s="9">
-        <v>20</v>
-      </c>
-      <c r="D79" s="9">
+      <c r="C79" s="17">
+        <v>20</v>
+      </c>
+      <c r="D79" s="17">
         <v>8</v>
       </c>
-      <c r="E79" s="8" t="str">
+      <c r="E79" s="18" t="str">
         <f>INT((INT(SUM($D$1:D79)/60)+SUM($C$1:C79))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D79)/60)+SUM($C$1:C79))/60-INT((INT(SUM($D$1:D79)/60)+SUM($C$1:C79))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D79)/60-INT(SUM($D$1:D79)/60))*60) &amp; " seg"</f>
         <v>24 hs 23 min 14 seg</v>
       </c>
-      <c r="F79" s="11"/>
+      <c r="F79" s="19">
+        <v>44419</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="24">

--- a/AppComercial-Videos.xlsx
+++ b/AppComercial-Videos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F01719-6A9B-4DA0-8D36-061B188F822B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FC2EED-2A67-41DE-A504-C1D98472E5A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -864,7 +864,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C83" sqref="C83:C85"/>
+      <selection pane="bottomLeft" activeCell="E83" sqref="A83:E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -2537,80 +2537,88 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="24">
+      <c r="A80" s="20">
         <v>79</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C80" s="9">
-        <v>20</v>
-      </c>
-      <c r="D80" s="9">
+      <c r="C80" s="15">
+        <v>20</v>
+      </c>
+      <c r="D80" s="15">
         <v>8</v>
       </c>
-      <c r="E80" s="8" t="str">
+      <c r="E80" s="12" t="str">
         <f>INT((INT(SUM($D$1:D80)/60)+SUM($C$1:C80))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D80)/60)+SUM($C$1:C80))/60-INT((INT(SUM($D$1:D80)/60)+SUM($C$1:C80))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D80)/60-INT(SUM($D$1:D80)/60))*60) &amp; " seg"</f>
         <v>24 hs 44 min 22 seg</v>
       </c>
-      <c r="F80" s="11"/>
+      <c r="F80" s="13">
+        <v>44420</v>
+      </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="4">
+      <c r="A81" s="21">
         <v>80</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C81" s="9">
-        <v>20</v>
-      </c>
-      <c r="D81" s="9">
+      <c r="C81" s="15">
+        <v>20</v>
+      </c>
+      <c r="D81" s="15">
         <v>8</v>
       </c>
-      <c r="E81" s="8" t="str">
+      <c r="E81" s="12" t="str">
         <f>INT((INT(SUM($D$1:D81)/60)+SUM($C$1:C81))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D81)/60)+SUM($C$1:C81))/60-INT((INT(SUM($D$1:D81)/60)+SUM($C$1:C81))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D81)/60-INT(SUM($D$1:D81)/60))*60) &amp; " seg"</f>
         <v>25 hs 3 min 30 seg</v>
       </c>
-      <c r="F81" s="11"/>
+      <c r="F81" s="13">
+        <v>44420</v>
+      </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="24">
+      <c r="A82" s="20">
         <v>81</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C82" s="9">
+      <c r="C82" s="15">
         <v>17</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D82" s="15">
         <v>10</v>
       </c>
-      <c r="E82" s="8" t="str">
+      <c r="E82" s="12" t="str">
         <f>INT((INT(SUM($D$1:D82)/60)+SUM($C$1:C82))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D82)/60)+SUM($C$1:C82))/60-INT((INT(SUM($D$1:D82)/60)+SUM($C$1:C82))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D82)/60-INT(SUM($D$1:D82)/60))*60) &amp; " seg"</f>
         <v>25 hs 21 min 40 seg</v>
       </c>
-      <c r="F82" s="11"/>
+      <c r="F82" s="13">
+        <v>44420</v>
+      </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="4">
+      <c r="A83" s="21">
         <v>82</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C83" s="9">
+      <c r="C83" s="15">
         <v>16</v>
       </c>
-      <c r="D83" s="9">
+      <c r="D83" s="15">
         <v>4</v>
       </c>
-      <c r="E83" s="8" t="str">
+      <c r="E83" s="12" t="str">
         <f>INT((INT(SUM($D$1:D83)/60)+SUM($C$1:C83))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D83)/60)+SUM($C$1:C83))/60-INT((INT(SUM($D$1:D83)/60)+SUM($C$1:C83))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D83)/60-INT(SUM($D$1:D83)/60))*60) &amp; " seg"</f>
         <v>25 hs 37 min 44 seg</v>
       </c>
-      <c r="F83" s="11"/>
+      <c r="F83" s="13">
+        <v>44420</v>
+      </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="24">

--- a/AppComercial-Videos.xlsx
+++ b/AppComercial-Videos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FC2EED-2A67-41DE-A504-C1D98472E5A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0669E6C2-4A9A-4F82-A6E9-09A89288E56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -864,7 +864,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E83" sqref="A83:E83"/>
+      <selection pane="bottomLeft" activeCell="F84" sqref="A84:F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -2621,42 +2621,46 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="24">
+      <c r="A84" s="23">
         <v>83</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C84" s="9">
+      <c r="C84" s="17">
         <v>19</v>
       </c>
-      <c r="D84" s="9">
-        <v>20</v>
-      </c>
-      <c r="E84" s="8" t="str">
+      <c r="D84" s="17">
+        <v>20</v>
+      </c>
+      <c r="E84" s="18" t="str">
         <f>INT((INT(SUM($D$1:D84)/60)+SUM($C$1:C84))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D84)/60)+SUM($C$1:C84))/60-INT((INT(SUM($D$1:D84)/60)+SUM($C$1:C84))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D84)/60-INT(SUM($D$1:D84)/60))*60) &amp; " seg"</f>
         <v>25 hs 57 min 3 seg</v>
       </c>
-      <c r="F84" s="11"/>
+      <c r="F84" s="19">
+        <v>44421</v>
+      </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="4">
+      <c r="A85" s="22">
         <v>84</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C85" s="9">
+      <c r="C85" s="17">
         <v>31</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D85" s="17">
         <v>30</v>
       </c>
-      <c r="E85" s="8" t="str">
+      <c r="E85" s="18" t="str">
         <f>INT((INT(SUM($D$1:D85)/60)+SUM($C$1:C85))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D85)/60)+SUM($C$1:C85))/60-INT((INT(SUM($D$1:D85)/60)+SUM($C$1:C85))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D85)/60-INT(SUM($D$1:D85)/60))*60) &amp; " seg"</f>
         <v>26 hs 27 min 34 seg</v>
       </c>
-      <c r="F85" s="11"/>
+      <c r="F85" s="19">
+        <v>44421</v>
+      </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="24">

--- a/AppComercial-Videos.xlsx
+++ b/AppComercial-Videos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0669E6C2-4A9A-4F82-A6E9-09A89288E56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDC7281-F5F0-4B45-AB98-BABBC4554245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -864,7 +864,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F84" sqref="A84:F85"/>
+      <selection pane="bottomLeft" activeCell="C86" sqref="C86:C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>

--- a/AppComercial-Videos.xlsx
+++ b/AppComercial-Videos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDC7281-F5F0-4B45-AB98-BABBC4554245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F1625D-5BA0-46B4-A115-04ED225DFC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -472,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -503,9 +503,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -864,7 +861,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C86" sqref="C86:C99"/>
+      <selection pane="bottomLeft" activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -899,1825 +896,1831 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="20">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="15">
-        <v>20</v>
-      </c>
-      <c r="D2" s="15">
+      <c r="C2" s="14">
+        <v>20</v>
+      </c>
+      <c r="D2" s="14">
         <v>48</v>
       </c>
       <c r="E2" s="10" t="str">
         <f>INT((INT(SUM($D$1:D2)/60)+SUM($C$1:C2))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D2)/60)+SUM($C$1:C2))/60-INT((INT(SUM($D$1:D2)/60)+SUM($C$1:C2))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D2)/60-INT(SUM($D$1:D2)/60))*60) &amp; " seg"</f>
         <v>0 hs 20 min 48 seg</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="12">
         <v>44397</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="21">
+      <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="15">
-        <v>20</v>
-      </c>
-      <c r="D3" s="15">
+      <c r="C3" s="14">
+        <v>20</v>
+      </c>
+      <c r="D3" s="14">
         <v>54</v>
       </c>
-      <c r="E3" s="12" t="str">
+      <c r="E3" s="11" t="str">
         <f>INT((INT(SUM($D$1:D3)/60)+SUM($C$1:C3))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D3)/60)+SUM($C$1:C3))/60-INT((INT(SUM($D$1:D3)/60)+SUM($C$1:C3))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D3)/60-INT(SUM($D$1:D3)/60))*60) &amp; " seg"</f>
         <v>0 hs 41 min 42 seg</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <v>44397</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="20">
+      <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>18</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>44</v>
       </c>
-      <c r="E4" s="12" t="str">
+      <c r="E4" s="11" t="str">
         <f>INT((INT(SUM($D$1:D4)/60)+SUM($C$1:C4))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D4)/60)+SUM($C$1:C4))/60-INT((INT(SUM($D$1:D4)/60)+SUM($C$1:C4))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D4)/60-INT(SUM($D$1:D4)/60))*60) &amp; " seg"</f>
         <v>1 hs 0 min 26 seg</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>44397</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="A5" s="21">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="17">
-        <v>20</v>
-      </c>
-      <c r="D5" s="17">
+      <c r="C5" s="16">
+        <v>20</v>
+      </c>
+      <c r="D5" s="16">
         <v>21</v>
       </c>
-      <c r="E5" s="18" t="str">
+      <c r="E5" s="17" t="str">
         <f>INT((INT(SUM($D$1:D5)/60)+SUM($C$1:C5))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D5)/60)+SUM($C$1:C5))/60-INT((INT(SUM($D$1:D5)/60)+SUM($C$1:C5))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D5)/60-INT(SUM($D$1:D5)/60))*60) &amp; " seg"</f>
         <v>1 hs 20 min 47 seg</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <v>44398</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="23">
+      <c r="A6" s="22">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="17">
-        <v>20</v>
-      </c>
-      <c r="D6" s="17">
+      <c r="C6" s="16">
+        <v>20</v>
+      </c>
+      <c r="D6" s="16">
         <v>8</v>
       </c>
-      <c r="E6" s="18" t="str">
+      <c r="E6" s="17" t="str">
         <f>INT((INT(SUM($D$1:D6)/60)+SUM($C$1:C6))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D6)/60)+SUM($C$1:C6))/60-INT((INT(SUM($D$1:D6)/60)+SUM($C$1:C6))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D6)/60-INT(SUM($D$1:D6)/60))*60) &amp; " seg"</f>
         <v>1 hs 40 min 55 seg</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <v>44398</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="22">
+      <c r="A7" s="21">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="17">
-        <v>20</v>
-      </c>
-      <c r="D7" s="17">
+      <c r="C7" s="16">
+        <v>20</v>
+      </c>
+      <c r="D7" s="16">
         <v>17</v>
       </c>
-      <c r="E7" s="18" t="str">
+      <c r="E7" s="17" t="str">
         <f>INT((INT(SUM($D$1:D7)/60)+SUM($C$1:C7))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D7)/60)+SUM($C$1:C7))/60-INT((INT(SUM($D$1:D7)/60)+SUM($C$1:C7))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D7)/60-INT(SUM($D$1:D7)/60))*60) &amp; " seg"</f>
         <v>2 hs 0 min 12 seg</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <v>44398</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="20">
+      <c r="A8" s="19">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="15">
-        <v>20</v>
-      </c>
-      <c r="D8" s="15">
+      <c r="C8" s="14">
+        <v>20</v>
+      </c>
+      <c r="D8" s="14">
         <v>12</v>
       </c>
-      <c r="E8" s="12" t="str">
+      <c r="E8" s="11" t="str">
         <f>INT((INT(SUM($D$1:D8)/60)+SUM($C$1:C8))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D8)/60)+SUM($C$1:C8))/60-INT((INT(SUM($D$1:D8)/60)+SUM($C$1:C8))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D8)/60-INT(SUM($D$1:D8)/60))*60) &amp; " seg"</f>
         <v>2 hs 21 min 24 seg</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <v>44399</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
+      <c r="A9" s="20">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>11</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>34</v>
       </c>
-      <c r="E9" s="12" t="str">
+      <c r="E9" s="11" t="str">
         <f>INT((INT(SUM($D$1:D9)/60)+SUM($C$1:C9))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D9)/60)+SUM($C$1:C9))/60-INT((INT(SUM($D$1:D9)/60)+SUM($C$1:C9))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D9)/60-INT(SUM($D$1:D9)/60))*60) &amp; " seg"</f>
         <v>2 hs 32 min 58 seg</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <v>44399</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="20">
+      <c r="A10" s="19">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="15">
-        <v>20</v>
-      </c>
-      <c r="D10" s="15">
+      <c r="C10" s="14">
+        <v>20</v>
+      </c>
+      <c r="D10" s="14">
         <v>7</v>
       </c>
-      <c r="E10" s="12" t="str">
+      <c r="E10" s="11" t="str">
         <f>INT((INT(SUM($D$1:D10)/60)+SUM($C$1:C10))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D10)/60)+SUM($C$1:C10))/60-INT((INT(SUM($D$1:D10)/60)+SUM($C$1:C10))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D10)/60-INT(SUM($D$1:D10)/60))*60) &amp; " seg"</f>
         <v>2 hs 53 min 4 seg</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <v>44399</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
+      <c r="A11" s="20">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="15">
-        <v>20</v>
-      </c>
-      <c r="D11" s="15">
+      <c r="C11" s="14">
+        <v>20</v>
+      </c>
+      <c r="D11" s="14">
         <v>7</v>
       </c>
-      <c r="E11" s="12" t="str">
+      <c r="E11" s="11" t="str">
         <f>INT((INT(SUM($D$1:D11)/60)+SUM($C$1:C11))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D11)/60)+SUM($C$1:C11))/60-INT((INT(SUM($D$1:D11)/60)+SUM($C$1:C11))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D11)/60-INT(SUM($D$1:D11)/60))*60) &amp; " seg"</f>
         <v>3 hs 13 min 12 seg</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <v>44399</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="20">
+      <c r="A12" s="19">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>21</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <v>33</v>
       </c>
-      <c r="E12" s="12" t="str">
+      <c r="E12" s="11" t="str">
         <f>INT((INT(SUM($D$1:D12)/60)+SUM($C$1:C12))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D12)/60)+SUM($C$1:C12))/60-INT((INT(SUM($D$1:D12)/60)+SUM($C$1:C12))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D12)/60-INT(SUM($D$1:D12)/60))*60) &amp; " seg"</f>
         <v>3 hs 34 min 45 seg</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="12">
         <v>44399</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="22">
+      <c r="A13" s="21">
         <v>12</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="16">
         <v>15</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="16">
         <v>3</v>
       </c>
-      <c r="E13" s="18" t="str">
+      <c r="E13" s="17" t="str">
         <f>INT((INT(SUM($D$1:D13)/60)+SUM($C$1:C13))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D13)/60)+SUM($C$1:C13))/60-INT((INT(SUM($D$1:D13)/60)+SUM($C$1:C13))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D13)/60-INT(SUM($D$1:D13)/60))*60) &amp; " seg"</f>
         <v>3 hs 49 min 48 seg</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="18">
         <v>44400</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
+      <c r="A14" s="22">
         <v>13</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="16">
         <v>15</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="16">
         <v>5</v>
       </c>
-      <c r="E14" s="18" t="str">
+      <c r="E14" s="17" t="str">
         <f>INT((INT(SUM($D$1:D14)/60)+SUM($C$1:C14))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D14)/60)+SUM($C$1:C14))/60-INT((INT(SUM($D$1:D14)/60)+SUM($C$1:C14))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D14)/60-INT(SUM($D$1:D14)/60))*60) &amp; " seg"</f>
         <v>4 hs 3 min 53 seg</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="18">
         <v>44400</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="22">
+      <c r="A15" s="21">
         <v>14</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="16">
         <v>18</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="16">
         <v>53</v>
       </c>
-      <c r="E15" s="18" t="str">
+      <c r="E15" s="17" t="str">
         <f>INT((INT(SUM($D$1:D15)/60)+SUM($C$1:C15))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D15)/60)+SUM($C$1:C15))/60-INT((INT(SUM($D$1:D15)/60)+SUM($C$1:C15))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D15)/60-INT(SUM($D$1:D15)/60))*60) &amp; " seg"</f>
         <v>4 hs 23 min 46 seg</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="18">
         <v>44400</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="23">
+      <c r="A16" s="22">
         <v>15</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="17">
+      <c r="B16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="16">
         <v>15</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="16">
         <v>2</v>
       </c>
-      <c r="E16" s="18" t="str">
+      <c r="E16" s="17" t="str">
         <f>INT((INT(SUM($D$1:D16)/60)+SUM($C$1:C16))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D16)/60)+SUM($C$1:C16))/60-INT((INT(SUM($D$1:D16)/60)+SUM($C$1:C16))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D16)/60-INT(SUM($D$1:D16)/60))*60) &amp; " seg"</f>
         <v>4 hs 38 min 48 seg</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="18">
         <v>44400</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+      <c r="A17" s="21">
         <v>16</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="16">
         <v>15</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="16">
         <v>8</v>
       </c>
-      <c r="E17" s="18" t="str">
+      <c r="E17" s="17" t="str">
         <f>INT((INT(SUM($D$1:D17)/60)+SUM($C$1:C17))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D17)/60)+SUM($C$1:C17))/60-INT((INT(SUM($D$1:D17)/60)+SUM($C$1:C17))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D17)/60-INT(SUM($D$1:D17)/60))*60) &amp; " seg"</f>
         <v>4 hs 53 min 56 seg</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="18">
         <v>44400</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="23">
+      <c r="A18" s="22">
         <v>17</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="16">
         <v>16</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="16">
         <v>8</v>
       </c>
-      <c r="E18" s="18" t="str">
+      <c r="E18" s="17" t="str">
         <f>INT((INT(SUM($D$1:D18)/60)+SUM($C$1:C18))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D18)/60)+SUM($C$1:C18))/60-INT((INT(SUM($D$1:D18)/60)+SUM($C$1:C18))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D18)/60-INT(SUM($D$1:D18)/60))*60) &amp; " seg"</f>
         <v>5 hs 10 min 3 seg</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="18">
         <v>44400</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="21">
+      <c r="A19" s="20">
         <v>18</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="14">
         <v>17</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="14">
         <v>4</v>
       </c>
-      <c r="E19" s="12" t="str">
+      <c r="E19" s="11" t="str">
         <f>INT((INT(SUM($D$1:D19)/60)+SUM($C$1:C19))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D19)/60)+SUM($C$1:C19))/60-INT((INT(SUM($D$1:D19)/60)+SUM($C$1:C19))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D19)/60-INT(SUM($D$1:D19)/60))*60) &amp; " seg"</f>
         <v>5 hs 27 min 8 seg</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="12">
         <v>44401</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="20">
+      <c r="A20" s="19">
         <v>19</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="14">
         <v>17</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="14">
         <v>4</v>
       </c>
-      <c r="E20" s="12" t="str">
+      <c r="E20" s="11" t="str">
         <f>INT((INT(SUM($D$1:D20)/60)+SUM($C$1:C20))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D20)/60)+SUM($C$1:C20))/60-INT((INT(SUM($D$1:D20)/60)+SUM($C$1:C20))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D20)/60-INT(SUM($D$1:D20)/60))*60) &amp; " seg"</f>
         <v>5 hs 44 min 12 seg</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <v>44401</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="14" t="s">
+      <c r="A21" s="20">
+        <v>20</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="14">
         <v>19</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="14">
         <v>11</v>
       </c>
-      <c r="E21" s="12" t="str">
+      <c r="E21" s="11" t="str">
         <f>INT((INT(SUM($D$1:D21)/60)+SUM($C$1:C21))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D21)/60)+SUM($C$1:C21))/60-INT((INT(SUM($D$1:D21)/60)+SUM($C$1:C21))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D21)/60-INT(SUM($D$1:D21)/60))*60) &amp; " seg"</f>
         <v>6 hs 2 min 23 seg</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="12">
         <v>44401</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="23">
+      <c r="A22" s="22">
         <v>21</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="17">
-        <v>20</v>
-      </c>
-      <c r="D22" s="17">
+      <c r="C22" s="16">
+        <v>20</v>
+      </c>
+      <c r="D22" s="16">
         <v>3</v>
       </c>
-      <c r="E22" s="18" t="str">
+      <c r="E22" s="17" t="str">
         <f>INT((INT(SUM($D$1:D22)/60)+SUM($C$1:C22))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D22)/60)+SUM($C$1:C22))/60-INT((INT(SUM($D$1:D22)/60)+SUM($C$1:C22))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D22)/60-INT(SUM($D$1:D22)/60))*60) &amp; " seg"</f>
         <v>6 hs 23 min 26 seg</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="18">
         <v>44402</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="22">
+      <c r="A23" s="21">
         <v>22</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="17">
-        <v>20</v>
-      </c>
-      <c r="D23" s="17">
+      <c r="C23" s="16">
+        <v>20</v>
+      </c>
+      <c r="D23" s="16">
         <v>7</v>
       </c>
-      <c r="E23" s="18" t="str">
+      <c r="E23" s="17" t="str">
         <f>INT((INT(SUM($D$1:D23)/60)+SUM($C$1:C23))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D23)/60)+SUM($C$1:C23))/60-INT((INT(SUM($D$1:D23)/60)+SUM($C$1:C23))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D23)/60-INT(SUM($D$1:D23)/60))*60) &amp; " seg"</f>
         <v>6 hs 43 min 33 seg</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="18">
         <v>44402</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
+      <c r="A24" s="22">
         <v>23</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="17">
-        <v>20</v>
-      </c>
-      <c r="D24" s="17">
+      <c r="C24" s="16">
+        <v>20</v>
+      </c>
+      <c r="D24" s="16">
         <v>3</v>
       </c>
-      <c r="E24" s="18" t="str">
+      <c r="E24" s="17" t="str">
         <f>INT((INT(SUM($D$1:D24)/60)+SUM($C$1:C24))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D24)/60)+SUM($C$1:C24))/60-INT((INT(SUM($D$1:D24)/60)+SUM($C$1:C24))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D24)/60-INT(SUM($D$1:D24)/60))*60) &amp; " seg"</f>
         <v>7 hs 2 min 36 seg</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="18">
         <v>44402</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="21">
+      <c r="A25" s="20">
         <v>24</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="14">
         <v>16</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="14">
         <v>41</v>
       </c>
-      <c r="E25" s="12" t="str">
+      <c r="E25" s="11" t="str">
         <f>INT((INT(SUM($D$1:D25)/60)+SUM($C$1:C25))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D25)/60)+SUM($C$1:C25))/60-INT((INT(SUM($D$1:D25)/60)+SUM($C$1:C25))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D25)/60-INT(SUM($D$1:D25)/60))*60) &amp; " seg"</f>
         <v>7 hs 20 min 17 seg</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="12">
         <v>44403</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="20">
+      <c r="A26" s="19">
         <v>25</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="15">
-        <v>20</v>
-      </c>
-      <c r="D26" s="15">
+      <c r="C26" s="14">
+        <v>20</v>
+      </c>
+      <c r="D26" s="14">
         <v>5</v>
       </c>
-      <c r="E26" s="12" t="str">
+      <c r="E26" s="11" t="str">
         <f>INT((INT(SUM($D$1:D26)/60)+SUM($C$1:C26))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D26)/60)+SUM($C$1:C26))/60-INT((INT(SUM($D$1:D26)/60)+SUM($C$1:C26))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D26)/60-INT(SUM($D$1:D26)/60))*60) &amp; " seg"</f>
         <v>7 hs 40 min 22 seg</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="12">
         <v>44403</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="21">
+      <c r="A27" s="20">
         <v>26</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="15">
-        <v>20</v>
-      </c>
-      <c r="D27" s="15">
+      <c r="C27" s="14">
+        <v>20</v>
+      </c>
+      <c r="D27" s="14">
         <v>5</v>
       </c>
-      <c r="E27" s="12" t="str">
+      <c r="E27" s="11" t="str">
         <f>INT((INT(SUM($D$1:D27)/60)+SUM($C$1:C27))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D27)/60)+SUM($C$1:C27))/60-INT((INT(SUM($D$1:D27)/60)+SUM($C$1:C27))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D27)/60-INT(SUM($D$1:D27)/60))*60) &amp; " seg"</f>
         <v>8 hs 0 min 27 seg</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="12">
         <v>44403</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="23">
+      <c r="A28" s="22">
         <v>27</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="17">
-        <v>20</v>
-      </c>
-      <c r="D28" s="17">
+      <c r="C28" s="16">
+        <v>20</v>
+      </c>
+      <c r="D28" s="16">
         <v>5</v>
       </c>
-      <c r="E28" s="18" t="str">
+      <c r="E28" s="17" t="str">
         <f>INT((INT(SUM($D$1:D28)/60)+SUM($C$1:C28))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D28)/60)+SUM($C$1:C28))/60-INT((INT(SUM($D$1:D28)/60)+SUM($C$1:C28))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D28)/60-INT(SUM($D$1:D28)/60))*60) &amp; " seg"</f>
         <v>8 hs 20 min 32 seg</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="18">
         <v>44404</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="22">
+      <c r="A29" s="21">
         <v>28</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="16">
         <v>16</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="16">
         <v>4</v>
       </c>
-      <c r="E29" s="18" t="str">
+      <c r="E29" s="17" t="str">
         <f>INT((INT(SUM($D$1:D29)/60)+SUM($C$1:C29))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D29)/60)+SUM($C$1:C29))/60-INT((INT(SUM($D$1:D29)/60)+SUM($C$1:C29))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D29)/60-INT(SUM($D$1:D29)/60))*60) &amp; " seg"</f>
         <v>8 hs 36 min 36 seg</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="18">
         <v>44404</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="23">
+      <c r="A30" s="22">
         <v>29</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="17">
-        <v>20</v>
-      </c>
-      <c r="D30" s="17">
+      <c r="C30" s="16">
+        <v>20</v>
+      </c>
+      <c r="D30" s="16">
         <v>6</v>
       </c>
-      <c r="E30" s="18" t="str">
+      <c r="E30" s="17" t="str">
         <f>INT((INT(SUM($D$1:D30)/60)+SUM($C$1:C30))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D30)/60)+SUM($C$1:C30))/60-INT((INT(SUM($D$1:D30)/60)+SUM($C$1:C30))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D30)/60-INT(SUM($D$1:D30)/60))*60) &amp; " seg"</f>
         <v>8 hs 56 min 42 seg</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="18">
         <v>44404</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="22">
+      <c r="A31" s="21">
         <v>30</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="17">
-        <v>20</v>
-      </c>
-      <c r="D31" s="17">
+      <c r="C31" s="16">
+        <v>20</v>
+      </c>
+      <c r="D31" s="16">
         <v>6</v>
       </c>
-      <c r="E31" s="18" t="str">
+      <c r="E31" s="17" t="str">
         <f>INT((INT(SUM($D$1:D31)/60)+SUM($C$1:C31))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D31)/60)+SUM($C$1:C31))/60-INT((INT(SUM($D$1:D31)/60)+SUM($C$1:C31))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D31)/60-INT(SUM($D$1:D31)/60))*60) &amp; " seg"</f>
         <v>9 hs 16 min 48 seg</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="18">
         <v>44404</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="20">
+      <c r="A32" s="19">
         <v>31</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="15">
-        <v>20</v>
-      </c>
-      <c r="D32" s="15">
+      <c r="C32" s="14">
+        <v>20</v>
+      </c>
+      <c r="D32" s="14">
         <v>6</v>
       </c>
-      <c r="E32" s="12" t="str">
+      <c r="E32" s="11" t="str">
         <f>INT((INT(SUM($D$1:D32)/60)+SUM($C$1:C32))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D32)/60)+SUM($C$1:C32))/60-INT((INT(SUM($D$1:D32)/60)+SUM($C$1:C32))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D32)/60-INT(SUM($D$1:D32)/60))*60) &amp; " seg"</f>
         <v>9 hs 36 min 54 seg</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="12">
         <v>44405</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="21">
+      <c r="A33" s="20">
         <v>32</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="15">
-        <v>20</v>
-      </c>
-      <c r="D33" s="15">
+      <c r="C33" s="14">
+        <v>20</v>
+      </c>
+      <c r="D33" s="14">
         <v>6</v>
       </c>
-      <c r="E33" s="12" t="str">
+      <c r="E33" s="11" t="str">
         <f>INT((INT(SUM($D$1:D33)/60)+SUM($C$1:C33))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D33)/60)+SUM($C$1:C33))/60-INT((INT(SUM($D$1:D33)/60)+SUM($C$1:C33))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D33)/60-INT(SUM($D$1:D33)/60))*60) &amp; " seg"</f>
         <v>9 hs 57 min 0 seg</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="12">
         <v>44405</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="20">
+      <c r="A34" s="19">
         <v>33</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="14">
         <v>27</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="14">
         <v>51</v>
       </c>
-      <c r="E34" s="12" t="str">
+      <c r="E34" s="11" t="str">
         <f>INT((INT(SUM($D$1:D34)/60)+SUM($C$1:C34))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D34)/60)+SUM($C$1:C34))/60-INT((INT(SUM($D$1:D34)/60)+SUM($C$1:C34))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D34)/60-INT(SUM($D$1:D34)/60))*60) &amp; " seg"</f>
         <v>10 hs 24 min 51 seg</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="12">
         <v>44405</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="22">
+      <c r="A35" s="21">
         <v>34</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="17">
-        <v>20</v>
-      </c>
-      <c r="D35" s="17">
+      <c r="C35" s="16">
+        <v>20</v>
+      </c>
+      <c r="D35" s="16">
         <v>4</v>
       </c>
-      <c r="E35" s="18" t="str">
+      <c r="E35" s="17" t="str">
         <f>INT((INT(SUM($D$1:D35)/60)+SUM($C$1:C35))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D35)/60)+SUM($C$1:C35))/60-INT((INT(SUM($D$1:D35)/60)+SUM($C$1:C35))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D35)/60-INT(SUM($D$1:D35)/60))*60) &amp; " seg"</f>
         <v>10 hs 44 min 55 seg</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="18">
         <v>44406</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="23">
+      <c r="A36" s="22">
         <v>35</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="17">
-        <v>20</v>
-      </c>
-      <c r="D36" s="17">
+      <c r="C36" s="16">
+        <v>20</v>
+      </c>
+      <c r="D36" s="16">
         <v>4</v>
       </c>
-      <c r="E36" s="18" t="str">
+      <c r="E36" s="17" t="str">
         <f>INT((INT(SUM($D$1:D36)/60)+SUM($C$1:C36))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D36)/60)+SUM($C$1:C36))/60-INT((INT(SUM($D$1:D36)/60)+SUM($C$1:C36))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D36)/60-INT(SUM($D$1:D36)/60))*60) &amp; " seg"</f>
         <v>11 hs 3 min 59 seg</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F36" s="18">
         <v>44406</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="22">
+      <c r="A37" s="21">
         <v>36</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="17">
-        <v>20</v>
-      </c>
-      <c r="D37" s="17">
+      <c r="C37" s="16">
+        <v>20</v>
+      </c>
+      <c r="D37" s="16">
         <v>4</v>
       </c>
-      <c r="E37" s="18" t="str">
+      <c r="E37" s="17" t="str">
         <f>INT((INT(SUM($D$1:D37)/60)+SUM($C$1:C37))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D37)/60)+SUM($C$1:C37))/60-INT((INT(SUM($D$1:D37)/60)+SUM($C$1:C37))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D37)/60-INT(SUM($D$1:D37)/60))*60) &amp; " seg"</f>
         <v>11 hs 25 min 3 seg</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37" s="18">
         <v>44406</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="23">
+      <c r="A38" s="22">
         <v>37</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="16">
         <v>16</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D38" s="16">
         <v>27</v>
       </c>
-      <c r="E38" s="18" t="str">
+      <c r="E38" s="17" t="str">
         <f>INT((INT(SUM($D$1:D38)/60)+SUM($C$1:C38))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D38)/60)+SUM($C$1:C38))/60-INT((INT(SUM($D$1:D38)/60)+SUM($C$1:C38))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D38)/60-INT(SUM($D$1:D38)/60))*60) &amp; " seg"</f>
         <v>11 hs 41 min 30 seg</v>
       </c>
-      <c r="F38" s="19">
+      <c r="F38" s="18">
         <v>44406</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="21">
+      <c r="A39" s="20">
         <v>38</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="15">
-        <v>20</v>
-      </c>
-      <c r="D39" s="15">
+      <c r="C39" s="14">
+        <v>20</v>
+      </c>
+      <c r="D39" s="14">
         <v>6</v>
       </c>
-      <c r="E39" s="12" t="str">
+      <c r="E39" s="11" t="str">
         <f>INT((INT(SUM($D$1:D39)/60)+SUM($C$1:C39))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D39)/60)+SUM($C$1:C39))/60-INT((INT(SUM($D$1:D39)/60)+SUM($C$1:C39))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D39)/60-INT(SUM($D$1:D39)/60))*60) &amp; " seg"</f>
         <v>12 hs 1 min 36 seg</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="12">
         <v>44407</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="20">
+      <c r="A40" s="19">
         <v>39</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="15">
-        <v>20</v>
-      </c>
-      <c r="D40" s="15">
+      <c r="C40" s="14">
+        <v>20</v>
+      </c>
+      <c r="D40" s="14">
         <v>6</v>
       </c>
-      <c r="E40" s="12" t="str">
+      <c r="E40" s="11" t="str">
         <f>INT((INT(SUM($D$1:D40)/60)+SUM($C$1:C40))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D40)/60)+SUM($C$1:C40))/60-INT((INT(SUM($D$1:D40)/60)+SUM($C$1:C40))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D40)/60-INT(SUM($D$1:D40)/60))*60) &amp; " seg"</f>
         <v>12 hs 21 min 42 seg</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="12">
         <v>44407</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="21">
+      <c r="A41" s="20">
         <v>40</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="15">
-        <v>20</v>
-      </c>
-      <c r="D41" s="15">
+      <c r="C41" s="14">
+        <v>20</v>
+      </c>
+      <c r="D41" s="14">
         <v>6</v>
       </c>
-      <c r="E41" s="12" t="str">
+      <c r="E41" s="11" t="str">
         <f>INT((INT(SUM($D$1:D41)/60)+SUM($C$1:C41))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D41)/60)+SUM($C$1:C41))/60-INT((INT(SUM($D$1:D41)/60)+SUM($C$1:C41))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D41)/60-INT(SUM($D$1:D41)/60))*60) &amp; " seg"</f>
         <v>12 hs 41 min 48 seg</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="12">
         <v>44407</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="23">
+      <c r="A42" s="22">
         <v>41</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="16">
         <v>15</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D42" s="16">
         <v>4</v>
       </c>
-      <c r="E42" s="18" t="str">
+      <c r="E42" s="17" t="str">
         <f>INT((INT(SUM($D$1:D42)/60)+SUM($C$1:C42))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D42)/60)+SUM($C$1:C42))/60-INT((INT(SUM($D$1:D42)/60)+SUM($C$1:C42))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D42)/60-INT(SUM($D$1:D42)/60))*60) &amp; " seg"</f>
         <v>12 hs 56 min 52 seg</v>
       </c>
-      <c r="F42" s="19">
+      <c r="F42" s="18">
         <v>44408</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="22">
+      <c r="A43" s="21">
         <v>42</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="16">
         <v>16</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="16">
         <v>1</v>
       </c>
-      <c r="E43" s="18" t="str">
+      <c r="E43" s="17" t="str">
         <f>INT((INT(SUM($D$1:D43)/60)+SUM($C$1:C43))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D43)/60)+SUM($C$1:C43))/60-INT((INT(SUM($D$1:D43)/60)+SUM($C$1:C43))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D43)/60-INT(SUM($D$1:D43)/60))*60) &amp; " seg"</f>
         <v>13 hs 12 min 53 seg</v>
       </c>
-      <c r="F43" s="19">
+      <c r="F43" s="18">
         <v>44408</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="23">
+      <c r="A44" s="22">
         <v>43</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="16">
         <v>13</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="16">
         <v>29</v>
       </c>
-      <c r="E44" s="18" t="str">
+      <c r="E44" s="17" t="str">
         <f>INT((INT(SUM($D$1:D44)/60)+SUM($C$1:C44))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D44)/60)+SUM($C$1:C44))/60-INT((INT(SUM($D$1:D44)/60)+SUM($C$1:C44))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D44)/60-INT(SUM($D$1:D44)/60))*60) &amp; " seg"</f>
         <v>13 hs 26 min 22 seg</v>
       </c>
-      <c r="F44" s="19">
+      <c r="F44" s="18">
         <v>44408</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="21">
+      <c r="A45" s="20">
         <v>44</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="15">
-        <v>20</v>
-      </c>
-      <c r="D45" s="15">
+      <c r="C45" s="14">
+        <v>20</v>
+      </c>
+      <c r="D45" s="14">
         <v>5</v>
       </c>
-      <c r="E45" s="12" t="str">
+      <c r="E45" s="11" t="str">
         <f>INT((INT(SUM($D$1:D45)/60)+SUM($C$1:C45))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D45)/60)+SUM($C$1:C45))/60-INT((INT(SUM($D$1:D45)/60)+SUM($C$1:C45))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D45)/60-INT(SUM($D$1:D45)/60))*60) &amp; " seg"</f>
         <v>13 hs 46 min 27 seg</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="12">
         <v>44409</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="20">
+      <c r="A46" s="19">
         <v>45</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="15">
-        <v>20</v>
-      </c>
-      <c r="D46" s="15">
+      <c r="C46" s="14">
+        <v>20</v>
+      </c>
+      <c r="D46" s="14">
         <v>10</v>
       </c>
-      <c r="E46" s="12" t="str">
+      <c r="E46" s="11" t="str">
         <f>INT((INT(SUM($D$1:D46)/60)+SUM($C$1:C46))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D46)/60)+SUM($C$1:C46))/60-INT((INT(SUM($D$1:D46)/60)+SUM($C$1:C46))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D46)/60-INT(SUM($D$1:D46)/60))*60) &amp; " seg"</f>
         <v>14 hs 5 min 37 seg</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="12">
         <v>44409</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="21">
+      <c r="A47" s="20">
         <v>46</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="15">
-        <v>20</v>
-      </c>
-      <c r="D47" s="15">
+      <c r="C47" s="14">
+        <v>20</v>
+      </c>
+      <c r="D47" s="14">
         <v>5</v>
       </c>
-      <c r="E47" s="12" t="str">
+      <c r="E47" s="11" t="str">
         <f>INT((INT(SUM($D$1:D47)/60)+SUM($C$1:C47))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D47)/60)+SUM($C$1:C47))/60-INT((INT(SUM($D$1:D47)/60)+SUM($C$1:C47))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D47)/60-INT(SUM($D$1:D47)/60))*60) &amp; " seg"</f>
         <v>14 hs 26 min 42 seg</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F47" s="12">
         <v>44409</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="23">
+      <c r="A48" s="22">
         <v>47</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="17">
-        <v>20</v>
-      </c>
-      <c r="D48" s="17">
+      <c r="C48" s="16">
+        <v>20</v>
+      </c>
+      <c r="D48" s="16">
         <v>5</v>
       </c>
-      <c r="E48" s="18" t="str">
+      <c r="E48" s="17" t="str">
         <f>INT((INT(SUM($D$1:D48)/60)+SUM($C$1:C48))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D48)/60)+SUM($C$1:C48))/60-INT((INT(SUM($D$1:D48)/60)+SUM($C$1:C48))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D48)/60-INT(SUM($D$1:D48)/60))*60) &amp; " seg"</f>
         <v>14 hs 46 min 47 seg</v>
       </c>
-      <c r="F48" s="19">
+      <c r="F48" s="18">
         <v>44410</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="22">
+      <c r="A49" s="21">
         <v>48</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="17">
+      <c r="C49" s="16">
         <v>24</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D49" s="16">
         <v>36</v>
       </c>
-      <c r="E49" s="18" t="str">
+      <c r="E49" s="17" t="str">
         <f>INT((INT(SUM($D$1:D49)/60)+SUM($C$1:C49))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D49)/60)+SUM($C$1:C49))/60-INT((INT(SUM($D$1:D49)/60)+SUM($C$1:C49))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D49)/60-INT(SUM($D$1:D49)/60))*60) &amp; " seg"</f>
         <v>15 hs 11 min 23 seg</v>
       </c>
-      <c r="F49" s="19">
+      <c r="F49" s="18">
         <v>44410</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="23">
+      <c r="A50" s="22">
         <v>49</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="17">
-        <v>20</v>
-      </c>
-      <c r="D50" s="17">
+      <c r="C50" s="16">
+        <v>20</v>
+      </c>
+      <c r="D50" s="16">
         <v>3</v>
       </c>
-      <c r="E50" s="18" t="str">
+      <c r="E50" s="17" t="str">
         <f>INT((INT(SUM($D$1:D50)/60)+SUM($C$1:C50))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D50)/60)+SUM($C$1:C50))/60-INT((INT(SUM($D$1:D50)/60)+SUM($C$1:C50))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D50)/60-INT(SUM($D$1:D50)/60))*60) &amp; " seg"</f>
         <v>15 hs 31 min 26 seg</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F50" s="18">
         <v>44410</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="21">
+      <c r="A51" s="20">
         <v>50</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="15">
-        <v>20</v>
-      </c>
-      <c r="D51" s="15">
+      <c r="C51" s="14">
+        <v>20</v>
+      </c>
+      <c r="D51" s="14">
         <v>3</v>
       </c>
-      <c r="E51" s="12" t="str">
+      <c r="E51" s="11" t="str">
         <f>INT((INT(SUM($D$1:D51)/60)+SUM($C$1:C51))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D51)/60)+SUM($C$1:C51))/60-INT((INT(SUM($D$1:D51)/60)+SUM($C$1:C51))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D51)/60-INT(SUM($D$1:D51)/60))*60) &amp; " seg"</f>
         <v>15 hs 51 min 29 seg</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F51" s="12">
         <v>44411</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="20">
+      <c r="A52" s="19">
         <v>51</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="15">
-        <v>20</v>
-      </c>
-      <c r="D52" s="15">
+      <c r="C52" s="14">
+        <v>20</v>
+      </c>
+      <c r="D52" s="14">
         <v>9</v>
       </c>
-      <c r="E52" s="12" t="str">
+      <c r="E52" s="11" t="str">
         <f>INT((INT(SUM($D$1:D52)/60)+SUM($C$1:C52))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D52)/60)+SUM($C$1:C52))/60-INT((INT(SUM($D$1:D52)/60)+SUM($C$1:C52))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D52)/60-INT(SUM($D$1:D52)/60))*60) &amp; " seg"</f>
         <v>16 hs 11 min 38 seg</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F52" s="12">
         <v>44411</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="21">
+      <c r="A53" s="20">
         <v>52</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="15">
-        <v>20</v>
-      </c>
-      <c r="D53" s="15">
+      <c r="C53" s="14">
+        <v>20</v>
+      </c>
+      <c r="D53" s="14">
         <v>9</v>
       </c>
-      <c r="E53" s="12" t="str">
+      <c r="E53" s="11" t="str">
         <f>INT((INT(SUM($D$1:D53)/60)+SUM($C$1:C53))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D53)/60)+SUM($C$1:C53))/60-INT((INT(SUM($D$1:D53)/60)+SUM($C$1:C53))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D53)/60-INT(SUM($D$1:D53)/60))*60) &amp; " seg"</f>
         <v>16 hs 30 min 47 seg</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F53" s="12">
         <v>44411</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="23">
+      <c r="A54" s="22">
         <v>53</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="17">
-        <v>20</v>
-      </c>
-      <c r="D54" s="17">
+      <c r="C54" s="16">
+        <v>20</v>
+      </c>
+      <c r="D54" s="16">
         <v>9</v>
       </c>
-      <c r="E54" s="18" t="str">
+      <c r="E54" s="17" t="str">
         <f>INT((INT(SUM($D$1:D54)/60)+SUM($C$1:C54))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D54)/60)+SUM($C$1:C54))/60-INT((INT(SUM($D$1:D54)/60)+SUM($C$1:C54))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D54)/60-INT(SUM($D$1:D54)/60))*60) &amp; " seg"</f>
         <v>16 hs 51 min 56 seg</v>
       </c>
-      <c r="F54" s="19">
+      <c r="F54" s="18">
         <v>44412</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="22">
+      <c r="A55" s="21">
         <v>54</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="17">
+      <c r="C55" s="16">
         <v>15</v>
       </c>
-      <c r="D55" s="17">
+      <c r="D55" s="16">
         <v>0</v>
       </c>
-      <c r="E55" s="18" t="str">
+      <c r="E55" s="17" t="str">
         <f>INT((INT(SUM($D$1:D55)/60)+SUM($C$1:C55))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D55)/60)+SUM($C$1:C55))/60-INT((INT(SUM($D$1:D55)/60)+SUM($C$1:C55))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D55)/60-INT(SUM($D$1:D55)/60))*60) &amp; " seg"</f>
         <v>17 hs 6 min 56 seg</v>
       </c>
-      <c r="F55" s="19">
+      <c r="F55" s="18">
         <v>44412</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="23">
+      <c r="A56" s="22">
         <v>55</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="17">
-        <v>20</v>
-      </c>
-      <c r="D56" s="17">
+      <c r="C56" s="16">
+        <v>20</v>
+      </c>
+      <c r="D56" s="16">
         <v>3</v>
       </c>
-      <c r="E56" s="18" t="str">
+      <c r="E56" s="17" t="str">
         <f>INT((INT(SUM($D$1:D56)/60)+SUM($C$1:C56))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D56)/60)+SUM($C$1:C56))/60-INT((INT(SUM($D$1:D56)/60)+SUM($C$1:C56))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D56)/60-INT(SUM($D$1:D56)/60))*60) &amp; " seg"</f>
         <v>17 hs 26 min 59 seg</v>
       </c>
-      <c r="F56" s="19">
+      <c r="F56" s="18">
         <v>44412</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="21">
+      <c r="A57" s="20">
         <v>56</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="15">
-        <v>20</v>
-      </c>
-      <c r="D57" s="15">
+      <c r="C57" s="14">
+        <v>20</v>
+      </c>
+      <c r="D57" s="14">
         <v>3</v>
       </c>
-      <c r="E57" s="12" t="str">
+      <c r="E57" s="11" t="str">
         <f>INT((INT(SUM($D$1:D57)/60)+SUM($C$1:C57))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D57)/60)+SUM($C$1:C57))/60-INT((INT(SUM($D$1:D57)/60)+SUM($C$1:C57))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D57)/60-INT(SUM($D$1:D57)/60))*60) &amp; " seg"</f>
         <v>17 hs 47 min 1 seg</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F57" s="12">
         <v>44413</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="20">
+      <c r="A58" s="19">
         <v>57</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="15">
-        <v>20</v>
-      </c>
-      <c r="D58" s="15">
+      <c r="C58" s="14">
+        <v>20</v>
+      </c>
+      <c r="D58" s="14">
         <v>7</v>
       </c>
-      <c r="E58" s="12" t="str">
+      <c r="E58" s="11" t="str">
         <f>INT((INT(SUM($D$1:D58)/60)+SUM($C$1:C58))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D58)/60)+SUM($C$1:C58))/60-INT((INT(SUM($D$1:D58)/60)+SUM($C$1:C58))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D58)/60-INT(SUM($D$1:D58)/60))*60) &amp; " seg"</f>
         <v>18 hs 7 min 9 seg</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F58" s="12">
         <v>44413</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="21">
+      <c r="A59" s="20">
         <v>58</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="15">
-        <v>20</v>
-      </c>
-      <c r="D59" s="15">
+      <c r="C59" s="14">
+        <v>20</v>
+      </c>
+      <c r="D59" s="14">
         <v>22</v>
       </c>
-      <c r="E59" s="12" t="str">
+      <c r="E59" s="11" t="str">
         <f>INT((INT(SUM($D$1:D59)/60)+SUM($C$1:C59))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D59)/60)+SUM($C$1:C59))/60-INT((INT(SUM($D$1:D59)/60)+SUM($C$1:C59))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D59)/60-INT(SUM($D$1:D59)/60))*60) &amp; " seg"</f>
         <v>18 hs 27 min 31 seg</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F59" s="12">
         <v>44413</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="20">
+      <c r="A60" s="19">
         <v>59</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="15">
-        <v>20</v>
-      </c>
-      <c r="D60" s="15">
+      <c r="C60" s="14">
+        <v>20</v>
+      </c>
+      <c r="D60" s="14">
         <v>7</v>
       </c>
-      <c r="E60" s="12" t="str">
+      <c r="E60" s="11" t="str">
         <f>INT((INT(SUM($D$1:D60)/60)+SUM($C$1:C60))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D60)/60)+SUM($C$1:C60))/60-INT((INT(SUM($D$1:D60)/60)+SUM($C$1:C60))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D60)/60-INT(SUM($D$1:D60)/60))*60) &amp; " seg"</f>
         <v>18 hs 47 min 38 seg</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F60" s="12">
         <v>44413</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="22">
+      <c r="A61" s="21">
         <v>60</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="17">
+      <c r="C61" s="16">
         <v>18</v>
       </c>
-      <c r="D61" s="17">
+      <c r="D61" s="16">
         <v>42</v>
       </c>
-      <c r="E61" s="18" t="str">
+      <c r="E61" s="17" t="str">
         <f>INT((INT(SUM($D$1:D61)/60)+SUM($C$1:C61))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D61)/60)+SUM($C$1:C61))/60-INT((INT(SUM($D$1:D61)/60)+SUM($C$1:C61))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D61)/60-INT(SUM($D$1:D61)/60))*60) &amp; " seg"</f>
         <v>19 hs 6 min 20 seg</v>
       </c>
-      <c r="F61" s="19">
+      <c r="F61" s="18">
         <v>44414</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="23">
+      <c r="A62" s="22">
         <v>61</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="17">
+      <c r="C62" s="16">
         <v>14</v>
       </c>
-      <c r="D62" s="17">
+      <c r="D62" s="16">
         <v>3</v>
       </c>
-      <c r="E62" s="18" t="str">
+      <c r="E62" s="17" t="str">
         <f>INT((INT(SUM($D$1:D62)/60)+SUM($C$1:C62))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D62)/60)+SUM($C$1:C62))/60-INT((INT(SUM($D$1:D62)/60)+SUM($C$1:C62))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D62)/60-INT(SUM($D$1:D62)/60))*60) &amp; " seg"</f>
         <v>19 hs 19 min 23 seg</v>
       </c>
-      <c r="F62" s="19">
+      <c r="F62" s="18">
         <v>44414</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="22">
+      <c r="A63" s="21">
         <v>62</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="17">
+      <c r="C63" s="16">
         <v>14</v>
       </c>
-      <c r="D63" s="17">
+      <c r="D63" s="16">
         <v>11</v>
       </c>
-      <c r="E63" s="18" t="str">
+      <c r="E63" s="17" t="str">
         <f>INT((INT(SUM($D$1:D63)/60)+SUM($C$1:C63))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D63)/60)+SUM($C$1:C63))/60-INT((INT(SUM($D$1:D63)/60)+SUM($C$1:C63))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D63)/60-INT(SUM($D$1:D63)/60))*60) &amp; " seg"</f>
         <v>19 hs 34 min 34 seg</v>
       </c>
-      <c r="F63" s="19">
+      <c r="F63" s="18">
         <v>44414</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="20">
+      <c r="A64" s="19">
         <v>63</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="15">
-        <v>20</v>
-      </c>
-      <c r="D64" s="15">
+      <c r="C64" s="14">
+        <v>20</v>
+      </c>
+      <c r="D64" s="14">
         <v>2</v>
       </c>
-      <c r="E64" s="12" t="str">
+      <c r="E64" s="11" t="str">
         <f>INT((INT(SUM($D$1:D64)/60)+SUM($C$1:C64))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D64)/60)+SUM($C$1:C64))/60-INT((INT(SUM($D$1:D64)/60)+SUM($C$1:C64))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D64)/60-INT(SUM($D$1:D64)/60))*60) &amp; " seg"</f>
         <v>19 hs 53 min 36 seg</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F64" s="12">
         <v>44416</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="21">
+      <c r="A65" s="20">
         <v>64</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="15">
-        <v>20</v>
-      </c>
-      <c r="D65" s="15">
+      <c r="C65" s="14">
+        <v>20</v>
+      </c>
+      <c r="D65" s="14">
         <v>5</v>
       </c>
-      <c r="E65" s="12" t="str">
+      <c r="E65" s="11" t="str">
         <f>INT((INT(SUM($D$1:D65)/60)+SUM($C$1:C65))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D65)/60)+SUM($C$1:C65))/60-INT((INT(SUM($D$1:D65)/60)+SUM($C$1:C65))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D65)/60-INT(SUM($D$1:D65)/60))*60) &amp; " seg"</f>
         <v>20 hs 14 min 41 seg</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F65" s="12">
         <v>44416</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="20">
+      <c r="A66" s="19">
         <v>65</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="15">
-        <v>20</v>
-      </c>
-      <c r="D66" s="15">
+      <c r="C66" s="14">
+        <v>20</v>
+      </c>
+      <c r="D66" s="14">
         <v>2</v>
       </c>
-      <c r="E66" s="12" t="str">
+      <c r="E66" s="11" t="str">
         <f>INT((INT(SUM($D$1:D66)/60)+SUM($C$1:C66))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D66)/60)+SUM($C$1:C66))/60-INT((INT(SUM($D$1:D66)/60)+SUM($C$1:C66))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D66)/60-INT(SUM($D$1:D66)/60))*60) &amp; " seg"</f>
         <v>20 hs 34 min 43 seg</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F66" s="12">
         <v>44416</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="21">
+      <c r="A67" s="20">
         <v>66</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="15">
+      <c r="C67" s="14">
         <v>10</v>
       </c>
-      <c r="D67" s="15">
+      <c r="D67" s="14">
         <v>33</v>
       </c>
-      <c r="E67" s="12" t="str">
+      <c r="E67" s="11" t="str">
         <f>INT((INT(SUM($D$1:D67)/60)+SUM($C$1:C67))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D67)/60)+SUM($C$1:C67))/60-INT((INT(SUM($D$1:D67)/60)+SUM($C$1:C67))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D67)/60-INT(SUM($D$1:D67)/60))*60) &amp; " seg"</f>
         <v>20 hs 45 min 16 seg</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F67" s="12">
         <v>44416</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="23">
+      <c r="A68" s="22">
         <v>67</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C68" s="17">
-        <v>20</v>
-      </c>
-      <c r="D68" s="17">
+      <c r="C68" s="16">
+        <v>20</v>
+      </c>
+      <c r="D68" s="16">
         <v>4</v>
       </c>
-      <c r="E68" s="18" t="str">
+      <c r="E68" s="17" t="str">
         <f>INT((INT(SUM($D$1:D68)/60)+SUM($C$1:C68))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D68)/60)+SUM($C$1:C68))/60-INT((INT(SUM($D$1:D68)/60)+SUM($C$1:C68))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D68)/60-INT(SUM($D$1:D68)/60))*60) &amp; " seg"</f>
         <v>21 hs 4 min 20 seg</v>
       </c>
-      <c r="F68" s="19">
+      <c r="F68" s="18">
         <v>44417</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="22">
+      <c r="A69" s="21">
         <v>68</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B69" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C69" s="17">
-        <v>20</v>
-      </c>
-      <c r="D69" s="17">
+      <c r="C69" s="16">
+        <v>20</v>
+      </c>
+      <c r="D69" s="16">
         <v>8</v>
       </c>
-      <c r="E69" s="18" t="str">
+      <c r="E69" s="17" t="str">
         <f>INT((INT(SUM($D$1:D69)/60)+SUM($C$1:C69))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D69)/60)+SUM($C$1:C69))/60-INT((INT(SUM($D$1:D69)/60)+SUM($C$1:C69))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D69)/60-INT(SUM($D$1:D69)/60))*60) &amp; " seg"</f>
         <v>21 hs 25 min 28 seg</v>
       </c>
-      <c r="F69" s="19">
+      <c r="F69" s="18">
         <v>44417</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="23">
+      <c r="A70" s="22">
         <v>69</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C70" s="17">
+      <c r="C70" s="16">
         <v>15</v>
       </c>
-      <c r="D70" s="17">
+      <c r="D70" s="16">
         <v>6</v>
       </c>
-      <c r="E70" s="18" t="str">
+      <c r="E70" s="17" t="str">
         <f>INT((INT(SUM($D$1:D70)/60)+SUM($C$1:C70))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D70)/60)+SUM($C$1:C70))/60-INT((INT(SUM($D$1:D70)/60)+SUM($C$1:C70))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D70)/60-INT(SUM($D$1:D70)/60))*60) &amp; " seg"</f>
         <v>21 hs 40 min 34 seg</v>
       </c>
-      <c r="F70" s="19">
+      <c r="F70" s="18">
         <v>44417</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="22">
+      <c r="A71" s="21">
         <v>70</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B71" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C71" s="17">
+      <c r="C71" s="16">
         <v>18</v>
       </c>
-      <c r="D71" s="17">
+      <c r="D71" s="16">
         <v>9</v>
       </c>
-      <c r="E71" s="18" t="str">
+      <c r="E71" s="17" t="str">
         <f>INT((INT(SUM($D$1:D71)/60)+SUM($C$1:C71))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D71)/60)+SUM($C$1:C71))/60-INT((INT(SUM($D$1:D71)/60)+SUM($C$1:C71))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D71)/60-INT(SUM($D$1:D71)/60))*60) &amp; " seg"</f>
         <v>21 hs 57 min 43 seg</v>
       </c>
-      <c r="F71" s="19">
+      <c r="F71" s="18">
         <v>44417</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="20">
+      <c r="A72" s="19">
         <v>71</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="15">
+      <c r="C72" s="14">
         <v>15</v>
       </c>
-      <c r="D72" s="15">
+      <c r="D72" s="14">
         <v>2</v>
       </c>
-      <c r="E72" s="12" t="str">
+      <c r="E72" s="11" t="str">
         <f>INT((INT(SUM($D$1:D72)/60)+SUM($C$1:C72))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D72)/60)+SUM($C$1:C72))/60-INT((INT(SUM($D$1:D72)/60)+SUM($C$1:C72))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D72)/60-INT(SUM($D$1:D72)/60))*60) &amp; " seg"</f>
         <v>22 hs 12 min 45 seg</v>
       </c>
-      <c r="F72" s="13">
+      <c r="F72" s="12">
         <v>44418</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="21">
+      <c r="A73" s="20">
         <v>72</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C73" s="15">
+      <c r="C73" s="14">
         <v>15</v>
       </c>
-      <c r="D73" s="15">
+      <c r="D73" s="14">
         <v>4</v>
       </c>
-      <c r="E73" s="12" t="str">
+      <c r="E73" s="11" t="str">
         <f>INT((INT(SUM($D$1:D73)/60)+SUM($C$1:C73))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D73)/60)+SUM($C$1:C73))/60-INT((INT(SUM($D$1:D73)/60)+SUM($C$1:C73))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D73)/60-INT(SUM($D$1:D73)/60))*60) &amp; " seg"</f>
         <v>22 hs 27 min 49 seg</v>
       </c>
-      <c r="F73" s="13">
+      <c r="F73" s="12">
         <v>44418</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="20">
+      <c r="A74" s="19">
         <v>73</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C74" s="15">
+      <c r="C74" s="14">
         <v>15</v>
       </c>
-      <c r="D74" s="15">
+      <c r="D74" s="14">
         <v>24</v>
       </c>
-      <c r="E74" s="12" t="str">
+      <c r="E74" s="11" t="str">
         <f>INT((INT(SUM($D$1:D74)/60)+SUM($C$1:C74))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D74)/60)+SUM($C$1:C74))/60-INT((INT(SUM($D$1:D74)/60)+SUM($C$1:C74))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D74)/60-INT(SUM($D$1:D74)/60))*60) &amp; " seg"</f>
         <v>22 hs 44 min 13 seg</v>
       </c>
-      <c r="F74" s="13">
+      <c r="F74" s="12">
         <v>44418</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="21">
+      <c r="A75" s="20">
         <v>74</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="15">
-        <v>20</v>
-      </c>
-      <c r="D75" s="15">
+      <c r="C75" s="14">
+        <v>20</v>
+      </c>
+      <c r="D75" s="14">
         <v>2</v>
       </c>
-      <c r="E75" s="12" t="str">
+      <c r="E75" s="11" t="str">
         <f>INT((INT(SUM($D$1:D75)/60)+SUM($C$1:C75))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D75)/60)+SUM($C$1:C75))/60-INT((INT(SUM($D$1:D75)/60)+SUM($C$1:C75))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D75)/60-INT(SUM($D$1:D75)/60))*60) &amp; " seg"</f>
         <v>23 hs 3 min 15 seg</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F75" s="12">
         <v>44418</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="20">
+      <c r="A76" s="19">
         <v>75</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C76" s="15">
+      <c r="C76" s="14">
         <v>19</v>
       </c>
-      <c r="D76" s="15">
+      <c r="D76" s="14">
         <v>41</v>
       </c>
-      <c r="E76" s="12" t="str">
+      <c r="E76" s="11" t="str">
         <f>INT((INT(SUM($D$1:D76)/60)+SUM($C$1:C76))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D76)/60)+SUM($C$1:C76))/60-INT((INT(SUM($D$1:D76)/60)+SUM($C$1:C76))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D76)/60-INT(SUM($D$1:D76)/60))*60) &amp; " seg"</f>
         <v>23 hs 23 min 56 seg</v>
       </c>
-      <c r="F76" s="13">
+      <c r="F76" s="12">
         <v>44418</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="22">
+      <c r="A77" s="21">
         <v>76</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="17">
-        <v>20</v>
-      </c>
-      <c r="D77" s="17">
+      <c r="C77" s="16">
+        <v>20</v>
+      </c>
+      <c r="D77" s="16">
         <v>2</v>
       </c>
-      <c r="E77" s="18" t="str">
+      <c r="E77" s="17" t="str">
         <f>INT((INT(SUM($D$1:D77)/60)+SUM($C$1:C77))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D77)/60)+SUM($C$1:C77))/60-INT((INT(SUM($D$1:D77)/60)+SUM($C$1:C77))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D77)/60-INT(SUM($D$1:D77)/60))*60) &amp; " seg"</f>
         <v>23 hs 42 min 58 seg</v>
       </c>
-      <c r="F77" s="19">
+      <c r="F77" s="18">
         <v>44419</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="23">
+      <c r="A78" s="22">
         <v>77</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C78" s="17">
-        <v>20</v>
-      </c>
-      <c r="D78" s="17">
+      <c r="C78" s="16">
+        <v>20</v>
+      </c>
+      <c r="D78" s="16">
         <v>8</v>
       </c>
-      <c r="E78" s="18" t="str">
+      <c r="E78" s="17" t="str">
         <f>INT((INT(SUM($D$1:D78)/60)+SUM($C$1:C78))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D78)/60)+SUM($C$1:C78))/60-INT((INT(SUM($D$1:D78)/60)+SUM($C$1:C78))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D78)/60-INT(SUM($D$1:D78)/60))*60) &amp; " seg"</f>
         <v>24 hs 3 min 6 seg</v>
       </c>
-      <c r="F78" s="19">
+      <c r="F78" s="18">
         <v>44419</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="22">
+      <c r="A79" s="21">
         <v>78</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C79" s="17">
-        <v>20</v>
-      </c>
-      <c r="D79" s="17">
+      <c r="C79" s="16">
+        <v>20</v>
+      </c>
+      <c r="D79" s="16">
         <v>8</v>
       </c>
-      <c r="E79" s="18" t="str">
+      <c r="E79" s="17" t="str">
         <f>INT((INT(SUM($D$1:D79)/60)+SUM($C$1:C79))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D79)/60)+SUM($C$1:C79))/60-INT((INT(SUM($D$1:D79)/60)+SUM($C$1:C79))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D79)/60-INT(SUM($D$1:D79)/60))*60) &amp; " seg"</f>
         <v>24 hs 23 min 14 seg</v>
       </c>
-      <c r="F79" s="19">
+      <c r="F79" s="18">
         <v>44419</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="20">
+      <c r="A80" s="19">
         <v>79</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C80" s="15">
-        <v>20</v>
-      </c>
-      <c r="D80" s="15">
+      <c r="C80" s="14">
+        <v>20</v>
+      </c>
+      <c r="D80" s="14">
         <v>8</v>
       </c>
-      <c r="E80" s="12" t="str">
+      <c r="E80" s="11" t="str">
         <f>INT((INT(SUM($D$1:D80)/60)+SUM($C$1:C80))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D80)/60)+SUM($C$1:C80))/60-INT((INT(SUM($D$1:D80)/60)+SUM($C$1:C80))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D80)/60-INT(SUM($D$1:D80)/60))*60) &amp; " seg"</f>
         <v>24 hs 44 min 22 seg</v>
       </c>
-      <c r="F80" s="13">
+      <c r="F80" s="12">
         <v>44420</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="21">
+      <c r="A81" s="20">
         <v>80</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C81" s="15">
-        <v>20</v>
-      </c>
-      <c r="D81" s="15">
+      <c r="C81" s="14">
+        <v>20</v>
+      </c>
+      <c r="D81" s="14">
         <v>8</v>
       </c>
-      <c r="E81" s="12" t="str">
+      <c r="E81" s="11" t="str">
         <f>INT((INT(SUM($D$1:D81)/60)+SUM($C$1:C81))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D81)/60)+SUM($C$1:C81))/60-INT((INT(SUM($D$1:D81)/60)+SUM($C$1:C81))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D81)/60-INT(SUM($D$1:D81)/60))*60) &amp; " seg"</f>
         <v>25 hs 3 min 30 seg</v>
       </c>
-      <c r="F81" s="13">
+      <c r="F81" s="12">
         <v>44420</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="20">
+      <c r="A82" s="19">
         <v>81</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C82" s="15">
+      <c r="C82" s="14">
         <v>17</v>
       </c>
-      <c r="D82" s="15">
+      <c r="D82" s="14">
         <v>10</v>
       </c>
-      <c r="E82" s="12" t="str">
+      <c r="E82" s="11" t="str">
         <f>INT((INT(SUM($D$1:D82)/60)+SUM($C$1:C82))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D82)/60)+SUM($C$1:C82))/60-INT((INT(SUM($D$1:D82)/60)+SUM($C$1:C82))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D82)/60-INT(SUM($D$1:D82)/60))*60) &amp; " seg"</f>
         <v>25 hs 21 min 40 seg</v>
       </c>
-      <c r="F82" s="13">
+      <c r="F82" s="12">
         <v>44420</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="21">
+      <c r="A83" s="20">
         <v>82</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C83" s="15">
+      <c r="C83" s="14">
         <v>16</v>
       </c>
-      <c r="D83" s="15">
+      <c r="D83" s="14">
         <v>4</v>
       </c>
-      <c r="E83" s="12" t="str">
+      <c r="E83" s="11" t="str">
         <f>INT((INT(SUM($D$1:D83)/60)+SUM($C$1:C83))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D83)/60)+SUM($C$1:C83))/60-INT((INT(SUM($D$1:D83)/60)+SUM($C$1:C83))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D83)/60-INT(SUM($D$1:D83)/60))*60) &amp; " seg"</f>
         <v>25 hs 37 min 44 seg</v>
       </c>
-      <c r="F83" s="13">
+      <c r="F83" s="12">
         <v>44420</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="23">
+      <c r="A84" s="22">
         <v>83</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C84" s="17">
+      <c r="C84" s="16">
         <v>19</v>
       </c>
-      <c r="D84" s="17">
-        <v>20</v>
-      </c>
-      <c r="E84" s="18" t="str">
+      <c r="D84" s="16">
+        <v>20</v>
+      </c>
+      <c r="E84" s="17" t="str">
         <f>INT((INT(SUM($D$1:D84)/60)+SUM($C$1:C84))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D84)/60)+SUM($C$1:C84))/60-INT((INT(SUM($D$1:D84)/60)+SUM($C$1:C84))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D84)/60-INT(SUM($D$1:D84)/60))*60) &amp; " seg"</f>
         <v>25 hs 57 min 3 seg</v>
       </c>
-      <c r="F84" s="19">
+      <c r="F84" s="18">
         <v>44421</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="22">
+      <c r="A85" s="21">
         <v>84</v>
       </c>
-      <c r="B85" s="16" t="s">
+      <c r="B85" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C85" s="17">
+      <c r="C85" s="16">
         <v>31</v>
       </c>
-      <c r="D85" s="17">
+      <c r="D85" s="16">
         <v>30</v>
       </c>
-      <c r="E85" s="18" t="str">
+      <c r="E85" s="17" t="str">
         <f>INT((INT(SUM($D$1:D85)/60)+SUM($C$1:C85))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D85)/60)+SUM($C$1:C85))/60-INT((INT(SUM($D$1:D85)/60)+SUM($C$1:C85))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D85)/60-INT(SUM($D$1:D85)/60))*60) &amp; " seg"</f>
         <v>26 hs 27 min 34 seg</v>
       </c>
-      <c r="F85" s="19">
+      <c r="F85" s="18">
         <v>44421</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="24">
+      <c r="A86" s="19">
         <v>85</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C86" s="9">
-        <v>20</v>
-      </c>
-      <c r="D86" s="9">
+      <c r="C86" s="14">
+        <v>20</v>
+      </c>
+      <c r="D86" s="14">
         <v>2</v>
       </c>
-      <c r="E86" s="8" t="str">
+      <c r="E86" s="11" t="str">
         <f>INT((INT(SUM($D$1:D86)/60)+SUM($C$1:C86))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D86)/60)+SUM($C$1:C86))/60-INT((INT(SUM($D$1:D86)/60)+SUM($C$1:C86))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D86)/60-INT(SUM($D$1:D86)/60))*60) &amp; " seg"</f>
         <v>26 hs 48 min 36 seg</v>
       </c>
-      <c r="F86" s="11"/>
+      <c r="F86" s="12">
+        <v>44422</v>
+      </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="4">
+      <c r="A87" s="20">
         <v>86</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C87" s="9">
-        <v>20</v>
-      </c>
-      <c r="D87" s="9">
+      <c r="C87" s="14">
+        <v>20</v>
+      </c>
+      <c r="D87" s="14">
         <v>7</v>
       </c>
-      <c r="E87" s="8" t="str">
+      <c r="E87" s="11" t="str">
         <f>INT((INT(SUM($D$1:D87)/60)+SUM($C$1:C87))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D87)/60)+SUM($C$1:C87))/60-INT((INT(SUM($D$1:D87)/60)+SUM($C$1:C87))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D87)/60-INT(SUM($D$1:D87)/60))*60) &amp; " seg"</f>
         <v>27 hs 7 min 42 seg</v>
       </c>
-      <c r="F87" s="11"/>
+      <c r="F87" s="12">
+        <v>44422</v>
+      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="24">
+      <c r="A88" s="19">
         <v>87</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C88" s="9">
+      <c r="C88" s="14">
         <v>12</v>
       </c>
-      <c r="D88" s="9">
+      <c r="D88" s="14">
         <v>48</v>
       </c>
-      <c r="E88" s="8" t="str">
+      <c r="E88" s="11" t="str">
         <f>INT((INT(SUM($D$1:D88)/60)+SUM($C$1:C88))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D88)/60)+SUM($C$1:C88))/60-INT((INT(SUM($D$1:D88)/60)+SUM($C$1:C88))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D88)/60-INT(SUM($D$1:D88)/60))*60) &amp; " seg"</f>
         <v>27 hs 21 min 30 seg</v>
       </c>
-      <c r="F88" s="4"/>
+      <c r="F88" s="12">
+        <v>44422</v>
+      </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
@@ -2739,7 +2742,7 @@
       <c r="F89" s="4"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="24">
+      <c r="A90" s="23">
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
@@ -2777,7 +2780,7 @@
       <c r="F91" s="4"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="24">
+      <c r="A92" s="23">
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
@@ -2815,7 +2818,7 @@
       <c r="F93" s="4"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="24">
+      <c r="A94" s="23">
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
@@ -2853,7 +2856,7 @@
       <c r="F95" s="4"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="24">
+      <c r="A96" s="23">
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
@@ -2891,7 +2894,7 @@
       <c r="F97" s="4"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="24">
+      <c r="A98" s="23">
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
@@ -2929,7 +2932,7 @@
       <c r="F99" s="4"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="24">
+      <c r="A100" s="23">
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -2967,7 +2970,7 @@
       <c r="F101" s="4"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="24">
+      <c r="A102" s="23">
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">

--- a/AppComercial-Videos.xlsx
+++ b/AppComercial-Videos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F1625D-5BA0-46B4-A115-04ED225DFC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D7C228-FBBF-4237-A003-758827EA1BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -861,7 +861,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F88" sqref="F88"/>
+      <selection pane="bottomLeft" activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -2723,61 +2723,67 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="4">
+      <c r="A89" s="21">
         <v>88</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C89" s="9">
-        <v>20</v>
-      </c>
-      <c r="D89" s="9">
+      <c r="C89" s="16">
+        <v>20</v>
+      </c>
+      <c r="D89" s="16">
         <v>5</v>
       </c>
-      <c r="E89" s="8" t="str">
+      <c r="E89" s="17" t="str">
         <f>INT((INT(SUM($D$1:D89)/60)+SUM($C$1:C89))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D89)/60)+SUM($C$1:C89))/60-INT((INT(SUM($D$1:D89)/60)+SUM($C$1:C89))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D89)/60-INT(SUM($D$1:D89)/60))*60) &amp; " seg"</f>
         <v>27 hs 41 min 36 seg</v>
       </c>
-      <c r="F89" s="4"/>
+      <c r="F89" s="18">
+        <v>44423</v>
+      </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="23">
+      <c r="A90" s="22">
         <v>89</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C90" s="9">
-        <v>20</v>
-      </c>
-      <c r="D90" s="9">
+      <c r="C90" s="16">
+        <v>20</v>
+      </c>
+      <c r="D90" s="16">
         <v>5</v>
       </c>
-      <c r="E90" s="8" t="str">
+      <c r="E90" s="17" t="str">
         <f>INT((INT(SUM($D$1:D90)/60)+SUM($C$1:C90))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D90)/60)+SUM($C$1:C90))/60-INT((INT(SUM($D$1:D90)/60)+SUM($C$1:C90))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D90)/60-INT(SUM($D$1:D90)/60))*60) &amp; " seg"</f>
         <v>28 hs 0 min 41 seg</v>
       </c>
-      <c r="F90" s="4"/>
+      <c r="F90" s="18">
+        <v>44423</v>
+      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="4">
+      <c r="A91" s="21">
         <v>90</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C91" s="9">
-        <v>20</v>
-      </c>
-      <c r="D91" s="9">
+      <c r="C91" s="16">
+        <v>20</v>
+      </c>
+      <c r="D91" s="16">
         <v>5</v>
       </c>
-      <c r="E91" s="8" t="str">
+      <c r="E91" s="17" t="str">
         <f>INT((INT(SUM($D$1:D91)/60)+SUM($C$1:C91))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D91)/60)+SUM($C$1:C91))/60-INT((INT(SUM($D$1:D91)/60)+SUM($C$1:C91))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D91)/60-INT(SUM($D$1:D91)/60))*60) &amp; " seg"</f>
         <v>28 hs 21 min 45 seg</v>
       </c>
-      <c r="F91" s="4"/>
+      <c r="F91" s="18">
+        <v>44423</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="23">

--- a/AppComercial-Videos.xlsx
+++ b/AppComercial-Videos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D7C228-FBBF-4237-A003-758827EA1BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87423B33-B60C-422D-877D-F396C414E409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -861,7 +861,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B95" sqref="B95"/>
+      <selection pane="bottomLeft" activeCell="M99" sqref="M99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -2786,61 +2786,67 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="23">
+      <c r="A92" s="19">
         <v>91</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C92" s="9">
+      <c r="C92" s="14">
         <v>21</v>
       </c>
-      <c r="D92" s="9">
+      <c r="D92" s="14">
         <v>0</v>
       </c>
-      <c r="E92" s="8" t="str">
+      <c r="E92" s="11" t="str">
         <f>INT((INT(SUM($D$1:D92)/60)+SUM($C$1:C92))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D92)/60)+SUM($C$1:C92))/60-INT((INT(SUM($D$1:D92)/60)+SUM($C$1:C92))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D92)/60-INT(SUM($D$1:D92)/60))*60) &amp; " seg"</f>
         <v>28 hs 42 min 45 seg</v>
       </c>
-      <c r="F92" s="4"/>
+      <c r="F92" s="12">
+        <v>44424</v>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="4">
+      <c r="A93" s="20">
         <v>92</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C93" s="9">
-        <v>20</v>
-      </c>
-      <c r="D93" s="9">
+      <c r="C93" s="14">
+        <v>20</v>
+      </c>
+      <c r="D93" s="14">
         <v>3</v>
       </c>
-      <c r="E93" s="8" t="str">
+      <c r="E93" s="11" t="str">
         <f>INT((INT(SUM($D$1:D93)/60)+SUM($C$1:C93))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D93)/60)+SUM($C$1:C93))/60-INT((INT(SUM($D$1:D93)/60)+SUM($C$1:C93))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D93)/60-INT(SUM($D$1:D93)/60))*60) &amp; " seg"</f>
         <v>29 hs 2 min 49 seg</v>
       </c>
-      <c r="F93" s="4"/>
+      <c r="F93" s="12">
+        <v>44424</v>
+      </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="23">
+      <c r="A94" s="19">
         <v>93</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C94" s="9">
-        <v>20</v>
-      </c>
-      <c r="D94" s="9">
+      <c r="C94" s="14">
+        <v>20</v>
+      </c>
+      <c r="D94" s="14">
         <v>6</v>
       </c>
-      <c r="E94" s="8" t="str">
+      <c r="E94" s="11" t="str">
         <f>INT((INT(SUM($D$1:D94)/60)+SUM($C$1:C94))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D94)/60)+SUM($C$1:C94))/60-INT((INT(SUM($D$1:D94)/60)+SUM($C$1:C94))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D94)/60-INT(SUM($D$1:D94)/60))*60) &amp; " seg"</f>
         <v>29 hs 22 min 55 seg</v>
       </c>
-      <c r="F94" s="4"/>
+      <c r="F94" s="12">
+        <v>44424</v>
+      </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="4">

--- a/AppComercial-Videos.xlsx
+++ b/AppComercial-Videos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87423B33-B60C-422D-877D-F396C414E409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A786C953-FD5C-4684-A172-50E7B8A58A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -861,7 +861,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M99" sqref="M99"/>
+      <selection pane="bottomLeft" activeCell="K94" sqref="K94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -2849,61 +2849,67 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="4">
+      <c r="A95" s="21">
         <v>94</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C95" s="9">
+      <c r="C95" s="16">
         <v>19</v>
       </c>
-      <c r="D95" s="9">
+      <c r="D95" s="16">
         <v>6</v>
       </c>
-      <c r="E95" s="8" t="str">
+      <c r="E95" s="17" t="str">
         <f>INT((INT(SUM($D$1:D95)/60)+SUM($C$1:C95))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D95)/60)+SUM($C$1:C95))/60-INT((INT(SUM($D$1:D95)/60)+SUM($C$1:C95))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D95)/60-INT(SUM($D$1:D95)/60))*60) &amp; " seg"</f>
         <v>29 hs 42 min 0 seg</v>
       </c>
-      <c r="F95" s="4"/>
+      <c r="F95" s="18">
+        <v>44425</v>
+      </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="23">
+      <c r="A96" s="22">
         <v>95</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C96" s="9">
-        <v>20</v>
-      </c>
-      <c r="D96" s="9">
+      <c r="C96" s="16">
+        <v>20</v>
+      </c>
+      <c r="D96" s="16">
         <v>4</v>
       </c>
-      <c r="E96" s="8" t="str">
+      <c r="E96" s="17" t="str">
         <f>INT((INT(SUM($D$1:D96)/60)+SUM($C$1:C96))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D96)/60)+SUM($C$1:C96))/60-INT((INT(SUM($D$1:D96)/60)+SUM($C$1:C96))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D96)/60-INT(SUM($D$1:D96)/60))*60) &amp; " seg"</f>
         <v>30 hs 2 min 4 seg</v>
       </c>
-      <c r="F96" s="4"/>
+      <c r="F96" s="18">
+        <v>44425</v>
+      </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="4">
+      <c r="A97" s="21">
         <v>96</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C97" s="9">
-        <v>20</v>
-      </c>
-      <c r="D97" s="9">
+      <c r="C97" s="16">
+        <v>20</v>
+      </c>
+      <c r="D97" s="16">
         <v>4</v>
       </c>
-      <c r="E97" s="8" t="str">
+      <c r="E97" s="17" t="str">
         <f>INT((INT(SUM($D$1:D97)/60)+SUM($C$1:C97))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D97)/60)+SUM($C$1:C97))/60-INT((INT(SUM($D$1:D97)/60)+SUM($C$1:C97))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D97)/60-INT(SUM($D$1:D97)/60))*60) &amp; " seg"</f>
         <v>30 hs 22 min 8 seg</v>
       </c>
-      <c r="F97" s="4"/>
+      <c r="F97" s="18">
+        <v>44425</v>
+      </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="23">

--- a/AppComercial-Videos.xlsx
+++ b/AppComercial-Videos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A786C953-FD5C-4684-A172-50E7B8A58A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EEF062-CF19-4FDF-AEEF-D676FC496C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -861,7 +861,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K94" sqref="K94"/>
+      <selection pane="bottomLeft" activeCell="F98" sqref="A98:F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -2912,42 +2912,46 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="23">
+      <c r="A98" s="19">
         <v>97</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C98" s="9">
-        <v>20</v>
-      </c>
-      <c r="D98" s="9">
+      <c r="C98" s="14">
+        <v>20</v>
+      </c>
+      <c r="D98" s="14">
         <v>7</v>
       </c>
-      <c r="E98" s="8" t="str">
+      <c r="E98" s="11" t="str">
         <f>INT((INT(SUM($D$1:D98)/60)+SUM($C$1:C98))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D98)/60)+SUM($C$1:C98))/60-INT((INT(SUM($D$1:D98)/60)+SUM($C$1:C98))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D98)/60-INT(SUM($D$1:D98)/60))*60) &amp; " seg"</f>
         <v>30 hs 42 min 15 seg</v>
       </c>
-      <c r="F98" s="4"/>
+      <c r="F98" s="12">
+        <v>44426</v>
+      </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="4">
+      <c r="A99" s="20">
         <v>98</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C99" s="9">
+      <c r="C99" s="14">
         <v>18</v>
       </c>
-      <c r="D99" s="9">
+      <c r="D99" s="14">
         <v>52</v>
       </c>
-      <c r="E99" s="8" t="str">
+      <c r="E99" s="11" t="str">
         <f>INT((INT(SUM($D$1:D99)/60)+SUM($C$1:C99))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D99)/60)+SUM($C$1:C99))/60-INT((INT(SUM($D$1:D99)/60)+SUM($C$1:C99))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D99)/60-INT(SUM($D$1:D99)/60))*60) &amp; " seg"</f>
         <v>31 hs 0 min 7 seg</v>
       </c>
-      <c r="F99" s="4"/>
+      <c r="F99" s="12">
+        <v>44426</v>
+      </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="23">

--- a/AppComercial-Videos.xlsx
+++ b/AppComercial-Videos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EEF062-CF19-4FDF-AEEF-D676FC496C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EC22B8-8E1E-42BB-BBBA-599883C17CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -861,7 +861,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F98" sqref="A98:F99"/>
+      <selection pane="bottomLeft" activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -2954,42 +2954,46 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="23">
+      <c r="A100" s="22">
         <v>99</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C100" s="9">
+      <c r="C100" s="16">
         <v>18</v>
       </c>
-      <c r="D100" s="9">
+      <c r="D100" s="16">
         <v>4</v>
       </c>
-      <c r="E100" s="8" t="str">
+      <c r="E100" s="17" t="str">
         <f>INT((INT(SUM($D$1:D100)/60)+SUM($C$1:C100))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D100)/60)+SUM($C$1:C100))/60-INT((INT(SUM($D$1:D100)/60)+SUM($C$1:C100))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D100)/60-INT(SUM($D$1:D100)/60))*60) &amp; " seg"</f>
         <v>31 hs 19 min 12 seg</v>
       </c>
-      <c r="F100" s="4"/>
+      <c r="F100" s="18">
+        <v>44427</v>
+      </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="4">
+      <c r="A101" s="21">
         <v>100</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C101" s="9">
+      <c r="C101" s="16">
         <v>18</v>
       </c>
-      <c r="D101" s="9">
+      <c r="D101" s="16">
         <v>32</v>
       </c>
-      <c r="E101" s="8" t="str">
+      <c r="E101" s="17" t="str">
         <f>INT((INT(SUM($D$1:D101)/60)+SUM($C$1:C101))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D101)/60)+SUM($C$1:C101))/60-INT((INT(SUM($D$1:D101)/60)+SUM($C$1:C101))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D101)/60-INT(SUM($D$1:D101)/60))*60) &amp; " seg"</f>
         <v>31 hs 37 min 44 seg</v>
       </c>
-      <c r="F101" s="4"/>
+      <c r="F101" s="18">
+        <v>44427</v>
+      </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="23">

--- a/AppComercial-Videos.xlsx
+++ b/AppComercial-Videos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EC22B8-8E1E-42BB-BBBA-599883C17CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91900AA5-B43D-41DD-87CF-F35618E73F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -861,7 +861,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B101" sqref="B101"/>
+      <selection pane="bottomLeft" activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>

--- a/AppComercial-Videos.xlsx
+++ b/AppComercial-Videos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91900AA5-B43D-41DD-87CF-F35618E73F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD9B9EC-1044-452D-8FDE-D7EB25DE0FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Nombre</t>
   </si>
@@ -113,42 +113,6 @@
     <t>Búsqueda de Proveedores Parte III</t>
   </si>
   <si>
-    <t>CRUD Producots Parte II</t>
-  </si>
-  <si>
-    <t>CRUD Producots Parte III</t>
-  </si>
-  <si>
-    <t>CRUD Producots Parte IV</t>
-  </si>
-  <si>
-    <t>CRUD Producots Parte V</t>
-  </si>
-  <si>
-    <t>CRUD Producots Parte VI</t>
-  </si>
-  <si>
-    <t>CRUD Producots Parte VII</t>
-  </si>
-  <si>
-    <t>CRUD Producots Parte VIII</t>
-  </si>
-  <si>
-    <t>CRUD Producots Parte IX</t>
-  </si>
-  <si>
-    <t>CRUD Producots Parte X</t>
-  </si>
-  <si>
-    <t>CRUD Producots Parte XI</t>
-  </si>
-  <si>
-    <t>CRUD Producots Parte XII</t>
-  </si>
-  <si>
-    <t>CRUD Producots Parte XIII</t>
-  </si>
-  <si>
     <t>CRUD Usuarios Parte I</t>
   </si>
   <si>
@@ -357,6 +321,48 @@
   </si>
   <si>
     <t>Validación de Documento Unico y CRUD Productos Parte I</t>
+  </si>
+  <si>
+    <t>Repaso</t>
+  </si>
+  <si>
+    <t>CRUD Productos Parte II</t>
+  </si>
+  <si>
+    <t>CRUD Productos Parte III</t>
+  </si>
+  <si>
+    <t>CRUD Productos Parte IV</t>
+  </si>
+  <si>
+    <t>CRUD Productos Parte V</t>
+  </si>
+  <si>
+    <t>CRUD Productos Parte VI</t>
+  </si>
+  <si>
+    <t>CRUD Productos Parte VII</t>
+  </si>
+  <si>
+    <t>CRUD Productos Parte VIII</t>
+  </si>
+  <si>
+    <t>CRUD Productos Parte IX</t>
+  </si>
+  <si>
+    <t>CRUD Productos Parte X</t>
+  </si>
+  <si>
+    <t>CRUD Productos Parte XI</t>
+  </si>
+  <si>
+    <t>CRUD Productos Parte XII</t>
+  </si>
+  <si>
+    <t>CRUD Productos Parte XIII</t>
+  </si>
+  <si>
+    <t>Día</t>
   </si>
 </sst>
 </file>
@@ -472,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -483,22 +489,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -513,13 +513,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -540,8 +540,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,9 +564,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -601,7 +604,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -707,7 +710,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -849,7 +852,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -857,25 +860,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37124253-E01A-4385-92A0-6B1F6853F919}">
-  <dimension ref="A1:F154"/>
+  <dimension ref="A1:J140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B102" sqref="B102"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="4.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="4.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="5.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="10.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="10.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -894,2557 +898,3010 @@
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="19">
+      <c r="G1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="14">
-        <v>20</v>
-      </c>
-      <c r="D2" s="14">
+      <c r="C2" s="12">
+        <v>20</v>
+      </c>
+      <c r="D2" s="12">
         <v>48</v>
       </c>
-      <c r="E2" s="10" t="str">
+      <c r="E2" s="8" t="str">
         <f>INT((INT(SUM($D$1:D2)/60)+SUM($C$1:C2))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D2)/60)+SUM($C$1:C2))/60-INT((INT(SUM($D$1:D2)/60)+SUM($C$1:C2))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D2)/60-INT(SUM($D$1:D2)/60))*60) &amp; " seg"</f>
         <v>0 hs 20 min 48 seg</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="10">
         <v>44397</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="20">
+      <c r="G2" s="10">
+        <v>45335</v>
+      </c>
+      <c r="H2" s="22">
+        <f>(SUM($C$2:C2)*60+SUM($D$2:D2))/$D$104</f>
+        <v>1.0769204217938319E-2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="14">
-        <v>20</v>
-      </c>
-      <c r="D3" s="14">
+      <c r="C3" s="12">
+        <v>20</v>
+      </c>
+      <c r="D3" s="12">
         <v>54</v>
       </c>
-      <c r="E3" s="11" t="str">
+      <c r="E3" s="9" t="str">
         <f>INT((INT(SUM($D$1:D3)/60)+SUM($C$1:C3))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D3)/60)+SUM($C$1:C3))/60-INT((INT(SUM($D$1:D3)/60)+SUM($C$1:C3))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D3)/60-INT(SUM($D$1:D3)/60))*60) &amp; " seg"</f>
         <v>0 hs 41 min 42 seg</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="10">
         <v>44397</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="19">
+      <c r="G3" s="10">
+        <v>45335</v>
+      </c>
+      <c r="H3" s="22">
+        <f>(SUM($C$2:C3)*60+SUM($D$2:D3))/$D$104</f>
+        <v>2.1590183456155185E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="12">
         <v>18</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="12">
         <v>44</v>
       </c>
-      <c r="E4" s="11" t="str">
+      <c r="E4" s="9" t="str">
         <f>INT((INT(SUM($D$1:D4)/60)+SUM($C$1:C4))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D4)/60)+SUM($C$1:C4))/60-INT((INT(SUM($D$1:D4)/60)+SUM($C$1:C4))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D4)/60-INT(SUM($D$1:D4)/60))*60) &amp; " seg"</f>
         <v>1 hs 0 min 26 seg</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="10">
         <v>44397</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
+      <c r="G4" s="10">
+        <v>45336</v>
+      </c>
+      <c r="H4" s="22">
+        <f>(SUM($C$2:C4)*60+SUM($D$2:D4))/$D$104</f>
+        <v>3.1289370588336814E-2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="19">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="16">
-        <v>20</v>
-      </c>
-      <c r="D5" s="16">
+      <c r="C5" s="14">
+        <v>20</v>
+      </c>
+      <c r="D5" s="14">
         <v>21</v>
       </c>
-      <c r="E5" s="17" t="str">
+      <c r="E5" s="15" t="str">
         <f>INT((INT(SUM($D$1:D5)/60)+SUM($C$1:C5))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D5)/60)+SUM($C$1:C5))/60-INT((INT(SUM($D$1:D5)/60)+SUM($C$1:C5))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D5)/60-INT(SUM($D$1:D5)/60))*60) &amp; " seg"</f>
         <v>1 hs 20 min 47 seg</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="16">
         <v>44398</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="22">
+      <c r="G5" s="16">
+        <v>45336</v>
+      </c>
+      <c r="H5" s="22">
+        <f>(SUM($C$2:C5)*60+SUM($D$2:D5))/$D$104</f>
+        <v>4.1825587215021658E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="16">
-        <v>20</v>
-      </c>
-      <c r="D6" s="16">
+      <c r="C6" s="14">
+        <v>20</v>
+      </c>
+      <c r="D6" s="14">
         <v>8</v>
       </c>
-      <c r="E6" s="17" t="str">
+      <c r="E6" s="15" t="str">
         <f>INT((INT(SUM($D$1:D6)/60)+SUM($C$1:C6))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D6)/60)+SUM($C$1:C6))/60-INT((INT(SUM($D$1:D6)/60)+SUM($C$1:C6))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D6)/60-INT(SUM($D$1:D6)/60))*60) &amp; " seg"</f>
         <v>1 hs 40 min 55 seg</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="16">
         <v>44398</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
+      <c r="G6" s="16">
+        <v>45336</v>
+      </c>
+      <c r="H6" s="22">
+        <f>(SUM($C$2:C6)*60+SUM($D$2:D6))/$D$104</f>
+        <v>5.2249624631102984E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="19">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="16">
-        <v>20</v>
-      </c>
-      <c r="D7" s="16">
+      <c r="C7" s="14">
+        <v>20</v>
+      </c>
+      <c r="D7" s="14">
         <v>17</v>
       </c>
-      <c r="E7" s="17" t="str">
+      <c r="E7" s="15" t="str">
         <f>INT((INT(SUM($D$1:D7)/60)+SUM($C$1:C7))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D7)/60)+SUM($C$1:C7))/60-INT((INT(SUM($D$1:D7)/60)+SUM($C$1:C7))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D7)/60-INT(SUM($D$1:D7)/60))*60) &amp; " seg"</f>
         <v>2 hs 0 min 12 seg</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="16">
         <v>44398</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="19">
+      <c r="G7" s="16">
+        <v>45336</v>
+      </c>
+      <c r="H7" s="22">
+        <f>(SUM($C$2:C7)*60+SUM($D$2:D7))/$D$104</f>
+        <v>6.275132457760213E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="14">
-        <v>20</v>
-      </c>
-      <c r="D8" s="14">
+      <c r="C8" s="12">
+        <v>20</v>
+      </c>
+      <c r="D8" s="12">
         <v>12</v>
       </c>
-      <c r="E8" s="11" t="str">
+      <c r="E8" s="9" t="str">
         <f>INT((INT(SUM($D$1:D8)/60)+SUM($C$1:C8))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D8)/60)+SUM($C$1:C8))/60-INT((INT(SUM($D$1:D8)/60)+SUM($C$1:C8))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D8)/60-INT(SUM($D$1:D8)/60))*60) &amp; " seg"</f>
         <v>2 hs 21 min 24 seg</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="10">
         <v>44399</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="20">
+      <c r="G8" s="10">
+        <v>45340</v>
+      </c>
+      <c r="H8" s="22">
+        <f>(SUM($C$2:C8)*60+SUM($D$2:D8))/$D$104</f>
+        <v>7.3209878673869147E-2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="12">
         <v>11</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <v>34</v>
       </c>
-      <c r="E9" s="11" t="str">
+      <c r="E9" s="9" t="str">
         <f>INT((INT(SUM($D$1:D9)/60)+SUM($C$1:C9))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D9)/60)+SUM($C$1:C9))/60-INT((INT(SUM($D$1:D9)/60)+SUM($C$1:C9))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D9)/60-INT(SUM($D$1:D9)/60))*60) &amp; " seg"</f>
         <v>2 hs 32 min 58 seg</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="10">
         <v>44399</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
+      <c r="G9" s="10">
+        <v>45340</v>
+      </c>
+      <c r="H9" s="22">
+        <f>(SUM($C$2:C9)*60+SUM($D$2:D9))/$D$104</f>
+        <v>7.9198522686088055E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="14">
-        <v>20</v>
-      </c>
-      <c r="D10" s="14">
+      <c r="C10" s="12">
+        <v>20</v>
+      </c>
+      <c r="D10" s="12">
         <v>7</v>
       </c>
-      <c r="E10" s="11" t="str">
+      <c r="E10" s="9" t="str">
         <f>INT((INT(SUM($D$1:D10)/60)+SUM($C$1:C10))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D10)/60)+SUM($C$1:C10))/60-INT((INT(SUM($D$1:D10)/60)+SUM($C$1:C10))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D10)/60-INT(SUM($D$1:D10)/60))*60) &amp; " seg"</f>
         <v>2 hs 53 min 4 seg</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="10">
         <v>44399</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="20">
+      <c r="G10" s="10">
+        <v>45340</v>
+      </c>
+      <c r="H10" s="22">
+        <f>(SUM($C$2:C10)*60+SUM($D$2:D10))/$D$104</f>
+        <v>8.9613930932122943E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="14">
-        <v>20</v>
-      </c>
-      <c r="D11" s="14">
+      <c r="C11" s="12">
+        <v>20</v>
+      </c>
+      <c r="D11" s="12">
         <v>7</v>
       </c>
-      <c r="E11" s="11" t="str">
+      <c r="E11" s="9" t="str">
         <f>INT((INT(SUM($D$1:D11)/60)+SUM($C$1:C11))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D11)/60)+SUM($C$1:C11))/60-INT((INT(SUM($D$1:D11)/60)+SUM($C$1:C11))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D11)/60-INT(SUM($D$1:D11)/60))*60) &amp; " seg"</f>
         <v>3 hs 13 min 12 seg</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="10">
         <v>44399</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="19">
+      <c r="G11" s="10">
+        <v>45340</v>
+      </c>
+      <c r="H11" s="22">
+        <f>(SUM($C$2:C11)*60+SUM($D$2:D11))/$D$104</f>
+        <v>0.10002933917815784</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="12">
         <v>21</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
         <v>33</v>
       </c>
-      <c r="E12" s="11" t="str">
+      <c r="E12" s="9" t="str">
         <f>INT((INT(SUM($D$1:D12)/60)+SUM($C$1:C12))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D12)/60)+SUM($C$1:C12))/60-INT((INT(SUM($D$1:D12)/60)+SUM($C$1:C12))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D12)/60-INT(SUM($D$1:D12)/60))*60) &amp; " seg"</f>
         <v>3 hs 34 min 45 seg</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="10">
         <v>44399</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
+      <c r="G12" s="10">
+        <v>45340</v>
+      </c>
+      <c r="H12" s="22">
+        <f>(SUM($C$2:C12)*60+SUM($D$2:D12))/$D$104</f>
+        <v>0.11118685604818529</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="19">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="14">
         <v>15</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="14">
         <v>3</v>
       </c>
-      <c r="E13" s="17" t="str">
+      <c r="E13" s="15" t="str">
         <f>INT((INT(SUM($D$1:D13)/60)+SUM($C$1:C13))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D13)/60)+SUM($C$1:C13))/60-INT((INT(SUM($D$1:D13)/60)+SUM($C$1:C13))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D13)/60-INT(SUM($D$1:D13)/60))*60) &amp; " seg"</f>
         <v>3 hs 49 min 48 seg</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="16">
         <v>44400</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="G13" s="16">
+        <v>45341</v>
+      </c>
+      <c r="H13" s="22">
+        <f>(SUM($C$2:C13)*60+SUM($D$2:D13))/$D$104</f>
+        <v>0.118978996600107</v>
+      </c>
+      <c r="J13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="20">
         <v>13</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="14">
         <v>15</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="14">
         <v>5</v>
       </c>
-      <c r="E14" s="17" t="str">
+      <c r="E14" s="15" t="str">
         <f>INT((INT(SUM($D$1:D14)/60)+SUM($C$1:C14))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D14)/60)+SUM($C$1:C14))/60-INT((INT(SUM($D$1:D14)/60)+SUM($C$1:C14))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D14)/60-INT(SUM($D$1:D14)/60))*60) &amp; " seg"</f>
         <v>4 hs 3 min 53 seg</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="16">
         <v>44400</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
+      <c r="G14" s="16">
+        <v>45341</v>
+      </c>
+      <c r="H14" s="22">
+        <f>(SUM($C$2:C14)*60+SUM($D$2:D14))/$D$104</f>
+        <v>0.12678839549212156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="19">
         <v>14</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="14">
         <v>18</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="14">
         <v>53</v>
       </c>
-      <c r="E15" s="17" t="str">
+      <c r="E15" s="15" t="str">
         <f>INT((INT(SUM($D$1:D15)/60)+SUM($C$1:C15))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D15)/60)+SUM($C$1:C15))/60-INT((INT(SUM($D$1:D15)/60)+SUM($C$1:C15))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D15)/60-INT(SUM($D$1:D15)/60))*60) &amp; " seg"</f>
         <v>4 hs 23 min 46 seg</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="16">
         <v>44400</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="22">
+      <c r="G15" s="16">
+        <v>45341</v>
+      </c>
+      <c r="H15" s="22">
+        <f>(SUM($C$2:C15)*60+SUM($D$2:D15))/$D$104</f>
+        <v>0.13656524515472102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="20">
         <v>15</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="16">
+      <c r="B16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="14">
         <v>15</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="14">
         <v>2</v>
       </c>
-      <c r="E16" s="17" t="str">
+      <c r="E16" s="15" t="str">
         <f>INT((INT(SUM($D$1:D16)/60)+SUM($C$1:C16))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D16)/60)+SUM($C$1:C16))/60-INT((INT(SUM($D$1:D16)/60)+SUM($C$1:C16))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D16)/60-INT(SUM($D$1:D16)/60))*60) &amp; " seg"</f>
         <v>4 hs 38 min 48 seg</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="16">
         <v>44400</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="21">
+      <c r="G16" s="16">
+        <v>45341</v>
+      </c>
+      <c r="H16" s="22">
+        <f>(SUM($C$2:C16)*60+SUM($D$2:D16))/$D$104</f>
+        <v>0.14434875653659632</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="19">
         <v>16</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="14">
         <v>15</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="14">
         <v>8</v>
       </c>
-      <c r="E17" s="17" t="str">
+      <c r="E17" s="15" t="str">
         <f>INT((INT(SUM($D$1:D17)/60)+SUM($C$1:C17))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D17)/60)+SUM($C$1:C17))/60-INT((INT(SUM($D$1:D17)/60)+SUM($C$1:C17))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D17)/60-INT(SUM($D$1:D17)/60))*60) &amp; " seg"</f>
         <v>4 hs 53 min 56 seg</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="16">
         <v>44400</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="22">
+      <c r="G17" s="16">
+        <v>45341</v>
+      </c>
+      <c r="H17" s="22">
+        <f>(SUM($C$2:C17)*60+SUM($D$2:D17))/$D$104</f>
+        <v>0.15218404293875015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="20">
         <v>17</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="14">
         <v>16</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="14">
         <v>8</v>
       </c>
-      <c r="E18" s="17" t="str">
+      <c r="E18" s="15" t="str">
         <f>INT((INT(SUM($D$1:D18)/60)+SUM($C$1:C18))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D18)/60)+SUM($C$1:C18))/60-INT((INT(SUM($D$1:D18)/60)+SUM($C$1:C18))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D18)/60-INT(SUM($D$1:D18)/60))*60) &amp; " seg"</f>
         <v>5 hs 10 min 3 seg</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="16">
         <v>44400</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="20">
+      <c r="G18" s="16">
+        <v>45341</v>
+      </c>
+      <c r="H18" s="22">
+        <f>(SUM($C$2:C18)*60+SUM($D$2:D18))/$D$104</f>
+        <v>0.16053707954368948</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="18">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="12">
         <v>17</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="12">
         <v>4</v>
       </c>
-      <c r="E19" s="11" t="str">
+      <c r="E19" s="9" t="str">
         <f>INT((INT(SUM($D$1:D19)/60)+SUM($C$1:C19))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D19)/60)+SUM($C$1:C19))/60-INT((INT(SUM($D$1:D19)/60)+SUM($C$1:C19))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D19)/60-INT(SUM($D$1:D19)/60))*60) &amp; " seg"</f>
         <v>5 hs 27 min 8 seg</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="10">
         <v>44401</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="19">
+      <c r="G19" s="10">
+        <v>45342</v>
+      </c>
+      <c r="H19" s="22">
+        <f>(SUM($C$2:C19)*60+SUM($D$2:D19))/$D$104</f>
+        <v>0.16937334967122863</v>
+      </c>
+      <c r="J19" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="17">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="12">
         <v>17</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="12">
         <v>4</v>
       </c>
-      <c r="E20" s="11" t="str">
+      <c r="E20" s="9" t="str">
         <f>INT((INT(SUM($D$1:D20)/60)+SUM($C$1:C20))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D20)/60)+SUM($C$1:C20))/60-INT((INT(SUM($D$1:D20)/60)+SUM($C$1:C20))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D20)/60-INT(SUM($D$1:D20)/60))*60) &amp; " seg"</f>
         <v>5 hs 44 min 12 seg</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="10">
         <v>44401</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="20">
-        <v>20</v>
-      </c>
-      <c r="B21" s="13" t="s">
+      <c r="G20" s="10">
+        <v>45342</v>
+      </c>
+      <c r="H20" s="22">
+        <f>(SUM($C$2:C20)*60+SUM($D$2:D20))/$D$104</f>
+        <v>0.17820961979876776</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="18">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="12">
         <v>19</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="12">
         <v>11</v>
       </c>
-      <c r="E21" s="11" t="str">
+      <c r="E21" s="9" t="str">
         <f>INT((INT(SUM($D$1:D21)/60)+SUM($C$1:C21))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D21)/60)+SUM($C$1:C21))/60-INT((INT(SUM($D$1:D21)/60)+SUM($C$1:C21))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D21)/60-INT(SUM($D$1:D21)/60))*60) &amp; " seg"</f>
         <v>6 hs 2 min 23 seg</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="10">
         <v>44401</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
+      <c r="G21" s="10">
+        <v>45342</v>
+      </c>
+      <c r="H21" s="22">
+        <f>(SUM($C$2:C21)*60+SUM($D$2:D21))/$D$104</f>
+        <v>0.18814179452220287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="20">
         <v>21</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="16">
-        <v>20</v>
-      </c>
-      <c r="D22" s="16">
+      <c r="B22" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="14">
+        <v>20</v>
+      </c>
+      <c r="D22" s="14">
         <v>3</v>
       </c>
-      <c r="E22" s="17" t="str">
+      <c r="E22" s="15" t="str">
         <f>INT((INT(SUM($D$1:D22)/60)+SUM($C$1:C22))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D22)/60)+SUM($C$1:C22))/60-INT((INT(SUM($D$1:D22)/60)+SUM($C$1:C22))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D22)/60-INT(SUM($D$1:D22)/60))*60) &amp; " seg"</f>
         <v>6 hs 23 min 26 seg</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="16">
         <v>44402</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="21">
+      <c r="G22" s="16">
+        <v>45342</v>
+      </c>
+      <c r="H22" s="22">
+        <f>(SUM($C$2:C22)*60+SUM($D$2:D22))/$D$104</f>
+        <v>0.19852268608805204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="19">
         <v>22</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="16">
-        <v>20</v>
-      </c>
-      <c r="D23" s="16">
+      <c r="B23" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="14">
+        <v>20</v>
+      </c>
+      <c r="D23" s="14">
         <v>7</v>
       </c>
-      <c r="E23" s="17" t="str">
+      <c r="E23" s="15" t="str">
         <f>INT((INT(SUM($D$1:D23)/60)+SUM($C$1:C23))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D23)/60)+SUM($C$1:C23))/60-INT((INT(SUM($D$1:D23)/60)+SUM($C$1:C23))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D23)/60-INT(SUM($D$1:D23)/60))*60) &amp; " seg"</f>
         <v>6 hs 43 min 33 seg</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="16">
         <v>44402</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
+      <c r="G23" s="16">
+        <v>45342</v>
+      </c>
+      <c r="H23" s="22">
+        <f>(SUM($C$2:C23)*60+SUM($D$2:D23))/$D$104</f>
+        <v>0.20893809433408694</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="20">
         <v>23</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="16">
-        <v>20</v>
-      </c>
-      <c r="D24" s="16">
+      <c r="B24" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="14">
+        <v>20</v>
+      </c>
+      <c r="D24" s="14">
         <v>3</v>
       </c>
-      <c r="E24" s="17" t="str">
+      <c r="E24" s="15" t="str">
         <f>INT((INT(SUM($D$1:D24)/60)+SUM($C$1:C24))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D24)/60)+SUM($C$1:C24))/60-INT((INT(SUM($D$1:D24)/60)+SUM($C$1:C24))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D24)/60-INT(SUM($D$1:D24)/60))*60) &amp; " seg"</f>
         <v>7 hs 2 min 36 seg</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="16">
         <v>44402</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="20">
+      <c r="G24" s="16">
+        <v>45342</v>
+      </c>
+      <c r="H24" s="22">
+        <f>(SUM($C$2:C24)*60+SUM($D$2:D24))/$D$104</f>
+        <v>0.21931898589993615</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="18">
         <v>24</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="14">
+      <c r="B25" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="12">
         <v>16</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="12">
         <v>41</v>
       </c>
-      <c r="E25" s="11" t="str">
+      <c r="E25" s="9" t="str">
         <f>INT((INT(SUM($D$1:D25)/60)+SUM($C$1:C25))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D25)/60)+SUM($C$1:C25))/60-INT((INT(SUM($D$1:D25)/60)+SUM($C$1:C25))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D25)/60-INT(SUM($D$1:D25)/60))*60) &amp; " seg"</f>
         <v>7 hs 20 min 17 seg</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="10">
         <v>44403</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="19">
+      <c r="G25" s="10">
+        <v>45342</v>
+      </c>
+      <c r="H25" s="22">
+        <f>(SUM($C$2:C25)*60+SUM($D$2:D25))/$D$104</f>
+        <v>0.22795678511640752</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="17">
         <v>25</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="14">
-        <v>20</v>
-      </c>
-      <c r="D26" s="14">
+      <c r="B26" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="12">
+        <v>20</v>
+      </c>
+      <c r="D26" s="12">
         <v>5</v>
       </c>
-      <c r="E26" s="11" t="str">
+      <c r="E26" s="9" t="str">
         <f>INT((INT(SUM($D$1:D26)/60)+SUM($C$1:C26))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D26)/60)+SUM($C$1:C26))/60-INT((INT(SUM($D$1:D26)/60)+SUM($C$1:C26))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D26)/60-INT(SUM($D$1:D26)/60))*60) &amp; " seg"</f>
         <v>7 hs 40 min 22 seg</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="10">
         <v>44403</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="20">
+      <c r="G26" s="10">
+        <v>45343</v>
+      </c>
+      <c r="H26" s="22">
+        <f>(SUM($C$2:C26)*60+SUM($D$2:D26))/$D$104</f>
+        <v>0.23835493502234956</v>
+      </c>
+      <c r="J26" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="18">
         <v>26</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="14">
-        <v>20</v>
-      </c>
-      <c r="D27" s="14">
+      <c r="B27" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="12">
+        <v>20</v>
+      </c>
+      <c r="D27" s="12">
         <v>5</v>
       </c>
-      <c r="E27" s="11" t="str">
+      <c r="E27" s="9" t="str">
         <f>INT((INT(SUM($D$1:D27)/60)+SUM($C$1:C27))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D27)/60)+SUM($C$1:C27))/60-INT((INT(SUM($D$1:D27)/60)+SUM($C$1:C27))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D27)/60-INT(SUM($D$1:D27)/60))*60) &amp; " seg"</f>
         <v>8 hs 0 min 27 seg</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="10">
         <v>44403</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="22">
+      <c r="G27" s="10">
+        <v>45343</v>
+      </c>
+      <c r="H27" s="22">
+        <f>(SUM($C$2:C27)*60+SUM($D$2:D27))/$D$104</f>
+        <v>0.2487530849282916</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="20">
         <v>27</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="16">
-        <v>20</v>
-      </c>
-      <c r="D28" s="16">
+      <c r="B28" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="14">
+        <v>20</v>
+      </c>
+      <c r="D28" s="14">
         <v>5</v>
       </c>
-      <c r="E28" s="17" t="str">
+      <c r="E28" s="15" t="str">
         <f>INT((INT(SUM($D$1:D28)/60)+SUM($C$1:C28))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D28)/60)+SUM($C$1:C28))/60-INT((INT(SUM($D$1:D28)/60)+SUM($C$1:C28))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D28)/60-INT(SUM($D$1:D28)/60))*60) &amp; " seg"</f>
         <v>8 hs 20 min 32 seg</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="16">
         <v>44404</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="21">
+      <c r="G28" s="16">
+        <v>45343</v>
+      </c>
+      <c r="H28" s="22">
+        <f>(SUM($C$2:C28)*60+SUM($D$2:D28))/$D$104</f>
+        <v>0.25915123483423363</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="19">
         <v>28</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="16">
+      <c r="B29" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="14">
         <v>16</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="14">
         <v>4</v>
       </c>
-      <c r="E29" s="17" t="str">
+      <c r="E29" s="15" t="str">
         <f>INT((INT(SUM($D$1:D29)/60)+SUM($C$1:C29))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D29)/60)+SUM($C$1:C29))/60-INT((INT(SUM($D$1:D29)/60)+SUM($C$1:C29))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D29)/60-INT(SUM($D$1:D29)/60))*60) &amp; " seg"</f>
         <v>8 hs 36 min 36 seg</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="16">
         <v>44404</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="22">
+      <c r="G29" s="16">
+        <v>45343</v>
+      </c>
+      <c r="H29" s="22">
+        <f>(SUM($C$2:C29)*60+SUM($D$2:D29))/$D$104</f>
+        <v>0.26746975475898727</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="20">
         <v>29</v>
       </c>
-      <c r="B30" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="16">
-        <v>20</v>
-      </c>
-      <c r="D30" s="16">
+      <c r="B30" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="14">
+        <v>20</v>
+      </c>
+      <c r="D30" s="14">
         <v>6</v>
       </c>
-      <c r="E30" s="17" t="str">
+      <c r="E30" s="15" t="str">
         <f>INT((INT(SUM($D$1:D30)/60)+SUM($C$1:C30))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D30)/60)+SUM($C$1:C30))/60-INT((INT(SUM($D$1:D30)/60)+SUM($C$1:C30))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D30)/60-INT(SUM($D$1:D30)/60))*60) &amp; " seg"</f>
         <v>8 hs 56 min 42 seg</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="16">
         <v>44404</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="21">
+      <c r="G30" s="16">
+        <v>45343</v>
+      </c>
+      <c r="H30" s="22">
+        <f>(SUM($C$2:C30)*60+SUM($D$2:D30))/$D$104</f>
+        <v>0.27787653383497574</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="19">
         <v>30</v>
       </c>
-      <c r="B31" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="16">
-        <v>20</v>
-      </c>
-      <c r="D31" s="16">
+      <c r="B31" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="14">
+        <v>20</v>
+      </c>
+      <c r="D31" s="14">
         <v>6</v>
       </c>
-      <c r="E31" s="17" t="str">
+      <c r="E31" s="15" t="str">
         <f>INT((INT(SUM($D$1:D31)/60)+SUM($C$1:C31))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D31)/60)+SUM($C$1:C31))/60-INT((INT(SUM($D$1:D31)/60)+SUM($C$1:C31))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D31)/60-INT(SUM($D$1:D31)/60))*60) &amp; " seg"</f>
         <v>9 hs 16 min 48 seg</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="16">
         <v>44404</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="19">
+      <c r="G31" s="16">
+        <v>45343</v>
+      </c>
+      <c r="H31" s="22">
+        <f>(SUM($C$2:C31)*60+SUM($D$2:D31))/$D$104</f>
+        <v>0.28828331291096421</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="17">
         <v>31</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="14">
-        <v>20</v>
-      </c>
-      <c r="D32" s="14">
+      <c r="B32" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="12">
+        <v>20</v>
+      </c>
+      <c r="D32" s="12">
         <v>6</v>
       </c>
-      <c r="E32" s="11" t="str">
+      <c r="E32" s="9" t="str">
         <f>INT((INT(SUM($D$1:D32)/60)+SUM($C$1:C32))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D32)/60)+SUM($C$1:C32))/60-INT((INT(SUM($D$1:D32)/60)+SUM($C$1:C32))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D32)/60-INT(SUM($D$1:D32)/60))*60) &amp; " seg"</f>
         <v>9 hs 36 min 54 seg</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="10">
         <v>44405</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="20">
+      <c r="G32" s="10">
+        <v>45343</v>
+      </c>
+      <c r="H32" s="22">
+        <f>(SUM($C$2:C32)*60+SUM($D$2:D32))/$D$104</f>
+        <v>0.29869009198695268</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="18">
         <v>32</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="14">
-        <v>20</v>
-      </c>
-      <c r="D33" s="14">
+      <c r="B33" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="12">
+        <v>20</v>
+      </c>
+      <c r="D33" s="12">
         <v>6</v>
       </c>
-      <c r="E33" s="11" t="str">
+      <c r="E33" s="9" t="str">
         <f>INT((INT(SUM($D$1:D33)/60)+SUM($C$1:C33))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D33)/60)+SUM($C$1:C33))/60-INT((INT(SUM($D$1:D33)/60)+SUM($C$1:C33))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D33)/60-INT(SUM($D$1:D33)/60))*60) &amp; " seg"</f>
         <v>9 hs 57 min 0 seg</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="10">
         <v>44405</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="19">
+      <c r="G33" s="10">
+        <v>45343</v>
+      </c>
+      <c r="H33" s="22">
+        <f>(SUM($C$2:C33)*60+SUM($D$2:D33))/$D$104</f>
+        <v>0.30909687106294115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="17">
         <v>33</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="14">
+      <c r="B34" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="12">
         <v>27</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="12">
         <v>51</v>
       </c>
-      <c r="E34" s="11" t="str">
+      <c r="E34" s="9" t="str">
         <f>INT((INT(SUM($D$1:D34)/60)+SUM($C$1:C34))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D34)/60)+SUM($C$1:C34))/60-INT((INT(SUM($D$1:D34)/60)+SUM($C$1:C34))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D34)/60-INT(SUM($D$1:D34)/60))*60) &amp; " seg"</f>
         <v>10 hs 24 min 51 seg</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="10">
         <v>44405</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="21">
+      <c r="G34" s="10">
+        <v>45343</v>
+      </c>
+      <c r="H34" s="22">
+        <f>(SUM($C$2:C34)*60+SUM($D$2:D34))/$D$104</f>
+        <v>0.32351621421051724</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="19">
         <v>34</v>
       </c>
-      <c r="B35" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="16">
-        <v>20</v>
-      </c>
-      <c r="D35" s="16">
+      <c r="B35" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="14">
+        <v>20</v>
+      </c>
+      <c r="D35" s="14">
         <v>4</v>
       </c>
-      <c r="E35" s="17" t="str">
+      <c r="E35" s="15" t="str">
         <f>INT((INT(SUM($D$1:D35)/60)+SUM($C$1:C35))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D35)/60)+SUM($C$1:C35))/60-INT((INT(SUM($D$1:D35)/60)+SUM($C$1:C35))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D35)/60-INT(SUM($D$1:D35)/60))*60) &amp; " seg"</f>
         <v>10 hs 44 min 55 seg</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="16">
         <v>44406</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="22">
+      <c r="G35" s="16">
+        <v>45346</v>
+      </c>
+      <c r="H35" s="22">
+        <f>(SUM($C$2:C35)*60+SUM($D$2:D35))/$D$104</f>
+        <v>0.33390573494641285</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="20">
         <v>35</v>
       </c>
-      <c r="B36" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="16">
-        <v>20</v>
-      </c>
-      <c r="D36" s="16">
+      <c r="B36" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="14">
+        <v>20</v>
+      </c>
+      <c r="D36" s="14">
         <v>4</v>
       </c>
-      <c r="E36" s="17" t="str">
+      <c r="E36" s="15" t="str">
         <f>INT((INT(SUM($D$1:D36)/60)+SUM($C$1:C36))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D36)/60)+SUM($C$1:C36))/60-INT((INT(SUM($D$1:D36)/60)+SUM($C$1:C36))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D36)/60-INT(SUM($D$1:D36)/60))*60) &amp; " seg"</f>
         <v>11 hs 3 min 59 seg</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="16">
         <v>44406</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="21">
+      <c r="G36" s="16">
+        <v>45346</v>
+      </c>
+      <c r="H36" s="22">
+        <f>(SUM($C$2:C36)*60+SUM($D$2:D36))/$D$104</f>
+        <v>0.34429525568230845</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="19">
         <v>36</v>
       </c>
-      <c r="B37" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="16">
-        <v>20</v>
-      </c>
-      <c r="D37" s="16">
+      <c r="B37" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="14">
+        <v>20</v>
+      </c>
+      <c r="D37" s="14">
         <v>4</v>
       </c>
-      <c r="E37" s="17" t="str">
+      <c r="E37" s="15" t="str">
         <f>INT((INT(SUM($D$1:D37)/60)+SUM($C$1:C37))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D37)/60)+SUM($C$1:C37))/60-INT((INT(SUM($D$1:D37)/60)+SUM($C$1:C37))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D37)/60-INT(SUM($D$1:D37)/60))*60) &amp; " seg"</f>
         <v>11 hs 25 min 3 seg</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="16">
         <v>44406</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="22">
+      <c r="G37" s="16">
+        <v>45346</v>
+      </c>
+      <c r="H37" s="22">
+        <f>(SUM($C$2:C37)*60+SUM($D$2:D37))/$D$104</f>
+        <v>0.35468477641820412</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="20">
         <v>37</v>
       </c>
-      <c r="B38" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="16">
+      <c r="B38" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="14">
         <v>16</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="14">
         <v>27</v>
       </c>
-      <c r="E38" s="17" t="str">
+      <c r="E38" s="15" t="str">
         <f>INT((INT(SUM($D$1:D38)/60)+SUM($C$1:C38))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D38)/60)+SUM($C$1:C38))/60-INT((INT(SUM($D$1:D38)/60)+SUM($C$1:C38))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D38)/60-INT(SUM($D$1:D38)/60))*60) &amp; " seg"</f>
         <v>11 hs 41 min 30 seg</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="16">
         <v>44406</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="20">
+      <c r="G38" s="16">
+        <v>45347</v>
+      </c>
+      <c r="H38" s="22">
+        <f>(SUM($C$2:C38)*60+SUM($D$2:D38))/$D$104</f>
+        <v>0.36320176725402553</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="18">
         <v>38</v>
       </c>
-      <c r="B39" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="14">
-        <v>20</v>
-      </c>
-      <c r="D39" s="14">
+      <c r="B39" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="12">
+        <v>20</v>
+      </c>
+      <c r="D39" s="12">
         <v>6</v>
       </c>
-      <c r="E39" s="11" t="str">
+      <c r="E39" s="9" t="str">
         <f>INT((INT(SUM($D$1:D39)/60)+SUM($C$1:C39))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D39)/60)+SUM($C$1:C39))/60-INT((INT(SUM($D$1:D39)/60)+SUM($C$1:C39))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D39)/60-INT(SUM($D$1:D39)/60))*60) &amp; " seg"</f>
         <v>12 hs 1 min 36 seg</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F39" s="10">
         <v>44407</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="19">
+      <c r="G39" s="10">
+        <v>45347</v>
+      </c>
+      <c r="H39" s="22">
+        <f>(SUM($C$2:C39)*60+SUM($D$2:D39))/$D$104</f>
+        <v>0.373608546330014</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="17">
         <v>39</v>
       </c>
-      <c r="B40" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="14">
-        <v>20</v>
-      </c>
-      <c r="D40" s="14">
+      <c r="B40" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="12">
+        <v>20</v>
+      </c>
+      <c r="D40" s="12">
         <v>6</v>
       </c>
-      <c r="E40" s="11" t="str">
+      <c r="E40" s="9" t="str">
         <f>INT((INT(SUM($D$1:D40)/60)+SUM($C$1:C40))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D40)/60)+SUM($C$1:C40))/60-INT((INT(SUM($D$1:D40)/60)+SUM($C$1:C40))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D40)/60-INT(SUM($D$1:D40)/60))*60) &amp; " seg"</f>
         <v>12 hs 21 min 42 seg</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="10">
         <v>44407</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="20">
+      <c r="G40" s="10">
+        <v>45347</v>
+      </c>
+      <c r="H40" s="22">
+        <f>(SUM($C$2:C40)*60+SUM($D$2:D40))/$D$104</f>
+        <v>0.38401532540600247</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="18">
         <v>40</v>
       </c>
-      <c r="B41" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="14">
-        <v>20</v>
-      </c>
-      <c r="D41" s="14">
+      <c r="B41" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="12">
+        <v>20</v>
+      </c>
+      <c r="D41" s="12">
         <v>6</v>
       </c>
-      <c r="E41" s="11" t="str">
+      <c r="E41" s="9" t="str">
         <f>INT((INT(SUM($D$1:D41)/60)+SUM($C$1:C41))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D41)/60)+SUM($C$1:C41))/60-INT((INT(SUM($D$1:D41)/60)+SUM($C$1:C41))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D41)/60-INT(SUM($D$1:D41)/60))*60) &amp; " seg"</f>
         <v>12 hs 41 min 48 seg</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41" s="10">
         <v>44407</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="22">
+      <c r="G41" s="10">
+        <v>45347</v>
+      </c>
+      <c r="H41" s="22">
+        <f>(SUM($C$2:C41)*60+SUM($D$2:D41))/$D$104</f>
+        <v>0.39442210448199094</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="20">
         <v>41</v>
       </c>
-      <c r="B42" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="16">
+      <c r="B42" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="14">
         <v>15</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D42" s="14">
         <v>4</v>
       </c>
-      <c r="E42" s="17" t="str">
+      <c r="E42" s="15" t="str">
         <f>INT((INT(SUM($D$1:D42)/60)+SUM($C$1:C42))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D42)/60)+SUM($C$1:C42))/60-INT((INT(SUM($D$1:D42)/60)+SUM($C$1:C42))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D42)/60-INT(SUM($D$1:D42)/60))*60) &amp; " seg"</f>
         <v>12 hs 56 min 52 seg</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="16">
         <v>44408</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="21">
+      <c r="G42" s="16">
+        <v>45347</v>
+      </c>
+      <c r="H42" s="22">
+        <f>(SUM($C$2:C42)*60+SUM($D$2:D42))/$D$104</f>
+        <v>0.40222287420395908</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="19">
         <v>42</v>
       </c>
-      <c r="B43" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="16">
+      <c r="B43" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="14">
         <v>16</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="14">
         <v>1</v>
       </c>
-      <c r="E43" s="17" t="str">
+      <c r="E43" s="15" t="str">
         <f>INT((INT(SUM($D$1:D43)/60)+SUM($C$1:C43))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D43)/60)+SUM($C$1:C43))/60-INT((INT(SUM($D$1:D43)/60)+SUM($C$1:C43))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D43)/60-INT(SUM($D$1:D43)/60))*60) &amp; " seg"</f>
         <v>13 hs 12 min 53 seg</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="16">
         <v>44408</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="22">
+      <c r="G43" s="16">
+        <v>45347</v>
+      </c>
+      <c r="H43" s="22">
+        <f>(SUM($C$2:C43)*60+SUM($D$2:D43))/$D$104</f>
+        <v>0.41051550661857344</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="20">
         <v>43</v>
       </c>
-      <c r="B44" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="16">
+      <c r="B44" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="14">
         <v>13</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D44" s="14">
         <v>29</v>
       </c>
-      <c r="E44" s="17" t="str">
+      <c r="E44" s="15" t="str">
         <f>INT((INT(SUM($D$1:D44)/60)+SUM($C$1:C44))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D44)/60)+SUM($C$1:C44))/60-INT((INT(SUM($D$1:D44)/60)+SUM($C$1:C44))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D44)/60-INT(SUM($D$1:D44)/60))*60) &amp; " seg"</f>
         <v>13 hs 26 min 22 seg</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="16">
         <v>44408</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="20">
+      <c r="G44" s="16">
+        <v>45347</v>
+      </c>
+      <c r="H44" s="22">
+        <f>(SUM($C$2:C44)*60+SUM($D$2:D44))/$D$104</f>
+        <v>0.41749650518613118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="18">
         <v>44</v>
       </c>
-      <c r="B45" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="14">
-        <v>20</v>
-      </c>
-      <c r="D45" s="14">
+      <c r="B45" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="12">
+        <v>20</v>
+      </c>
+      <c r="D45" s="12">
         <v>5</v>
       </c>
-      <c r="E45" s="11" t="str">
+      <c r="E45" s="9" t="str">
         <f>INT((INT(SUM($D$1:D45)/60)+SUM($C$1:C45))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D45)/60)+SUM($C$1:C45))/60-INT((INT(SUM($D$1:D45)/60)+SUM($C$1:C45))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D45)/60-INT(SUM($D$1:D45)/60))*60) &amp; " seg"</f>
         <v>13 hs 46 min 27 seg</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F45" s="10">
         <v>44409</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="19">
+      <c r="G45" s="10">
+        <v>45348</v>
+      </c>
+      <c r="H45" s="22">
+        <f>(SUM($C$2:C45)*60+SUM($D$2:D45))/$D$104</f>
+        <v>0.42789465509207325</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="17">
         <v>45</v>
       </c>
-      <c r="B46" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" s="14">
-        <v>20</v>
-      </c>
-      <c r="D46" s="14">
+      <c r="B46" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="12">
+        <v>20</v>
+      </c>
+      <c r="D46" s="12">
         <v>10</v>
       </c>
-      <c r="E46" s="11" t="str">
+      <c r="E46" s="9" t="str">
         <f>INT((INT(SUM($D$1:D46)/60)+SUM($C$1:C46))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D46)/60)+SUM($C$1:C46))/60-INT((INT(SUM($D$1:D46)/60)+SUM($C$1:C46))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D46)/60-INT(SUM($D$1:D46)/60))*60) &amp; " seg"</f>
         <v>14 hs 5 min 37 seg</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="10">
         <v>44409</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="20">
+      <c r="G46" s="10">
+        <v>45348</v>
+      </c>
+      <c r="H46" s="22">
+        <f>(SUM($C$2:C46)*60+SUM($D$2:D46))/$D$104</f>
+        <v>0.43833595084824739</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="18">
         <v>46</v>
       </c>
-      <c r="B47" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" s="14">
-        <v>20</v>
-      </c>
-      <c r="D47" s="14">
+      <c r="B47" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="12">
+        <v>20</v>
+      </c>
+      <c r="D47" s="12">
         <v>5</v>
       </c>
-      <c r="E47" s="11" t="str">
+      <c r="E47" s="9" t="str">
         <f>INT((INT(SUM($D$1:D47)/60)+SUM($C$1:C47))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D47)/60)+SUM($C$1:C47))/60-INT((INT(SUM($D$1:D47)/60)+SUM($C$1:C47))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D47)/60-INT(SUM($D$1:D47)/60))*60) &amp; " seg"</f>
         <v>14 hs 26 min 42 seg</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F47" s="10">
         <v>44409</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="22">
+      <c r="G47" s="10">
+        <v>45348</v>
+      </c>
+      <c r="H47" s="22">
+        <f>(SUM($C$2:C47)*60+SUM($D$2:D47))/$D$104</f>
+        <v>0.44873410075418946</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="20">
         <v>47</v>
       </c>
-      <c r="B48" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="16">
-        <v>20</v>
-      </c>
-      <c r="D48" s="16">
+      <c r="B48" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="14">
+        <v>20</v>
+      </c>
+      <c r="D48" s="14">
         <v>5</v>
       </c>
-      <c r="E48" s="17" t="str">
+      <c r="E48" s="15" t="str">
         <f>INT((INT(SUM($D$1:D48)/60)+SUM($C$1:C48))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D48)/60)+SUM($C$1:C48))/60-INT((INT(SUM($D$1:D48)/60)+SUM($C$1:C48))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D48)/60-INT(SUM($D$1:D48)/60))*60) &amp; " seg"</f>
         <v>14 hs 46 min 47 seg</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="16">
         <v>44410</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="21">
+      <c r="G48" s="16">
+        <v>45348</v>
+      </c>
+      <c r="H48" s="22">
+        <f>(SUM($C$2:C48)*60+SUM($D$2:D48))/$D$104</f>
+        <v>0.45913225066013152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="19">
         <v>48</v>
       </c>
-      <c r="B49" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" s="16">
+      <c r="B49" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="14">
         <v>24</v>
       </c>
-      <c r="D49" s="16">
+      <c r="D49" s="14">
         <v>36</v>
       </c>
-      <c r="E49" s="17" t="str">
+      <c r="E49" s="15" t="str">
         <f>INT((INT(SUM($D$1:D49)/60)+SUM($C$1:C49))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D49)/60)+SUM($C$1:C49))/60-INT((INT(SUM($D$1:D49)/60)+SUM($C$1:C49))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D49)/60-INT(SUM($D$1:D49)/60))*60) &amp; " seg"</f>
         <v>15 hs 11 min 23 seg</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="16">
         <v>44410</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="22">
+      <c r="G49" s="16">
+        <v>45349</v>
+      </c>
+      <c r="H49" s="22">
+        <f>(SUM($C$2:C49)*60+SUM($D$2:D49))/$D$104</f>
+        <v>0.47186890564865469</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="20">
         <v>49</v>
       </c>
-      <c r="B50" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" s="16">
-        <v>20</v>
-      </c>
-      <c r="D50" s="16">
+      <c r="B50" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="14">
+        <v>20</v>
+      </c>
+      <c r="D50" s="14">
         <v>3</v>
       </c>
-      <c r="E50" s="17" t="str">
+      <c r="E50" s="15" t="str">
         <f>INT((INT(SUM($D$1:D50)/60)+SUM($C$1:C50))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D50)/60)+SUM($C$1:C50))/60-INT((INT(SUM($D$1:D50)/60)+SUM($C$1:C50))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D50)/60-INT(SUM($D$1:D50)/60))*60) &amp; " seg"</f>
         <v>15 hs 31 min 26 seg</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F50" s="16">
         <v>44410</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="20">
+      <c r="G50" s="16">
+        <v>45349</v>
+      </c>
+      <c r="H50" s="22">
+        <f>(SUM($C$2:C50)*60+SUM($D$2:D50))/$D$104</f>
+        <v>0.48224979721450389</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="18">
         <v>50</v>
       </c>
-      <c r="B51" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="14">
-        <v>20</v>
-      </c>
-      <c r="D51" s="14">
+      <c r="B51" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="12">
+        <v>20</v>
+      </c>
+      <c r="D51" s="12">
         <v>3</v>
       </c>
-      <c r="E51" s="11" t="str">
+      <c r="E51" s="9" t="str">
         <f>INT((INT(SUM($D$1:D51)/60)+SUM($C$1:C51))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D51)/60)+SUM($C$1:C51))/60-INT((INT(SUM($D$1:D51)/60)+SUM($C$1:C51))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D51)/60-INT(SUM($D$1:D51)/60))*60) &amp; " seg"</f>
         <v>15 hs 51 min 29 seg</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F51" s="10">
         <v>44411</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="19">
+      <c r="G51" s="10">
+        <v>45349</v>
+      </c>
+      <c r="H51" s="22">
+        <f>(SUM($C$2:C51)*60+SUM($D$2:D51))/$D$104</f>
+        <v>0.4926306887803531</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="17">
         <v>51</v>
       </c>
-      <c r="B52" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" s="14">
-        <v>20</v>
-      </c>
-      <c r="D52" s="14">
+      <c r="B52" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="12">
+        <v>20</v>
+      </c>
+      <c r="D52" s="12">
         <v>9</v>
       </c>
-      <c r="E52" s="11" t="str">
+      <c r="E52" s="9" t="str">
         <f>INT((INT(SUM($D$1:D52)/60)+SUM($C$1:C52))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D52)/60)+SUM($C$1:C52))/60-INT((INT(SUM($D$1:D52)/60)+SUM($C$1:C52))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D52)/60-INT(SUM($D$1:D52)/60))*60) &amp; " seg"</f>
         <v>16 hs 11 min 38 seg</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F52" s="10">
         <v>44411</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="20">
+      <c r="G52" s="10">
+        <v>45349</v>
+      </c>
+      <c r="H52" s="22">
+        <f>(SUM($C$2:C52)*60+SUM($D$2:D52))/$D$104</f>
+        <v>0.50306335536648084</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="18">
         <v>52</v>
       </c>
-      <c r="B53" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C53" s="14">
-        <v>20</v>
-      </c>
-      <c r="D53" s="14">
+      <c r="B53" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="12">
+        <v>20</v>
+      </c>
+      <c r="D53" s="12">
         <v>9</v>
       </c>
-      <c r="E53" s="11" t="str">
+      <c r="E53" s="9" t="str">
         <f>INT((INT(SUM($D$1:D53)/60)+SUM($C$1:C53))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D53)/60)+SUM($C$1:C53))/60-INT((INT(SUM($D$1:D53)/60)+SUM($C$1:C53))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D53)/60-INT(SUM($D$1:D53)/60))*60) &amp; " seg"</f>
         <v>16 hs 30 min 47 seg</v>
       </c>
-      <c r="F53" s="12">
+      <c r="F53" s="10">
         <v>44411</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="22">
+      <c r="G53" s="10">
+        <v>45350</v>
+      </c>
+      <c r="H53" s="22">
+        <f>(SUM($C$2:C53)*60+SUM($D$2:D53))/$D$104</f>
+        <v>0.51349602195260857</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="20">
         <v>53</v>
       </c>
-      <c r="B54" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C54" s="16">
-        <v>20</v>
-      </c>
-      <c r="D54" s="16">
+      <c r="B54" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" s="14">
+        <v>20</v>
+      </c>
+      <c r="D54" s="14">
         <v>9</v>
       </c>
-      <c r="E54" s="17" t="str">
+      <c r="E54" s="15" t="str">
         <f>INT((INT(SUM($D$1:D54)/60)+SUM($C$1:C54))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D54)/60)+SUM($C$1:C54))/60-INT((INT(SUM($D$1:D54)/60)+SUM($C$1:C54))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D54)/60-INT(SUM($D$1:D54)/60))*60) &amp; " seg"</f>
         <v>16 hs 51 min 56 seg</v>
       </c>
-      <c r="F54" s="18">
+      <c r="F54" s="16">
         <v>44412</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="21">
+      <c r="G54" s="16">
+        <v>45350</v>
+      </c>
+      <c r="H54" s="22">
+        <f>(SUM($C$2:C54)*60+SUM($D$2:D54))/$D$104</f>
+        <v>0.52392868853873631</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="19">
         <v>54</v>
       </c>
-      <c r="B55" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C55" s="16">
+      <c r="B55" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="14">
         <v>15</v>
       </c>
-      <c r="D55" s="16">
+      <c r="D55" s="14">
         <v>0</v>
       </c>
-      <c r="E55" s="17" t="str">
+      <c r="E55" s="15" t="str">
         <f>INT((INT(SUM($D$1:D55)/60)+SUM($C$1:C55))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D55)/60)+SUM($C$1:C55))/60-INT((INT(SUM($D$1:D55)/60)+SUM($C$1:C55))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D55)/60-INT(SUM($D$1:D55)/60))*60) &amp; " seg"</f>
         <v>17 hs 6 min 56 seg</v>
       </c>
-      <c r="F55" s="18">
+      <c r="F55" s="16">
         <v>44412</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="22">
+      <c r="G55" s="16">
+        <v>45350</v>
+      </c>
+      <c r="H55" s="22">
+        <f>(SUM($C$2:C55)*60+SUM($D$2:D55))/$D$104</f>
+        <v>0.53169494158051878</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="20">
         <v>55</v>
       </c>
-      <c r="B56" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C56" s="16">
-        <v>20</v>
-      </c>
-      <c r="D56" s="16">
+      <c r="B56" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="14">
+        <v>20</v>
+      </c>
+      <c r="D56" s="14">
         <v>3</v>
       </c>
-      <c r="E56" s="17" t="str">
+      <c r="E56" s="15" t="str">
         <f>INT((INT(SUM($D$1:D56)/60)+SUM($C$1:C56))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D56)/60)+SUM($C$1:C56))/60-INT((INT(SUM($D$1:D56)/60)+SUM($C$1:C56))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D56)/60-INT(SUM($D$1:D56)/60))*60) &amp; " seg"</f>
         <v>17 hs 26 min 59 seg</v>
       </c>
-      <c r="F56" s="18">
+      <c r="F56" s="16">
         <v>44412</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="20">
+      <c r="G56" s="16">
+        <v>45350</v>
+      </c>
+      <c r="H56" s="22">
+        <f>(SUM($C$2:C56)*60+SUM($D$2:D56))/$D$104</f>
+        <v>0.54207583314636798</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="18">
         <v>56</v>
       </c>
-      <c r="B57" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C57" s="14">
-        <v>20</v>
-      </c>
-      <c r="D57" s="14">
+      <c r="B57" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="12">
+        <v>20</v>
+      </c>
+      <c r="D57" s="12">
         <v>3</v>
       </c>
-      <c r="E57" s="11" t="str">
+      <c r="E57" s="9" t="str">
         <f>INT((INT(SUM($D$1:D57)/60)+SUM($C$1:C57))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D57)/60)+SUM($C$1:C57))/60-INT((INT(SUM($D$1:D57)/60)+SUM($C$1:C57))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D57)/60-INT(SUM($D$1:D57)/60))*60) &amp; " seg"</f>
         <v>17 hs 47 min 1 seg</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F57" s="10">
         <v>44413</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="19">
+      <c r="G57" s="10">
+        <v>45351</v>
+      </c>
+      <c r="H57" s="22">
+        <f>(SUM($C$2:C57)*60+SUM($D$2:D57))/$D$104</f>
+        <v>0.55245672471221718</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="17">
         <v>57</v>
       </c>
-      <c r="B58" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C58" s="14">
-        <v>20</v>
-      </c>
-      <c r="D58" s="14">
+      <c r="B58" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" s="12">
+        <v>20</v>
+      </c>
+      <c r="D58" s="12">
         <v>7</v>
       </c>
-      <c r="E58" s="11" t="str">
+      <c r="E58" s="9" t="str">
         <f>INT((INT(SUM($D$1:D58)/60)+SUM($C$1:C58))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D58)/60)+SUM($C$1:C58))/60-INT((INT(SUM($D$1:D58)/60)+SUM($C$1:C58))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D58)/60-INT(SUM($D$1:D58)/60))*60) &amp; " seg"</f>
         <v>18 hs 7 min 9 seg</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F58" s="10">
         <v>44413</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="20">
+      <c r="G58" s="10">
+        <v>45351</v>
+      </c>
+      <c r="H58" s="22">
+        <f>(SUM($C$2:C58)*60+SUM($D$2:D58))/$D$104</f>
+        <v>0.56287213295825211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="18">
         <v>58</v>
       </c>
-      <c r="B59" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C59" s="14">
-        <v>20</v>
-      </c>
-      <c r="D59" s="14">
+      <c r="B59" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" s="12">
+        <v>20</v>
+      </c>
+      <c r="D59" s="12">
         <v>22</v>
       </c>
-      <c r="E59" s="11" t="str">
+      <c r="E59" s="9" t="str">
         <f>INT((INT(SUM($D$1:D59)/60)+SUM($C$1:C59))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D59)/60)+SUM($C$1:C59))/60-INT((INT(SUM($D$1:D59)/60)+SUM($C$1:C59))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D59)/60-INT(SUM($D$1:D59)/60))*60) &amp; " seg"</f>
         <v>18 hs 27 min 31 seg</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F59" s="10">
         <v>44413</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="19">
+      <c r="G59" s="10">
+        <v>45351</v>
+      </c>
+      <c r="H59" s="22">
+        <f>(SUM($C$2:C59)*60+SUM($D$2:D59))/$D$104</f>
+        <v>0.57341697875498332</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="17">
         <v>59</v>
       </c>
-      <c r="B60" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C60" s="14">
-        <v>20</v>
-      </c>
-      <c r="D60" s="14">
+      <c r="B60" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" s="12">
+        <v>20</v>
+      </c>
+      <c r="D60" s="12">
         <v>7</v>
       </c>
-      <c r="E60" s="11" t="str">
+      <c r="E60" s="9" t="str">
         <f>INT((INT(SUM($D$1:D60)/60)+SUM($C$1:C60))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D60)/60)+SUM($C$1:C60))/60-INT((INT(SUM($D$1:D60)/60)+SUM($C$1:C60))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D60)/60-INT(SUM($D$1:D60)/60))*60) &amp; " seg"</f>
         <v>18 hs 47 min 38 seg</v>
       </c>
-      <c r="F60" s="12">
+      <c r="F60" s="10">
         <v>44413</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="21">
+      <c r="G60" s="10">
+        <v>45351</v>
+      </c>
+      <c r="H60" s="22">
+        <f>(SUM($C$2:C60)*60+SUM($D$2:D60))/$D$104</f>
+        <v>0.58383238700101825</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="19">
         <v>60</v>
       </c>
-      <c r="B61" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C61" s="16">
+      <c r="B61" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" s="14">
         <v>18</v>
       </c>
-      <c r="D61" s="16">
+      <c r="D61" s="14">
         <v>42</v>
       </c>
-      <c r="E61" s="17" t="str">
+      <c r="E61" s="15" t="str">
         <f>INT((INT(SUM($D$1:D61)/60)+SUM($C$1:C61))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D61)/60)+SUM($C$1:C61))/60-INT((INT(SUM($D$1:D61)/60)+SUM($C$1:C61))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D61)/60-INT(SUM($D$1:D61)/60))*60) &amp; " seg"</f>
         <v>19 hs 6 min 20 seg</v>
       </c>
-      <c r="F61" s="18">
+      <c r="F61" s="16">
         <v>44414</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="22">
+      <c r="G61" s="16">
+        <v>45352</v>
+      </c>
+      <c r="H61" s="22">
+        <f>(SUM($C$2:C61)*60+SUM($D$2:D61))/$D$104</f>
+        <v>0.59351431579310698</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="20">
         <v>61</v>
       </c>
-      <c r="B62" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C62" s="16">
+      <c r="B62" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62" s="14">
         <v>14</v>
       </c>
-      <c r="D62" s="16">
+      <c r="D62" s="14">
         <v>3</v>
       </c>
-      <c r="E62" s="17" t="str">
+      <c r="E62" s="15" t="str">
         <f>INT((INT(SUM($D$1:D62)/60)+SUM($C$1:C62))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D62)/60)+SUM($C$1:C62))/60-INT((INT(SUM($D$1:D62)/60)+SUM($C$1:C62))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D62)/60-INT(SUM($D$1:D62)/60))*60) &amp; " seg"</f>
         <v>19 hs 19 min 23 seg</v>
       </c>
-      <c r="F62" s="18">
+      <c r="F62" s="16">
         <v>44414</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="21">
+      <c r="G62" s="16">
+        <v>45352</v>
+      </c>
+      <c r="H62" s="22">
+        <f>(SUM($C$2:C62)*60+SUM($D$2:D62))/$D$104</f>
+        <v>0.60078870614224322</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="19">
         <v>62</v>
       </c>
-      <c r="B63" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C63" s="16">
+      <c r="B63" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" s="14">
         <v>14</v>
       </c>
-      <c r="D63" s="16">
+      <c r="D63" s="14">
         <v>11</v>
       </c>
-      <c r="E63" s="17" t="str">
+      <c r="E63" s="15" t="str">
         <f>INT((INT(SUM($D$1:D63)/60)+SUM($C$1:C63))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D63)/60)+SUM($C$1:C63))/60-INT((INT(SUM($D$1:D63)/60)+SUM($C$1:C63))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D63)/60-INT(SUM($D$1:D63)/60))*60) &amp; " seg"</f>
         <v>19 hs 34 min 34 seg</v>
       </c>
-      <c r="F63" s="18">
+      <c r="F63" s="16">
         <v>44414</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="19">
+      <c r="G63" s="16">
+        <v>45352</v>
+      </c>
+      <c r="H63" s="22">
+        <f>(SUM($C$2:C63)*60+SUM($D$2:D63))/$D$104</f>
+        <v>0.60813212985175091</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="17">
         <v>63</v>
       </c>
-      <c r="B64" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" s="14">
-        <v>20</v>
-      </c>
-      <c r="D64" s="14">
+      <c r="B64" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" s="12">
+        <v>20</v>
+      </c>
+      <c r="D64" s="12">
         <v>2</v>
       </c>
-      <c r="E64" s="11" t="str">
+      <c r="E64" s="9" t="str">
         <f>INT((INT(SUM($D$1:D64)/60)+SUM($C$1:C64))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D64)/60)+SUM($C$1:C64))/60-INT((INT(SUM($D$1:D64)/60)+SUM($C$1:C64))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D64)/60-INT(SUM($D$1:D64)/60))*60) &amp; " seg"</f>
         <v>19 hs 53 min 36 seg</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F64" s="10">
         <v>44416</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="20">
+      <c r="G64" s="10">
+        <v>45354</v>
+      </c>
+      <c r="H64" s="22">
+        <f>(SUM($C$2:C64)*60+SUM($D$2:D64))/$D$104</f>
+        <v>0.6185043922475536</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="18">
         <v>64</v>
       </c>
-      <c r="B65" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C65" s="14">
-        <v>20</v>
-      </c>
-      <c r="D65" s="14">
+      <c r="B65" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" s="12">
+        <v>20</v>
+      </c>
+      <c r="D65" s="12">
         <v>5</v>
       </c>
-      <c r="E65" s="11" t="str">
+      <c r="E65" s="9" t="str">
         <f>INT((INT(SUM($D$1:D65)/60)+SUM($C$1:C65))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D65)/60)+SUM($C$1:C65))/60-INT((INT(SUM($D$1:D65)/60)+SUM($C$1:C65))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D65)/60-INT(SUM($D$1:D65)/60))*60) &amp; " seg"</f>
         <v>20 hs 14 min 41 seg</v>
       </c>
-      <c r="F65" s="12">
+      <c r="F65" s="10">
         <v>44416</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="19">
+      <c r="G65" s="10">
+        <v>45354</v>
+      </c>
+      <c r="H65" s="22">
+        <f>(SUM($C$2:C65)*60+SUM($D$2:D65))/$D$104</f>
+        <v>0.62890254215349572</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="17">
         <v>65</v>
       </c>
-      <c r="B66" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C66" s="14">
-        <v>20</v>
-      </c>
-      <c r="D66" s="14">
+      <c r="B66" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" s="12">
+        <v>20</v>
+      </c>
+      <c r="D66" s="12">
         <v>2</v>
       </c>
-      <c r="E66" s="11" t="str">
+      <c r="E66" s="9" t="str">
         <f>INT((INT(SUM($D$1:D66)/60)+SUM($C$1:C66))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D66)/60)+SUM($C$1:C66))/60-INT((INT(SUM($D$1:D66)/60)+SUM($C$1:C66))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D66)/60-INT(SUM($D$1:D66)/60))*60) &amp; " seg"</f>
         <v>20 hs 34 min 43 seg</v>
       </c>
-      <c r="F66" s="12">
+      <c r="F66" s="10">
         <v>44416</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="20">
+      <c r="G66" s="10">
+        <v>45355</v>
+      </c>
+      <c r="H66" s="22">
+        <f>(SUM($C$2:C66)*60+SUM($D$2:D66))/$D$104</f>
+        <v>0.63927480454929841</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="18">
         <v>66</v>
       </c>
-      <c r="B67" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C67" s="14">
+      <c r="B67" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C67" s="12">
         <v>10</v>
       </c>
-      <c r="D67" s="14">
+      <c r="D67" s="12">
         <v>33</v>
       </c>
-      <c r="E67" s="11" t="str">
+      <c r="E67" s="9" t="str">
         <f>INT((INT(SUM($D$1:D67)/60)+SUM($C$1:C67))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D67)/60)+SUM($C$1:C67))/60-INT((INT(SUM($D$1:D67)/60)+SUM($C$1:C67))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D67)/60-INT(SUM($D$1:D67)/60))*60) &amp; " seg"</f>
         <v>20 hs 45 min 16 seg</v>
       </c>
-      <c r="F67" s="12">
+      <c r="F67" s="10">
         <v>44416</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="22">
+      <c r="G67" s="10">
+        <v>45355</v>
+      </c>
+      <c r="H67" s="22">
+        <f>(SUM($C$2:C67)*60+SUM($D$2:D67))/$D$104</f>
+        <v>0.64473706918868545</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="20">
         <v>67</v>
       </c>
-      <c r="B68" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C68" s="16">
-        <v>20</v>
-      </c>
-      <c r="D68" s="16">
+      <c r="B68" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C68" s="14">
+        <v>20</v>
+      </c>
+      <c r="D68" s="14">
         <v>4</v>
       </c>
-      <c r="E68" s="17" t="str">
+      <c r="E68" s="15" t="str">
         <f>INT((INT(SUM($D$1:D68)/60)+SUM($C$1:C68))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D68)/60)+SUM($C$1:C68))/60-INT((INT(SUM($D$1:D68)/60)+SUM($C$1:C68))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D68)/60-INT(SUM($D$1:D68)/60))*60) &amp; " seg"</f>
         <v>21 hs 4 min 20 seg</v>
       </c>
-      <c r="F68" s="18">
+      <c r="F68" s="16">
         <v>44417</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="21">
+      <c r="G68" s="16">
+        <v>45355</v>
+      </c>
+      <c r="H68" s="22">
+        <f>(SUM($C$2:C68)*60+SUM($D$2:D68))/$D$104</f>
+        <v>0.65512658992458106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="19">
         <v>68</v>
       </c>
-      <c r="B69" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C69" s="16">
-        <v>20</v>
-      </c>
-      <c r="D69" s="16">
+      <c r="B69" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C69" s="14">
+        <v>20</v>
+      </c>
+      <c r="D69" s="14">
         <v>8</v>
       </c>
-      <c r="E69" s="17" t="str">
+      <c r="E69" s="15" t="str">
         <f>INT((INT(SUM($D$1:D69)/60)+SUM($C$1:C69))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D69)/60)+SUM($C$1:C69))/60-INT((INT(SUM($D$1:D69)/60)+SUM($C$1:C69))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D69)/60-INT(SUM($D$1:D69)/60))*60) &amp; " seg"</f>
         <v>21 hs 25 min 28 seg</v>
       </c>
-      <c r="F69" s="18">
+      <c r="F69" s="16">
         <v>44417</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="22">
+      <c r="G69" s="16">
+        <v>45356</v>
+      </c>
+      <c r="H69" s="22">
+        <f>(SUM($C$2:C69)*60+SUM($D$2:D69))/$D$104</f>
+        <v>0.66555062734066239</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="20">
         <v>69</v>
       </c>
-      <c r="B70" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C70" s="16">
+      <c r="B70" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" s="14">
         <v>15</v>
       </c>
-      <c r="D70" s="16">
+      <c r="D70" s="14">
         <v>6</v>
       </c>
-      <c r="E70" s="17" t="str">
+      <c r="E70" s="15" t="str">
         <f>INT((INT(SUM($D$1:D70)/60)+SUM($C$1:C70))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D70)/60)+SUM($C$1:C70))/60-INT((INT(SUM($D$1:D70)/60)+SUM($C$1:C70))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D70)/60-INT(SUM($D$1:D70)/60))*60) &amp; " seg"</f>
         <v>21 hs 40 min 34 seg</v>
       </c>
-      <c r="F70" s="18">
+      <c r="F70" s="16">
         <v>44417</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="21">
+      <c r="G70" s="16">
+        <v>45356</v>
+      </c>
+      <c r="H70" s="22">
+        <f>(SUM($C$2:C70)*60+SUM($D$2:D70))/$D$104</f>
+        <v>0.67336865540272339</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="19">
         <v>70</v>
       </c>
-      <c r="B71" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C71" s="16">
+      <c r="B71" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C71" s="14">
         <v>18</v>
       </c>
-      <c r="D71" s="16">
+      <c r="D71" s="14">
         <v>9</v>
       </c>
-      <c r="E71" s="17" t="str">
+      <c r="E71" s="15" t="str">
         <f>INT((INT(SUM($D$1:D71)/60)+SUM($C$1:C71))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D71)/60)+SUM($C$1:C71))/60-INT((INT(SUM($D$1:D71)/60)+SUM($C$1:C71))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D71)/60-INT(SUM($D$1:D71)/60))*60) &amp; " seg"</f>
         <v>21 hs 57 min 43 seg</v>
       </c>
-      <c r="F71" s="18">
+      <c r="F71" s="16">
         <v>44417</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="19">
+      <c r="G71" s="16">
+        <v>45356</v>
+      </c>
+      <c r="H71" s="22">
+        <f>(SUM($C$2:C71)*60+SUM($D$2:D71))/$D$104</f>
+        <v>0.68276582158328014</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="17">
         <v>71</v>
       </c>
-      <c r="B72" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C72" s="14">
+      <c r="B72" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" s="12">
         <v>15</v>
       </c>
-      <c r="D72" s="14">
+      <c r="D72" s="12">
         <v>2</v>
       </c>
-      <c r="E72" s="11" t="str">
+      <c r="E72" s="9" t="str">
         <f>INT((INT(SUM($D$1:D72)/60)+SUM($C$1:C72))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D72)/60)+SUM($C$1:C72))/60-INT((INT(SUM($D$1:D72)/60)+SUM($C$1:C72))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D72)/60-INT(SUM($D$1:D72)/60))*60) &amp; " seg"</f>
         <v>22 hs 12 min 45 seg</v>
       </c>
-      <c r="F72" s="12">
+      <c r="F72" s="10">
         <v>44418</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="20">
+      <c r="G72" s="10">
+        <v>45357</v>
+      </c>
+      <c r="H72" s="22">
+        <f>(SUM($C$2:C72)*60+SUM($D$2:D72))/$D$104</f>
+        <v>0.69054933296515542</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="18">
         <v>72</v>
       </c>
-      <c r="B73" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C73" s="14">
+      <c r="B73" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="12">
         <v>15</v>
       </c>
-      <c r="D73" s="14">
+      <c r="D73" s="12">
         <v>4</v>
       </c>
-      <c r="E73" s="11" t="str">
+      <c r="E73" s="9" t="str">
         <f>INT((INT(SUM($D$1:D73)/60)+SUM($C$1:C73))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D73)/60)+SUM($C$1:C73))/60-INT((INT(SUM($D$1:D73)/60)+SUM($C$1:C73))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D73)/60-INT(SUM($D$1:D73)/60))*60) &amp; " seg"</f>
         <v>22 hs 27 min 49 seg</v>
       </c>
-      <c r="F73" s="12">
+      <c r="F73" s="10">
         <v>44418</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="19">
+      <c r="G73" s="10">
+        <v>45357</v>
+      </c>
+      <c r="H73" s="22">
+        <f>(SUM($C$2:C73)*60+SUM($D$2:D73))/$D$104</f>
+        <v>0.6983501026871235</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="17">
         <v>73</v>
       </c>
-      <c r="B74" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C74" s="14">
+      <c r="B74" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C74" s="12">
         <v>15</v>
       </c>
-      <c r="D74" s="14">
+      <c r="D74" s="12">
         <v>24</v>
       </c>
-      <c r="E74" s="11" t="str">
+      <c r="E74" s="9" t="str">
         <f>INT((INT(SUM($D$1:D74)/60)+SUM($C$1:C74))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D74)/60)+SUM($C$1:C74))/60-INT((INT(SUM($D$1:D74)/60)+SUM($C$1:C74))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D74)/60-INT(SUM($D$1:D74)/60))*60) &amp; " seg"</f>
         <v>22 hs 44 min 13 seg</v>
       </c>
-      <c r="F74" s="12">
+      <c r="F74" s="10">
         <v>44418</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="20">
+      <c r="G74" s="10">
+        <v>45357</v>
+      </c>
+      <c r="H74" s="22">
+        <f>(SUM($C$2:C74)*60+SUM($D$2:D74))/$D$104</f>
+        <v>0.70632345581002021</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="18">
         <v>74</v>
       </c>
-      <c r="B75" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C75" s="14">
-        <v>20</v>
-      </c>
-      <c r="D75" s="14">
+      <c r="B75" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" s="12">
+        <v>20</v>
+      </c>
+      <c r="D75" s="12">
         <v>2</v>
       </c>
-      <c r="E75" s="11" t="str">
+      <c r="E75" s="9" t="str">
         <f>INT((INT(SUM($D$1:D75)/60)+SUM($C$1:C75))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D75)/60)+SUM($C$1:C75))/60-INT((INT(SUM($D$1:D75)/60)+SUM($C$1:C75))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D75)/60-INT(SUM($D$1:D75)/60))*60) &amp; " seg"</f>
         <v>23 hs 3 min 15 seg</v>
       </c>
-      <c r="F75" s="12">
+      <c r="F75" s="10">
         <v>44418</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="19">
+      <c r="G75" s="10">
+        <v>45357</v>
+      </c>
+      <c r="H75" s="22">
+        <f>(SUM($C$2:C75)*60+SUM($D$2:D75))/$D$104</f>
+        <v>0.71669571820582301</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="17">
         <v>75</v>
       </c>
-      <c r="B76" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C76" s="14">
+      <c r="B76" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C76" s="12">
         <v>19</v>
       </c>
-      <c r="D76" s="14">
+      <c r="D76" s="12">
         <v>41</v>
       </c>
-      <c r="E76" s="11" t="str">
+      <c r="E76" s="9" t="str">
         <f>INT((INT(SUM($D$1:D76)/60)+SUM($C$1:C76))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D76)/60)+SUM($C$1:C76))/60-INT((INT(SUM($D$1:D76)/60)+SUM($C$1:C76))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D76)/60-INT(SUM($D$1:D76)/60))*60) &amp; " seg"</f>
         <v>23 hs 23 min 56 seg</v>
       </c>
-      <c r="F76" s="12">
+      <c r="F76" s="10">
         <v>44418</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="21">
+      <c r="G76" s="10">
+        <v>45357</v>
+      </c>
+      <c r="H76" s="22">
+        <f>(SUM($C$2:C76)*60+SUM($D$2:D76))/$D$104</f>
+        <v>0.72688676803065078</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="19">
         <v>76</v>
       </c>
-      <c r="B77" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C77" s="16">
-        <v>20</v>
-      </c>
-      <c r="D77" s="16">
+      <c r="B77" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C77" s="14">
+        <v>20</v>
+      </c>
+      <c r="D77" s="14">
         <v>2</v>
       </c>
-      <c r="E77" s="17" t="str">
+      <c r="E77" s="15" t="str">
         <f>INT((INT(SUM($D$1:D77)/60)+SUM($C$1:C77))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D77)/60)+SUM($C$1:C77))/60-INT((INT(SUM($D$1:D77)/60)+SUM($C$1:C77))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D77)/60-INT(SUM($D$1:D77)/60))*60) &amp; " seg"</f>
         <v>23 hs 42 min 58 seg</v>
       </c>
-      <c r="F77" s="18">
+      <c r="F77" s="16">
         <v>44419</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="22">
+      <c r="G77" s="16">
+        <v>45358</v>
+      </c>
+      <c r="H77" s="22">
+        <f>(SUM($C$2:C77)*60+SUM($D$2:D77))/$D$104</f>
+        <v>0.73725903042645358</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="20">
         <v>77</v>
       </c>
-      <c r="B78" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C78" s="16">
-        <v>20</v>
-      </c>
-      <c r="D78" s="16">
+      <c r="B78" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C78" s="14">
+        <v>20</v>
+      </c>
+      <c r="D78" s="14">
         <v>8</v>
       </c>
-      <c r="E78" s="17" t="str">
+      <c r="E78" s="15" t="str">
         <f>INT((INT(SUM($D$1:D78)/60)+SUM($C$1:C78))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D78)/60)+SUM($C$1:C78))/60-INT((INT(SUM($D$1:D78)/60)+SUM($C$1:C78))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D78)/60-INT(SUM($D$1:D78)/60))*60) &amp; " seg"</f>
         <v>24 hs 3 min 6 seg</v>
       </c>
-      <c r="F78" s="18">
+      <c r="F78" s="16">
         <v>44419</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="21">
+      <c r="G78" s="16">
+        <v>45358</v>
+      </c>
+      <c r="H78" s="22">
+        <f>(SUM($C$2:C78)*60+SUM($D$2:D78))/$D$104</f>
+        <v>0.74768306784253491</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="19">
         <v>78</v>
       </c>
-      <c r="B79" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C79" s="16">
-        <v>20</v>
-      </c>
-      <c r="D79" s="16">
+      <c r="B79" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C79" s="14">
+        <v>20</v>
+      </c>
+      <c r="D79" s="14">
         <v>8</v>
       </c>
-      <c r="E79" s="17" t="str">
+      <c r="E79" s="15" t="str">
         <f>INT((INT(SUM($D$1:D79)/60)+SUM($C$1:C79))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D79)/60)+SUM($C$1:C79))/60-INT((INT(SUM($D$1:D79)/60)+SUM($C$1:C79))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D79)/60-INT(SUM($D$1:D79)/60))*60) &amp; " seg"</f>
         <v>24 hs 23 min 14 seg</v>
       </c>
-      <c r="F79" s="18">
+      <c r="F79" s="16">
         <v>44419</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="19">
+      <c r="G79" s="16">
+        <v>45358</v>
+      </c>
+      <c r="H79" s="22">
+        <f>(SUM($C$2:C79)*60+SUM($D$2:D79))/$D$104</f>
+        <v>0.75810710525861624</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="17">
         <v>79</v>
       </c>
-      <c r="B80" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C80" s="14">
-        <v>20</v>
-      </c>
-      <c r="D80" s="14">
+      <c r="B80" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C80" s="12">
+        <v>20</v>
+      </c>
+      <c r="D80" s="12">
         <v>8</v>
       </c>
-      <c r="E80" s="11" t="str">
+      <c r="E80" s="9" t="str">
         <f>INT((INT(SUM($D$1:D80)/60)+SUM($C$1:C80))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D80)/60)+SUM($C$1:C80))/60-INT((INT(SUM($D$1:D80)/60)+SUM($C$1:C80))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D80)/60-INT(SUM($D$1:D80)/60))*60) &amp; " seg"</f>
         <v>24 hs 44 min 22 seg</v>
       </c>
-      <c r="F80" s="12">
+      <c r="F80" s="10">
         <v>44420</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="20">
+      <c r="G80" s="10">
+        <v>45358</v>
+      </c>
+      <c r="H80" s="22">
+        <f>(SUM($C$2:C80)*60+SUM($D$2:D80))/$D$104</f>
+        <v>0.76853114267469758</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="18">
         <v>80</v>
       </c>
-      <c r="B81" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C81" s="14">
-        <v>20</v>
-      </c>
-      <c r="D81" s="14">
+      <c r="B81" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C81" s="12">
+        <v>20</v>
+      </c>
+      <c r="D81" s="12">
         <v>8</v>
       </c>
-      <c r="E81" s="11" t="str">
+      <c r="E81" s="9" t="str">
         <f>INT((INT(SUM($D$1:D81)/60)+SUM($C$1:C81))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D81)/60)+SUM($C$1:C81))/60-INT((INT(SUM($D$1:D81)/60)+SUM($C$1:C81))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D81)/60-INT(SUM($D$1:D81)/60))*60) &amp; " seg"</f>
         <v>25 hs 3 min 30 seg</v>
       </c>
-      <c r="F81" s="12">
+      <c r="F81" s="10">
         <v>44420</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="19">
+      <c r="G81" s="10">
+        <v>45359</v>
+      </c>
+      <c r="H81" s="22">
+        <f>(SUM($C$2:C81)*60+SUM($D$2:D81))/$D$104</f>
+        <v>0.77895518009077891</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="17">
         <v>81</v>
       </c>
-      <c r="B82" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C82" s="14">
+      <c r="B82" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C82" s="12">
         <v>17</v>
       </c>
-      <c r="D82" s="14">
+      <c r="D82" s="12">
         <v>10</v>
       </c>
-      <c r="E82" s="11" t="str">
+      <c r="E82" s="9" t="str">
         <f>INT((INT(SUM($D$1:D82)/60)+SUM($C$1:C82))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D82)/60)+SUM($C$1:C82))/60-INT((INT(SUM($D$1:D82)/60)+SUM($C$1:C82))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D82)/60-INT(SUM($D$1:D82)/60))*60) &amp; " seg"</f>
         <v>25 hs 21 min 40 seg</v>
       </c>
-      <c r="F82" s="12">
+      <c r="F82" s="10">
         <v>44420</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="20">
+      <c r="G82" s="10">
+        <v>45359</v>
+      </c>
+      <c r="H82" s="22">
+        <f>(SUM($C$2:C82)*60+SUM($D$2:D82))/$D$104</f>
+        <v>0.78784322523859651</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="18">
         <v>82</v>
       </c>
-      <c r="B83" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C83" s="14">
+      <c r="B83" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C83" s="12">
         <v>16</v>
       </c>
-      <c r="D83" s="14">
+      <c r="D83" s="12">
         <v>4</v>
       </c>
-      <c r="E83" s="11" t="str">
+      <c r="E83" s="9" t="str">
         <f>INT((INT(SUM($D$1:D83)/60)+SUM($C$1:C83))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D83)/60)+SUM($C$1:C83))/60-INT((INT(SUM($D$1:D83)/60)+SUM($C$1:C83))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D83)/60-INT(SUM($D$1:D83)/60))*60) &amp; " seg"</f>
         <v>25 hs 37 min 44 seg</v>
       </c>
-      <c r="F83" s="12">
+      <c r="F83" s="10">
         <v>44420</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="22">
+      <c r="G83" s="10">
+        <v>45359</v>
+      </c>
+      <c r="H83" s="22">
+        <f>(SUM($C$2:C83)*60+SUM($D$2:D83))/$D$104</f>
+        <v>0.79616174516335014</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="20">
         <v>83</v>
       </c>
-      <c r="B84" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C84" s="16">
+      <c r="B84" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C84" s="14">
         <v>19</v>
       </c>
-      <c r="D84" s="16">
-        <v>20</v>
-      </c>
-      <c r="E84" s="17" t="str">
+      <c r="D84" s="14">
+        <v>20</v>
+      </c>
+      <c r="E84" s="15" t="str">
         <f>INT((INT(SUM($D$1:D84)/60)+SUM($C$1:C84))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D84)/60)+SUM($C$1:C84))/60-INT((INT(SUM($D$1:D84)/60)+SUM($C$1:C84))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D84)/60-INT(SUM($D$1:D84)/60))*60) &amp; " seg"</f>
         <v>25 hs 57 min 3 seg</v>
       </c>
-      <c r="F84" s="18">
+      <c r="F84" s="16">
         <v>44421</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="21">
+      <c r="G84" s="16">
+        <v>45359</v>
+      </c>
+      <c r="H84" s="22">
+        <f>(SUM($C$2:C84)*60+SUM($D$2:D84))/$D$104</f>
+        <v>0.8061715824172031</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="19">
         <v>84</v>
       </c>
-      <c r="B85" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C85" s="16">
+      <c r="B85" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C85" s="14">
         <v>31</v>
       </c>
-      <c r="D85" s="16">
+      <c r="D85" s="14">
         <v>30</v>
       </c>
-      <c r="E85" s="17" t="str">
+      <c r="E85" s="15" t="str">
         <f>INT((INT(SUM($D$1:D85)/60)+SUM($C$1:C85))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D85)/60)+SUM($C$1:C85))/60-INT((INT(SUM($D$1:D85)/60)+SUM($C$1:C85))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D85)/60-INT(SUM($D$1:D85)/60))*60) &amp; " seg"</f>
         <v>26 hs 27 min 34 seg</v>
       </c>
-      <c r="F85" s="18">
+      <c r="F85" s="16">
         <v>44421</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="19">
+      <c r="G85" s="16">
+        <v>45360</v>
+      </c>
+      <c r="H85" s="22">
+        <f>(SUM($C$2:C85)*60+SUM($D$2:D85))/$D$104</f>
+        <v>0.82248071380494625</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="17">
         <v>85</v>
       </c>
-      <c r="B86" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C86" s="14">
-        <v>20</v>
-      </c>
-      <c r="D86" s="14">
+      <c r="B86" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C86" s="12">
+        <v>20</v>
+      </c>
+      <c r="D86" s="12">
         <v>2</v>
       </c>
-      <c r="E86" s="11" t="str">
+      <c r="E86" s="9" t="str">
         <f>INT((INT(SUM($D$1:D86)/60)+SUM($C$1:C86))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D86)/60)+SUM($C$1:C86))/60-INT((INT(SUM($D$1:D86)/60)+SUM($C$1:C86))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D86)/60-INT(SUM($D$1:D86)/60))*60) &amp; " seg"</f>
         <v>26 hs 48 min 36 seg</v>
       </c>
-      <c r="F86" s="12">
+      <c r="F86" s="10">
         <v>44422</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="20">
+      <c r="G86" s="10">
+        <v>45361</v>
+      </c>
+      <c r="H86" s="22">
+        <f>(SUM($C$2:C86)*60+SUM($D$2:D86))/$D$104</f>
+        <v>0.83285297620074905</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="18">
         <v>86</v>
       </c>
-      <c r="B87" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C87" s="14">
-        <v>20</v>
-      </c>
-      <c r="D87" s="14">
+      <c r="B87" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C87" s="12">
+        <v>20</v>
+      </c>
+      <c r="D87" s="12">
         <v>7</v>
       </c>
-      <c r="E87" s="11" t="str">
+      <c r="E87" s="9" t="str">
         <f>INT((INT(SUM($D$1:D87)/60)+SUM($C$1:C87))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D87)/60)+SUM($C$1:C87))/60-INT((INT(SUM($D$1:D87)/60)+SUM($C$1:C87))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D87)/60-INT(SUM($D$1:D87)/60))*60) &amp; " seg"</f>
         <v>27 hs 7 min 42 seg</v>
       </c>
-      <c r="F87" s="12">
+      <c r="F87" s="10">
         <v>44422</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="19">
+      <c r="G87" s="10">
+        <v>45361</v>
+      </c>
+      <c r="H87" s="22">
+        <f>(SUM($C$2:C87)*60+SUM($D$2:D87))/$D$104</f>
+        <v>0.84326838444678387</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="17">
         <v>87</v>
       </c>
-      <c r="B88" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C88" s="14">
+      <c r="B88" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C88" s="12">
         <v>12</v>
       </c>
-      <c r="D88" s="14">
+      <c r="D88" s="12">
         <v>48</v>
       </c>
-      <c r="E88" s="11" t="str">
+      <c r="E88" s="9" t="str">
         <f>INT((INT(SUM($D$1:D88)/60)+SUM($C$1:C88))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D88)/60)+SUM($C$1:C88))/60-INT((INT(SUM($D$1:D88)/60)+SUM($C$1:C88))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D88)/60-INT(SUM($D$1:D88)/60))*60) &amp; " seg"</f>
         <v>27 hs 21 min 30 seg</v>
       </c>
-      <c r="F88" s="12">
+      <c r="F88" s="10">
         <v>44422</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="21">
+      <c r="G88" s="10"/>
+      <c r="H88" s="22">
+        <f>(SUM($C$2:C88)*60+SUM($D$2:D88))/$D$104</f>
+        <v>0.84989558704243828</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="19">
         <v>88</v>
       </c>
-      <c r="B89" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C89" s="16">
-        <v>20</v>
-      </c>
-      <c r="D89" s="16">
+      <c r="B89" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C89" s="14">
+        <v>20</v>
+      </c>
+      <c r="D89" s="14">
         <v>5</v>
       </c>
-      <c r="E89" s="17" t="str">
+      <c r="E89" s="15" t="str">
         <f>INT((INT(SUM($D$1:D89)/60)+SUM($C$1:C89))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D89)/60)+SUM($C$1:C89))/60-INT((INT(SUM($D$1:D89)/60)+SUM($C$1:C89))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D89)/60-INT(SUM($D$1:D89)/60))*60) &amp; " seg"</f>
         <v>27 hs 41 min 36 seg</v>
       </c>
-      <c r="F89" s="18">
+      <c r="F89" s="16">
         <v>44423</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="22">
+      <c r="G89" s="16"/>
+      <c r="H89" s="22">
+        <f>(SUM($C$2:C89)*60+SUM($D$2:D89))/$D$104</f>
+        <v>0.86029373694838029</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="20">
         <v>89</v>
       </c>
-      <c r="B90" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C90" s="16">
-        <v>20</v>
-      </c>
-      <c r="D90" s="16">
+      <c r="B90" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C90" s="14">
+        <v>20</v>
+      </c>
+      <c r="D90" s="14">
         <v>5</v>
       </c>
-      <c r="E90" s="17" t="str">
+      <c r="E90" s="15" t="str">
         <f>INT((INT(SUM($D$1:D90)/60)+SUM($C$1:C90))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D90)/60)+SUM($C$1:C90))/60-INT((INT(SUM($D$1:D90)/60)+SUM($C$1:C90))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D90)/60-INT(SUM($D$1:D90)/60))*60) &amp; " seg"</f>
         <v>28 hs 0 min 41 seg</v>
       </c>
-      <c r="F90" s="18">
+      <c r="F90" s="16">
         <v>44423</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="21">
+      <c r="G90" s="16"/>
+      <c r="H90" s="22">
+        <f>(SUM($C$2:C90)*60+SUM($D$2:D90))/$D$104</f>
+        <v>0.87069188685432231</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="19">
         <v>90</v>
       </c>
-      <c r="B91" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C91" s="16">
-        <v>20</v>
-      </c>
-      <c r="D91" s="16">
+      <c r="B91" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C91" s="14">
+        <v>20</v>
+      </c>
+      <c r="D91" s="14">
         <v>5</v>
       </c>
-      <c r="E91" s="17" t="str">
+      <c r="E91" s="15" t="str">
         <f>INT((INT(SUM($D$1:D91)/60)+SUM($C$1:C91))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D91)/60)+SUM($C$1:C91))/60-INT((INT(SUM($D$1:D91)/60)+SUM($C$1:C91))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D91)/60-INT(SUM($D$1:D91)/60))*60) &amp; " seg"</f>
         <v>28 hs 21 min 45 seg</v>
       </c>
-      <c r="F91" s="18">
+      <c r="F91" s="16">
         <v>44423</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="19">
+      <c r="G91" s="16"/>
+      <c r="H91" s="22">
+        <f>(SUM($C$2:C91)*60+SUM($D$2:D91))/$D$104</f>
+        <v>0.88109003676026443</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="17">
         <v>91</v>
       </c>
-      <c r="B92" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C92" s="14">
+      <c r="B92" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C92" s="12">
         <v>21</v>
       </c>
-      <c r="D92" s="14">
+      <c r="D92" s="12">
         <v>0</v>
       </c>
-      <c r="E92" s="11" t="str">
+      <c r="E92" s="9" t="str">
         <f>INT((INT(SUM($D$1:D92)/60)+SUM($C$1:C92))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D92)/60)+SUM($C$1:C92))/60-INT((INT(SUM($D$1:D92)/60)+SUM($C$1:C92))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D92)/60-INT(SUM($D$1:D92)/60))*60) &amp; " seg"</f>
         <v>28 hs 42 min 45 seg</v>
       </c>
-      <c r="F92" s="12">
+      <c r="F92" s="10">
         <v>44424</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="20">
+      <c r="G92" s="10"/>
+      <c r="H92" s="22">
+        <f>(SUM($C$2:C92)*60+SUM($D$2:D92))/$D$104</f>
+        <v>0.89196279101875986</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="18">
         <v>92</v>
       </c>
-      <c r="B93" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C93" s="14">
-        <v>20</v>
-      </c>
-      <c r="D93" s="14">
+      <c r="B93" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C93" s="12">
+        <v>20</v>
+      </c>
+      <c r="D93" s="12">
         <v>3</v>
       </c>
-      <c r="E93" s="11" t="str">
+      <c r="E93" s="9" t="str">
         <f>INT((INT(SUM($D$1:D93)/60)+SUM($C$1:C93))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D93)/60)+SUM($C$1:C93))/60-INT((INT(SUM($D$1:D93)/60)+SUM($C$1:C93))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D93)/60-INT(SUM($D$1:D93)/60))*60) &amp; " seg"</f>
         <v>29 hs 2 min 49 seg</v>
       </c>
-      <c r="F93" s="12">
+      <c r="F93" s="10">
         <v>44424</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="19">
+      <c r="G93" s="10"/>
+      <c r="H93" s="22">
+        <f>(SUM($C$2:C93)*60+SUM($D$2:D93))/$D$104</f>
+        <v>0.90234368258460906</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="17">
         <v>93</v>
       </c>
-      <c r="B94" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C94" s="14">
-        <v>20</v>
-      </c>
-      <c r="D94" s="14">
+      <c r="B94" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C94" s="12">
+        <v>20</v>
+      </c>
+      <c r="D94" s="12">
         <v>6</v>
       </c>
-      <c r="E94" s="11" t="str">
+      <c r="E94" s="9" t="str">
         <f>INT((INT(SUM($D$1:D94)/60)+SUM($C$1:C94))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D94)/60)+SUM($C$1:C94))/60-INT((INT(SUM($D$1:D94)/60)+SUM($C$1:C94))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D94)/60-INT(SUM($D$1:D94)/60))*60) &amp; " seg"</f>
         <v>29 hs 22 min 55 seg</v>
       </c>
-      <c r="F94" s="12">
+      <c r="F94" s="10">
         <v>44424</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="21">
+      <c r="G94" s="10"/>
+      <c r="H94" s="22">
+        <f>(SUM($C$2:C94)*60+SUM($D$2:D94))/$D$104</f>
+        <v>0.91275046166059748</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="19">
         <v>94</v>
       </c>
-      <c r="B95" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C95" s="16">
+      <c r="B95" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C95" s="14">
         <v>19</v>
       </c>
-      <c r="D95" s="16">
+      <c r="D95" s="14">
         <v>6</v>
       </c>
-      <c r="E95" s="17" t="str">
+      <c r="E95" s="15" t="str">
         <f>INT((INT(SUM($D$1:D95)/60)+SUM($C$1:C95))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D95)/60)+SUM($C$1:C95))/60-INT((INT(SUM($D$1:D95)/60)+SUM($C$1:C95))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D95)/60-INT(SUM($D$1:D95)/60))*60) &amp; " seg"</f>
         <v>29 hs 42 min 0 seg</v>
       </c>
-      <c r="F95" s="18">
+      <c r="F95" s="16">
         <v>44425</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="22">
+      <c r="G95" s="16"/>
+      <c r="H95" s="22">
+        <f>(SUM($C$2:C95)*60+SUM($D$2:D95))/$D$104</f>
+        <v>0.92263949053380045</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="20">
         <v>95</v>
       </c>
-      <c r="B96" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C96" s="16">
-        <v>20</v>
-      </c>
-      <c r="D96" s="16">
+      <c r="B96" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C96" s="14">
+        <v>20</v>
+      </c>
+      <c r="D96" s="14">
         <v>4</v>
       </c>
-      <c r="E96" s="17" t="str">
+      <c r="E96" s="15" t="str">
         <f>INT((INT(SUM($D$1:D96)/60)+SUM($C$1:C96))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D96)/60)+SUM($C$1:C96))/60-INT((INT(SUM($D$1:D96)/60)+SUM($C$1:C96))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D96)/60-INT(SUM($D$1:D96)/60))*60) &amp; " seg"</f>
         <v>30 hs 2 min 4 seg</v>
       </c>
-      <c r="F96" s="18">
+      <c r="F96" s="16">
         <v>44425</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="21">
+      <c r="G96" s="16"/>
+      <c r="H96" s="22">
+        <f>(SUM($C$2:C96)*60+SUM($D$2:D96))/$D$104</f>
+        <v>0.93302901126969606</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="19">
         <v>96</v>
       </c>
-      <c r="B97" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C97" s="16">
-        <v>20</v>
-      </c>
-      <c r="D97" s="16">
+      <c r="B97" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C97" s="14">
+        <v>20</v>
+      </c>
+      <c r="D97" s="14">
         <v>4</v>
       </c>
-      <c r="E97" s="17" t="str">
+      <c r="E97" s="15" t="str">
         <f>INT((INT(SUM($D$1:D97)/60)+SUM($C$1:C97))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D97)/60)+SUM($C$1:C97))/60-INT((INT(SUM($D$1:D97)/60)+SUM($C$1:C97))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D97)/60-INT(SUM($D$1:D97)/60))*60) &amp; " seg"</f>
         <v>30 hs 22 min 8 seg</v>
       </c>
-      <c r="F97" s="18">
+      <c r="F97" s="16">
         <v>44425</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="19">
+      <c r="G97" s="16"/>
+      <c r="H97" s="22">
+        <f>(SUM($C$2:C97)*60+SUM($D$2:D97))/$D$104</f>
+        <v>0.94341853200559167</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="17">
         <v>97</v>
       </c>
-      <c r="B98" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C98" s="14">
-        <v>20</v>
-      </c>
-      <c r="D98" s="14">
+      <c r="B98" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C98" s="12">
+        <v>20</v>
+      </c>
+      <c r="D98" s="12">
         <v>7</v>
       </c>
-      <c r="E98" s="11" t="str">
+      <c r="E98" s="9" t="str">
         <f>INT((INT(SUM($D$1:D98)/60)+SUM($C$1:C98))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D98)/60)+SUM($C$1:C98))/60-INT((INT(SUM($D$1:D98)/60)+SUM($C$1:C98))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D98)/60-INT(SUM($D$1:D98)/60))*60) &amp; " seg"</f>
         <v>30 hs 42 min 15 seg</v>
       </c>
-      <c r="F98" s="12">
+      <c r="F98" s="10">
         <v>44426</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="20">
+      <c r="G98" s="10"/>
+      <c r="H98" s="22">
+        <f>(SUM($C$2:C98)*60+SUM($D$2:D98))/$D$104</f>
+        <v>0.9538339402516266</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="18">
         <v>98</v>
       </c>
-      <c r="B99" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C99" s="14">
+      <c r="B99" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C99" s="12">
         <v>18</v>
       </c>
-      <c r="D99" s="14">
+      <c r="D99" s="12">
         <v>52</v>
       </c>
-      <c r="E99" s="11" t="str">
+      <c r="E99" s="9" t="str">
         <f>INT((INT(SUM($D$1:D99)/60)+SUM($C$1:C99))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D99)/60)+SUM($C$1:C99))/60-INT((INT(SUM($D$1:D99)/60)+SUM($C$1:C99))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D99)/60-INT(SUM($D$1:D99)/60))*60) &amp; " seg"</f>
         <v>31 hs 0 min 7 seg</v>
       </c>
-      <c r="F99" s="12">
+      <c r="F99" s="10">
         <v>44426</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="22">
+      <c r="G99" s="10"/>
+      <c r="H99" s="22">
+        <f>(SUM($C$2:C99)*60+SUM($D$2:D99))/$D$104</f>
+        <v>0.96360216074417959</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="20">
         <v>99</v>
       </c>
-      <c r="B100" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C100" s="16">
+      <c r="B100" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C100" s="14">
         <v>18</v>
       </c>
-      <c r="D100" s="16">
+      <c r="D100" s="14">
         <v>4</v>
       </c>
-      <c r="E100" s="17" t="str">
+      <c r="E100" s="15" t="str">
         <f>INT((INT(SUM($D$1:D100)/60)+SUM($C$1:C100))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D100)/60)+SUM($C$1:C100))/60-INT((INT(SUM($D$1:D100)/60)+SUM($C$1:C100))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D100)/60-INT(SUM($D$1:D100)/60))*60) &amp; " seg"</f>
         <v>31 hs 19 min 12 seg</v>
       </c>
-      <c r="F100" s="18">
+      <c r="F100" s="16">
         <v>44427</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="21">
+      <c r="G100" s="16"/>
+      <c r="H100" s="22">
+        <f>(SUM($C$2:C100)*60+SUM($D$2:D100))/$D$104</f>
+        <v>0.97295618107450421</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="19">
         <v>100</v>
       </c>
-      <c r="B101" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C101" s="16">
+      <c r="B101" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C101" s="14">
         <v>18</v>
       </c>
-      <c r="D101" s="16">
+      <c r="D101" s="14">
         <v>32</v>
       </c>
-      <c r="E101" s="17" t="str">
+      <c r="E101" s="15" t="str">
         <f>INT((INT(SUM($D$1:D101)/60)+SUM($C$1:C101))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D101)/60)+SUM($C$1:C101))/60-INT((INT(SUM($D$1:D101)/60)+SUM($C$1:C101))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D101)/60-INT(SUM($D$1:D101)/60))*60) &amp; " seg"</f>
         <v>31 hs 37 min 44 seg</v>
       </c>
-      <c r="F101" s="18">
+      <c r="F101" s="16">
         <v>44427</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="23">
+      <c r="G101" s="16"/>
+      <c r="H101" s="22">
+        <f>(SUM($C$2:C101)*60+SUM($D$2:D101))/$D$104</f>
+        <v>0.9825518181661288</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="21">
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C102" s="9">
+        <v>93</v>
+      </c>
+      <c r="C102" s="7">
         <v>15</v>
       </c>
-      <c r="D102" s="9">
+      <c r="D102" s="7">
         <v>5</v>
       </c>
-      <c r="E102" s="8" t="str">
+      <c r="E102" s="6" t="str">
         <f>INT((INT(SUM($D$1:D102)/60)+SUM($C$1:C102))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D102)/60)+SUM($C$1:C102))/60-INT((INT(SUM($D$1:D102)/60)+SUM($C$1:C102))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D102)/60-INT(SUM($D$1:D102)/60))*60) &amp; " seg"</f>
         <v>31 hs 52 min 49 seg</v>
       </c>
       <c r="F102" s="4"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G102" s="4"/>
+      <c r="H102" s="22">
+        <f>(SUM($C$2:C102)*60+SUM($D$2:D102))/$D$104</f>
+        <v>0.99036121705814339</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C103" s="9">
+        <v>94</v>
+      </c>
+      <c r="C103" s="7">
         <v>18</v>
       </c>
-      <c r="D103" s="9">
+      <c r="D103" s="7">
         <v>37</v>
       </c>
-      <c r="E103" s="8" t="str">
+      <c r="E103" s="6" t="str">
         <f>INT((INT(SUM($D$1:D103)/60)+SUM($C$1:C103))/60)&amp;" hs "&amp;INT(((INT(SUM($D$1:D103)/60)+SUM($C$1:C103))/60-INT((INT(SUM($D$1:D103)/60)+SUM($C$1:C103))/60))*60) &amp;" min "&amp;INT((SUM($D$1:D103)/60-INT(SUM($D$1:D103)/60))*60) &amp; " seg"</f>
         <v>32 hs 10 min 26 seg</v>
       </c>
       <c r="F103" s="4"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="7"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="7"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="7"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="7"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="7"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="7"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="7"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="7"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="7"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="7"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="7"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="7"/>
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="7"/>
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="7"/>
-      <c r="B118" s="7"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="7"/>
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="7"/>
-      <c r="B120" s="7"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="7"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="7"/>
-      <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="7"/>
-      <c r="B122" s="7"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="7"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="7"/>
-      <c r="B123" s="7"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="7"/>
-      <c r="B124" s="7"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="7"/>
-      <c r="B125" s="7"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="7"/>
-      <c r="B126" s="7"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="7"/>
-      <c r="B127" s="7"/>
-      <c r="C127" s="7"/>
-      <c r="D127" s="7"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="7"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="7"/>
-      <c r="B128" s="7"/>
-      <c r="C128" s="7"/>
-      <c r="D128" s="7"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="7"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="7"/>
-      <c r="B129" s="7"/>
-      <c r="C129" s="7"/>
-      <c r="D129" s="7"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="7"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="7"/>
-      <c r="B130" s="7"/>
-      <c r="C130" s="7"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="7"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="7"/>
-      <c r="B131" s="7"/>
-      <c r="C131" s="7"/>
-      <c r="D131" s="7"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="7"/>
-      <c r="B132" s="7"/>
-      <c r="C132" s="7"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="7"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="7"/>
-      <c r="B133" s="7"/>
-      <c r="C133" s="7"/>
-      <c r="D133" s="7"/>
-      <c r="E133" s="7"/>
-      <c r="F133" s="7"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="7"/>
-      <c r="B134" s="7"/>
-      <c r="C134" s="7"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="7"/>
-      <c r="F134" s="7"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="7"/>
-      <c r="B135" s="7"/>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="7"/>
-      <c r="F135" s="7"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="7"/>
-      <c r="B136" s="7"/>
-      <c r="C136" s="7"/>
-      <c r="D136" s="7"/>
-      <c r="E136" s="7"/>
-      <c r="F136" s="7"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="7"/>
-      <c r="B137" s="7"/>
-      <c r="C137" s="7"/>
-      <c r="D137" s="7"/>
-      <c r="E137" s="7"/>
-      <c r="F137" s="7"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="7"/>
-      <c r="B138" s="7"/>
-      <c r="C138" s="7"/>
-      <c r="D138" s="7"/>
-      <c r="E138" s="7"/>
-      <c r="F138" s="7"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="7"/>
-      <c r="B139" s="7"/>
-      <c r="C139" s="7"/>
-      <c r="D139" s="7"/>
-      <c r="E139" s="7"/>
-      <c r="F139" s="7"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="7"/>
-      <c r="B140" s="7"/>
-      <c r="C140" s="7"/>
-      <c r="D140" s="7"/>
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="6"/>
-      <c r="B141" s="6"/>
-      <c r="C141" s="7"/>
-      <c r="D141" s="7"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="7"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="6"/>
-      <c r="B142" s="6"/>
-      <c r="C142" s="7"/>
-      <c r="D142" s="7"/>
-      <c r="E142" s="7"/>
-      <c r="F142" s="7"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="6"/>
-      <c r="B143" s="6"/>
-      <c r="C143" s="7"/>
-      <c r="D143" s="7"/>
-      <c r="E143" s="7"/>
-      <c r="F143" s="7"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="6"/>
-      <c r="B144" s="6"/>
-      <c r="C144" s="7"/>
-      <c r="D144" s="7"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="7"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="6"/>
-      <c r="B145" s="6"/>
-      <c r="C145" s="7"/>
-      <c r="D145" s="7"/>
-      <c r="E145" s="7"/>
-      <c r="F145" s="7"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="6"/>
-      <c r="B146" s="6"/>
-      <c r="C146" s="7"/>
-      <c r="D146" s="7"/>
-      <c r="E146" s="7"/>
-      <c r="F146" s="7"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="6"/>
-      <c r="B147" s="6"/>
-      <c r="C147" s="7"/>
-      <c r="D147" s="7"/>
-      <c r="E147" s="7"/>
-      <c r="F147" s="7"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="6"/>
-      <c r="B148" s="6"/>
-      <c r="C148" s="7"/>
-      <c r="D148" s="7"/>
-      <c r="E148" s="7"/>
-      <c r="F148" s="7"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="6"/>
-      <c r="B149" s="6"/>
-      <c r="C149" s="7"/>
-      <c r="D149" s="7"/>
-      <c r="E149" s="7"/>
-      <c r="F149" s="7"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="6"/>
-      <c r="B150" s="6"/>
-      <c r="C150" s="7"/>
-      <c r="D150" s="7"/>
-      <c r="E150" s="7"/>
-      <c r="F150" s="7"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="6"/>
-      <c r="B151" s="6"/>
-      <c r="C151" s="7"/>
-      <c r="D151" s="7"/>
-      <c r="E151" s="7"/>
-      <c r="F151" s="7"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="6"/>
-      <c r="B152" s="6"/>
-      <c r="C152" s="7"/>
-      <c r="D152" s="7"/>
-      <c r="E152" s="7"/>
-      <c r="F152" s="7"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="6"/>
-      <c r="B153" s="6"/>
-      <c r="C153" s="7"/>
-      <c r="D153" s="7"/>
-      <c r="E153" s="7"/>
-      <c r="F153" s="7"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="6"/>
-      <c r="B154" s="6"/>
-      <c r="C154" s="7"/>
-      <c r="D154" s="7"/>
-      <c r="E154" s="7"/>
-      <c r="F154" s="7"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="22">
+        <f>(SUM($C$2:C103)*60+SUM($D$2:D103))/$D$104</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+      <c r="D104" s="3">
+        <f>SUM(C2:C103)*60+SUM(D2:D103)</f>
+        <v>115886</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="3"/>
+      <c r="B112" s="3"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="3"/>
+      <c r="B114" s="3"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="3"/>
+      <c r="B115" s="3"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="3"/>
+      <c r="B116" s="3"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="3"/>
+      <c r="B119" s="3"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="3"/>
+      <c r="B120" s="3"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="3"/>
+      <c r="B122" s="3"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="3"/>
+      <c r="B125" s="3"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="3"/>
+      <c r="B126" s="3"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="3"/>
+      <c r="B127" s="3"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="3"/>
+      <c r="B134" s="3"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="3"/>
+      <c r="B136" s="3"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="3"/>
+      <c r="B137" s="3"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="H3:H103" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
